--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_15_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_15_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3344095.917360693</v>
+        <v>-3344866.590815926</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1368976.422539194</v>
+        <v>1368976.422539193</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>250.9451161437573</v>
       </c>
       <c r="C11" t="n">
         <v>233.4841662512843</v>
       </c>
       <c r="D11" t="n">
-        <v>222.8943161009597</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>225.8884279203622</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>202.5581223334715</v>
       </c>
       <c r="I11" t="n">
-        <v>59.38332353240367</v>
+        <v>59.38332353240369</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>65.82128594291707</v>
+        <v>19.12194927867554</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1427,13 +1427,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>195.9635329504117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>217.4522431976898</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>237.9423751587458</v>
       </c>
       <c r="Y11" t="n">
         <v>254.4492131363303</v>
@@ -1446,22 +1446,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>34.7444581301441</v>
+        <v>150.247308731803</v>
       </c>
       <c r="C12" t="n">
         <v>40.9197734685925</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>15.65634004491551</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>25.8563549356777</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>13.28048687366064</v>
       </c>
       <c r="G12" t="n">
-        <v>120.7897357478823</v>
+        <v>5.286885146222771</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>34.91819990027393</v>
+        <v>34.91819990027394</v>
       </c>
       <c r="T12" t="n">
         <v>67.29615198656246</v>
       </c>
       <c r="U12" t="n">
-        <v>94.13503113379996</v>
+        <v>225.9237566535232</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1512,10 +1512,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>73.98425968375423</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>73.89397025758112</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1546,7 +1546,7 @@
         <v>28.44151495159118</v>
       </c>
       <c r="I13" t="n">
-        <v>16.9073003528295</v>
+        <v>16.90730035282951</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>35.40566192015073</v>
       </c>
       <c r="S13" t="n">
-        <v>88.31364070410798</v>
+        <v>88.313640704108</v>
       </c>
       <c r="T13" t="n">
         <v>95.19719309365148</v>
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>250.9451161437572</v>
       </c>
       <c r="C14" t="n">
-        <v>233.4841662512843</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>222.8943161009597</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>250.1416445525384</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>275.0873202219881</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>283.0132963344745</v>
       </c>
       <c r="H14" t="n">
-        <v>202.5581223334715</v>
+        <v>161.6999186432701</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>89.1152412386558</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>119.5168701352383</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>195.9635329504117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>217.4522431976898</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>194.352016824648</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>254.4492131363302</v>
       </c>
     </row>
     <row r="15">
@@ -1692,13 +1692,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>25.8563549356777</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>13.28048687366064</v>
+        <v>128.7833374753205</v>
       </c>
       <c r="G15" t="n">
-        <v>5.286885146222771</v>
+        <v>5.286885146222657</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>34.91819990027393</v>
+        <v>34.91819990027383</v>
       </c>
       <c r="T15" t="n">
-        <v>67.29615198656246</v>
+        <v>67.29615198656235</v>
       </c>
       <c r="U15" t="n">
-        <v>94.13503113379996</v>
+        <v>94.13503113379984</v>
       </c>
       <c r="V15" t="n">
-        <v>101.011861629702</v>
+        <v>101.0118616297019</v>
       </c>
       <c r="W15" t="n">
-        <v>235.4091082428558</v>
+        <v>119.9062576411962</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>73.893970257581</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.04325466221405</v>
+        <v>48.04325466221394</v>
       </c>
       <c r="C16" t="n">
-        <v>35.45809557890459</v>
+        <v>35.45809557890448</v>
       </c>
       <c r="D16" t="n">
-        <v>16.82674749848911</v>
+        <v>16.826747498489</v>
       </c>
       <c r="E16" t="n">
-        <v>14.64523712684593</v>
+        <v>14.64523712684581</v>
       </c>
       <c r="F16" t="n">
-        <v>13.632322503208</v>
+        <v>13.63232250320789</v>
       </c>
       <c r="G16" t="n">
-        <v>35.97765003099138</v>
+        <v>35.97765003099126</v>
       </c>
       <c r="H16" t="n">
-        <v>28.44151495159118</v>
+        <v>28.44151495159106</v>
       </c>
       <c r="I16" t="n">
-        <v>16.9073003528295</v>
+        <v>16.9073003528294</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>35.40566192015073</v>
+        <v>35.40566192015062</v>
       </c>
       <c r="S16" t="n">
-        <v>88.31364070410798</v>
+        <v>88.31364070410788</v>
       </c>
       <c r="T16" t="n">
-        <v>95.19719309365148</v>
+        <v>95.19719309365136</v>
       </c>
       <c r="U16" t="n">
-        <v>154.5180527199816</v>
+        <v>154.5180527199815</v>
       </c>
       <c r="V16" t="n">
-        <v>120.3489178041048</v>
+        <v>120.3489178041046</v>
       </c>
       <c r="W16" t="n">
-        <v>154.7342728168678</v>
+        <v>154.7342728168676</v>
       </c>
       <c r="X16" t="n">
-        <v>93.92092986931391</v>
+        <v>93.9209298693138</v>
       </c>
       <c r="Y16" t="n">
-        <v>86.79592783237155</v>
+        <v>86.79592783237143</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>145.2691405200464</v>
+        <v>145.2691405200463</v>
       </c>
       <c r="C17" t="n">
-        <v>127.8081906275734</v>
+        <v>127.8081906275733</v>
       </c>
       <c r="D17" t="n">
-        <v>117.2183404772492</v>
+        <v>117.2183404772487</v>
       </c>
       <c r="E17" t="n">
-        <v>144.4656689288276</v>
+        <v>144.4656689288275</v>
       </c>
       <c r="F17" t="n">
-        <v>169.4113445982773</v>
+        <v>169.4113445982772</v>
       </c>
       <c r="G17" t="n">
         <v>177.3373207107637</v>
       </c>
       <c r="H17" t="n">
-        <v>96.88214670976051</v>
+        <v>96.88214670976043</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,19 +1898,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>13.84089451152734</v>
+        <v>13.8408945115273</v>
       </c>
       <c r="V17" t="n">
-        <v>90.28755732670072</v>
+        <v>90.28755732670066</v>
       </c>
       <c r="W17" t="n">
         <v>111.7762675739788</v>
       </c>
       <c r="X17" t="n">
-        <v>132.2663995350349</v>
+        <v>132.2663995350348</v>
       </c>
       <c r="Y17" t="n">
-        <v>148.7732375126194</v>
+        <v>148.7732375126193</v>
       </c>
     </row>
     <row r="18">
@@ -1920,13 +1920,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -1935,7 +1935,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>22.78480383905092</v>
+        <v>50.74720823892373</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1977,10 +1977,10 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9237566535232</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>35.5221189905384</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>77.47969090916223</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>67.35453713231934</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2056,19 +2056,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>48.84207709627066</v>
+        <v>48.8420770962706</v>
       </c>
       <c r="V19" t="n">
-        <v>14.67294218039382</v>
+        <v>14.67294218039376</v>
       </c>
       <c r="W19" t="n">
-        <v>49.05829719315682</v>
+        <v>49.05829719315676</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>180.3563470320199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,22 +2081,22 @@
         <v>145.2691405200464</v>
       </c>
       <c r="C20" t="n">
-        <v>127.8081906275734</v>
+        <v>127.8081906275733</v>
       </c>
       <c r="D20" t="n">
-        <v>117.2183404772488</v>
+        <v>117.2183404772487</v>
       </c>
       <c r="E20" t="n">
         <v>144.4656689288276</v>
       </c>
       <c r="F20" t="n">
-        <v>169.4113445982773</v>
+        <v>169.4113445982772</v>
       </c>
       <c r="G20" t="n">
         <v>177.3373207107637</v>
       </c>
       <c r="H20" t="n">
-        <v>96.88214670976049</v>
+        <v>96.88214670976046</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,16 +2135,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>13.84089451152734</v>
+        <v>13.84089451152732</v>
       </c>
       <c r="V20" t="n">
-        <v>90.28755732670072</v>
+        <v>90.28755732670069</v>
       </c>
       <c r="W20" t="n">
         <v>111.7762675739788</v>
       </c>
       <c r="X20" t="n">
-        <v>132.2663995350349</v>
+        <v>132.2663995350348</v>
       </c>
       <c r="Y20" t="n">
         <v>148.7732375126194</v>
@@ -2166,19 +2166,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>92.69850953841051</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>70.42881434415172</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>109.6480314865987</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>80.17265915173408</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2217,10 +2217,10 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>14.23028201748539</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2248,10 +2248,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>34.93529900908865</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,19 +2287,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>180.35634703202</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>48.84207709627066</v>
+        <v>48.84207709627063</v>
       </c>
       <c r="V22" t="n">
-        <v>14.67294218039382</v>
+        <v>14.67294218039379</v>
       </c>
       <c r="W22" t="n">
-        <v>49.05829719315682</v>
+        <v>49.05829719315679</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2318,22 +2318,22 @@
         <v>145.2691405200464</v>
       </c>
       <c r="C23" t="n">
-        <v>127.8081906275734</v>
+        <v>127.8081906275733</v>
       </c>
       <c r="D23" t="n">
-        <v>117.2183404772488</v>
+        <v>117.2183404772487</v>
       </c>
       <c r="E23" t="n">
         <v>144.4656689288276</v>
       </c>
       <c r="F23" t="n">
-        <v>169.4113445982773</v>
+        <v>169.4113445982772</v>
       </c>
       <c r="G23" t="n">
         <v>177.3373207107637</v>
       </c>
       <c r="H23" t="n">
-        <v>96.88214670976051</v>
+        <v>96.88214670976048</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,16 +2372,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>13.84089451152734</v>
+        <v>13.84089451152731</v>
       </c>
       <c r="V23" t="n">
-        <v>90.28755732670072</v>
+        <v>90.28755732670069</v>
       </c>
       <c r="W23" t="n">
         <v>111.7762675739788</v>
       </c>
       <c r="X23" t="n">
-        <v>132.2663995350349</v>
+        <v>132.2663995350348</v>
       </c>
       <c r="Y23" t="n">
         <v>148.7732375126194</v>
@@ -2394,16 +2394,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>39.48325187320311</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>109.6480314865987</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>0.1802316998300454</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>83.52413075230119</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>166.7069254199972</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>199.0848775062857</v>
       </c>
       <c r="U24" t="n">
         <v>225.9237566535232</v>
@@ -2463,7 +2463,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2476,19 +2476,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>33.92238438545071</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>113.0018098997006</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>67.35453713231934</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>48.84207709627066</v>
+        <v>48.84207709627063</v>
       </c>
       <c r="V25" t="n">
-        <v>14.67294218039382</v>
+        <v>14.67294218039379</v>
       </c>
       <c r="W25" t="n">
-        <v>49.05829719315682</v>
+        <v>49.05829719315679</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>184.2550377349015</v>
       </c>
       <c r="I26" t="n">
-        <v>41.08023893383375</v>
+        <v>41.08023893383378</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.51820134434716</v>
+        <v>47.51820134434718</v>
       </c>
       <c r="T26" t="n">
         <v>70.81215664008589</v>
@@ -2643,7 +2643,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>78.38470365822846</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2685,10 +2685,10 @@
         <v>16.61511530170403</v>
       </c>
       <c r="T27" t="n">
-        <v>48.99306738799255</v>
+        <v>132.4003687711299</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9237566535232</v>
+        <v>75.83194653523005</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2761,7 +2761,7 @@
         <v>17.10257732158082</v>
       </c>
       <c r="S28" t="n">
-        <v>70.01055610553807</v>
+        <v>70.01055610553809</v>
       </c>
       <c r="T28" t="n">
         <v>76.89410849508157</v>
@@ -2810,7 +2810,7 @@
         <v>184.2550377349016</v>
       </c>
       <c r="I29" t="n">
-        <v>41.08023893383381</v>
+        <v>41.08023893383383</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.51820134434722</v>
+        <v>47.51820134434723</v>
       </c>
       <c r="T29" t="n">
         <v>70.81215664008595</v>
@@ -2919,13 +2919,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>16.61511530170408</v>
+        <v>16.61511530170409</v>
       </c>
       <c r="T30" t="n">
         <v>48.9930673879926</v>
       </c>
       <c r="U30" t="n">
-        <v>159.2392479183676</v>
+        <v>159.2392479183674</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>17.10257732158087</v>
+        <v>17.10257732158088</v>
       </c>
       <c r="S31" t="n">
-        <v>70.01055610553813</v>
+        <v>70.01055610553814</v>
       </c>
       <c r="T31" t="n">
         <v>76.89410849508162</v>
@@ -3029,10 +3029,10 @@
         <v>232.6420315451875</v>
       </c>
       <c r="C32" t="n">
-        <v>215.1810816527145</v>
+        <v>215.1810816527144</v>
       </c>
       <c r="D32" t="n">
-        <v>204.5912315023899</v>
+        <v>204.5912315023898</v>
       </c>
       <c r="E32" t="n">
         <v>231.8385599539687</v>
@@ -3041,10 +3041,10 @@
         <v>256.7842356234183</v>
       </c>
       <c r="G32" t="n">
-        <v>264.7102117359048</v>
+        <v>264.7102117359047</v>
       </c>
       <c r="H32" t="n">
-        <v>184.2550377349016</v>
+        <v>184.2550377349015</v>
       </c>
       <c r="I32" t="n">
         <v>41.08023893383381</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>47.51820134434723</v>
+        <v>47.5182013443472</v>
       </c>
       <c r="T32" t="n">
-        <v>70.81215664008593</v>
+        <v>70.8121566400859</v>
       </c>
       <c r="U32" t="n">
         <v>101.2137855366684</v>
@@ -3108,7 +3108,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>22.61668887002264</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -3156,13 +3156,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>100.0224166848419</v>
+        <v>16.61511530170406</v>
       </c>
       <c r="T33" t="n">
-        <v>48.9930673879926</v>
+        <v>48.99306738799257</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9237566535232</v>
+        <v>159.2392479183674</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.7401700636442</v>
+        <v>29.74017006364417</v>
       </c>
       <c r="C34" t="n">
-        <v>17.15501098033474</v>
+        <v>17.15501098033471</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>17.67456543242152</v>
+        <v>17.6745654324215</v>
       </c>
       <c r="H34" t="n">
-        <v>10.13843035302132</v>
+        <v>10.1384303530213</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>17.10257732158087</v>
+        <v>17.10257732158085</v>
       </c>
       <c r="S34" t="n">
-        <v>70.01055610553813</v>
+        <v>70.01055610553811</v>
       </c>
       <c r="T34" t="n">
-        <v>76.89410849508162</v>
+        <v>76.8941084950816</v>
       </c>
       <c r="U34" t="n">
         <v>136.2149681214117</v>
@@ -3250,10 +3250,10 @@
         <v>136.4311882182979</v>
       </c>
       <c r="X34" t="n">
-        <v>75.61784527074406</v>
+        <v>75.61784527074403</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.49284323380169</v>
+        <v>68.49284323380166</v>
       </c>
     </row>
     <row r="35">
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>30.40162889658247</v>
+        <v>30.40162889658248</v>
       </c>
       <c r="V35" t="n">
         <v>106.8482917117558</v>
@@ -3345,16 +3345,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>65.5035655055502</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3399,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9237566535232</v>
+        <v>161.4215282986025</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3475,13 +3475,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>6.081951854995666</v>
+        <v>6.081951854995667</v>
       </c>
       <c r="U37" t="n">
         <v>65.40281148132578</v>
       </c>
       <c r="V37" t="n">
-        <v>31.23367656544895</v>
+        <v>151.0201799566497</v>
       </c>
       <c r="W37" t="n">
         <v>65.61903157821195</v>
@@ -3490,7 +3490,7 @@
         <v>4.805688630658096</v>
       </c>
       <c r="Y37" t="n">
-        <v>119.7865033912008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>30.40162889658248</v>
+        <v>30.40162889658247</v>
       </c>
       <c r="V38" t="n">
         <v>106.8482917117558</v>
@@ -3582,7 +3582,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -3636,10 +3636,10 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>5.019789895144143</v>
+        <v>161.4215282986034</v>
       </c>
       <c r="V39" t="n">
-        <v>216.4938265645679</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>119.7865033912007</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>119.7865033912007</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>6.081951854995666</v>
+        <v>6.081951854995667</v>
       </c>
       <c r="U40" t="n">
         <v>65.40281148132578</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>179.9940596203152</v>
+        <v>179.9940596203151</v>
       </c>
       <c r="C41" t="n">
-        <v>162.5331097278422</v>
+        <v>162.5331097278421</v>
       </c>
       <c r="D41" t="n">
-        <v>151.9432595775176</v>
+        <v>151.9432595775175</v>
       </c>
       <c r="E41" t="n">
-        <v>179.1905880290964</v>
+        <v>179.1905880290963</v>
       </c>
       <c r="F41" t="n">
-        <v>204.1362636985461</v>
+        <v>204.136263698546</v>
       </c>
       <c r="G41" t="n">
         <v>212.0622398110325</v>
       </c>
       <c r="H41" t="n">
-        <v>131.6070658100293</v>
+        <v>131.6070658100292</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,10 +3791,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>18.16418471521366</v>
+        <v>18.1641847152136</v>
       </c>
       <c r="U41" t="n">
-        <v>48.56581361179614</v>
+        <v>48.56581361179609</v>
       </c>
       <c r="V41" t="n">
         <v>125.0124764269695</v>
@@ -3803,7 +3803,7 @@
         <v>146.5011866742476</v>
       </c>
       <c r="X41" t="n">
-        <v>166.9913186353037</v>
+        <v>166.9913186353036</v>
       </c>
       <c r="Y41" t="n">
         <v>183.4981566128882</v>
@@ -3819,19 +3819,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>19.02895854473915</v>
       </c>
       <c r="G42" t="n">
-        <v>88.10804219055611</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3864,13 +3864,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>83.52413075230118</v>
+        <v>83.52413075230119</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>199.0848775062857</v>
       </c>
       <c r="U42" t="n">
         <v>225.9237566535232</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>17.36258418066586</v>
+        <v>17.3625841806658</v>
       </c>
       <c r="T43" t="n">
-        <v>24.24613657020934</v>
+        <v>24.24613657020929</v>
       </c>
       <c r="U43" t="n">
-        <v>83.56699619653946</v>
+        <v>83.56699619653941</v>
       </c>
       <c r="V43" t="n">
-        <v>49.39786128066262</v>
+        <v>49.39786128066257</v>
       </c>
       <c r="W43" t="n">
-        <v>83.78321629342562</v>
+        <v>83.78321629342557</v>
       </c>
       <c r="X43" t="n">
-        <v>22.96987334587178</v>
+        <v>22.96987334587172</v>
       </c>
       <c r="Y43" t="n">
-        <v>15.84487130892941</v>
+        <v>15.84487130892936</v>
       </c>
     </row>
     <row r="44">
@@ -4028,10 +4028,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>18.16418471521365</v>
+        <v>18.16418471521366</v>
       </c>
       <c r="U44" t="n">
-        <v>48.56581361179616</v>
+        <v>48.56581361179614</v>
       </c>
       <c r="V44" t="n">
         <v>125.0124764269695</v>
@@ -4110,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>224.8474306080646</v>
+        <v>224.8474306080641</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>779.5546890430396</v>
+        <v>530.8429499644024</v>
       </c>
       <c r="C11" t="n">
-        <v>543.7120968700251</v>
+        <v>295.0003577913878</v>
       </c>
       <c r="D11" t="n">
-        <v>318.5663230306718</v>
+        <v>295.0003577913878</v>
       </c>
       <c r="E11" t="n">
-        <v>318.5663230306718</v>
+        <v>295.0003577913878</v>
       </c>
       <c r="F11" t="n">
-        <v>90.39619381818468</v>
+        <v>295.0003577913878</v>
       </c>
       <c r="G11" t="n">
-        <v>90.39619381818468</v>
+        <v>295.0003577913878</v>
       </c>
       <c r="H11" t="n">
         <v>90.39619381818468</v>
       </c>
       <c r="I11" t="n">
-        <v>30.41303873494865</v>
+        <v>30.41303873494864</v>
       </c>
       <c r="J11" t="n">
-        <v>60.65588194307101</v>
+        <v>60.65588194307097</v>
       </c>
       <c r="K11" t="n">
         <v>226.7268685113764</v>
       </c>
       <c r="L11" t="n">
-        <v>485.029239892739</v>
+        <v>485.0292398927388</v>
       </c>
       <c r="M11" t="n">
-        <v>789.046943066186</v>
+        <v>789.0469430661857</v>
       </c>
       <c r="N11" t="n">
-        <v>1083.35197297189</v>
+        <v>1083.351972971889</v>
       </c>
       <c r="O11" t="n">
         <v>1316.068229373092</v>
       </c>
       <c r="P11" t="n">
-        <v>1477.011787223107</v>
+        <v>1477.011787223106</v>
       </c>
       <c r="Q11" t="n">
-        <v>1520.651936747433</v>
+        <v>1520.651936747432</v>
       </c>
       <c r="R11" t="n">
-        <v>1520.651936747433</v>
+        <v>1520.651936747432</v>
       </c>
       <c r="S11" t="n">
-        <v>1454.165789330345</v>
+        <v>1501.336836465941</v>
       </c>
       <c r="T11" t="n">
-        <v>1454.165789330345</v>
+        <v>1501.336836465941</v>
       </c>
       <c r="U11" t="n">
-        <v>1454.165789330345</v>
+        <v>1501.336836465941</v>
       </c>
       <c r="V11" t="n">
-        <v>1256.222826754171</v>
+        <v>1501.336836465941</v>
       </c>
       <c r="W11" t="n">
-        <v>1036.574096251454</v>
+        <v>1281.688105963224</v>
       </c>
       <c r="X11" t="n">
-        <v>1036.574096251454</v>
+        <v>1041.342272469542</v>
       </c>
       <c r="Y11" t="n">
-        <v>779.5546890430396</v>
+        <v>784.3228652611269</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>648.4623999772703</v>
+        <v>132.4330796127962</v>
       </c>
       <c r="C12" t="n">
-        <v>607.1292954635404</v>
+        <v>91.09997509906643</v>
       </c>
       <c r="D12" t="n">
-        <v>458.1948858022891</v>
+        <v>75.28549020521238</v>
       </c>
       <c r="E12" t="n">
-        <v>298.9574307968336</v>
+        <v>49.1679599671541</v>
       </c>
       <c r="F12" t="n">
-        <v>152.4228728237186</v>
+        <v>35.75332676143628</v>
       </c>
       <c r="G12" t="n">
-        <v>30.41303873494865</v>
+        <v>30.41303873494864</v>
       </c>
       <c r="H12" t="n">
-        <v>30.41303873494865</v>
+        <v>30.41303873494864</v>
       </c>
       <c r="I12" t="n">
-        <v>30.41303873494865</v>
+        <v>30.41303873494864</v>
       </c>
       <c r="J12" t="n">
-        <v>54.73208928248589</v>
+        <v>54.73208928248586</v>
       </c>
       <c r="K12" t="n">
-        <v>54.73208928248589</v>
+        <v>222.918063264418</v>
       </c>
       <c r="L12" t="n">
-        <v>342.2832830263358</v>
+        <v>510.4692570082679</v>
       </c>
       <c r="M12" t="n">
-        <v>718.6446373713254</v>
+        <v>886.8306113532573</v>
       </c>
       <c r="N12" t="n">
-        <v>1095.005991716315</v>
+        <v>1263.191965698247</v>
       </c>
       <c r="O12" t="n">
-        <v>1406.863758956166</v>
+        <v>1263.191965698247</v>
       </c>
       <c r="P12" t="n">
-        <v>1417.401329157675</v>
+        <v>1496.482250097246</v>
       </c>
       <c r="Q12" t="n">
-        <v>1520.651936747433</v>
+        <v>1520.651936747432</v>
       </c>
       <c r="R12" t="n">
-        <v>1520.651936747433</v>
+        <v>1520.651936747432</v>
       </c>
       <c r="S12" t="n">
-        <v>1485.381027757257</v>
+        <v>1485.381027757256</v>
       </c>
       <c r="T12" t="n">
-        <v>1417.405116659719</v>
+        <v>1417.405116659718</v>
       </c>
       <c r="U12" t="n">
-        <v>1322.319226625578</v>
+        <v>1189.19930185818</v>
       </c>
       <c r="V12" t="n">
-        <v>1087.167118393835</v>
+        <v>954.0471936264371</v>
       </c>
       <c r="W12" t="n">
-        <v>832.9297616656334</v>
+        <v>699.8098368982355</v>
       </c>
       <c r="X12" t="n">
-        <v>758.1981862274978</v>
+        <v>491.9583366927027</v>
       </c>
       <c r="Y12" t="n">
-        <v>683.5578122299411</v>
+        <v>284.1980379277488</v>
       </c>
     </row>
     <row r="13">
@@ -5176,7 +5176,7 @@
         <v>193.9371478691504</v>
       </c>
       <c r="C13" t="n">
-        <v>158.1208897086407</v>
+        <v>158.1208897086406</v>
       </c>
       <c r="D13" t="n">
         <v>141.1241750637022</v>
@@ -5185,37 +5185,37 @@
         <v>126.3310062487063</v>
       </c>
       <c r="F13" t="n">
-        <v>112.5609835181932</v>
+        <v>112.5609835181931</v>
       </c>
       <c r="G13" t="n">
-        <v>76.21992288082814</v>
+        <v>76.21992288082811</v>
       </c>
       <c r="H13" t="n">
-        <v>47.4911198994229</v>
+        <v>47.49111989942288</v>
       </c>
       <c r="I13" t="n">
-        <v>30.41303873494865</v>
+        <v>30.41303873494864</v>
       </c>
       <c r="J13" t="n">
-        <v>30.41303873494865</v>
+        <v>84.17898299940404</v>
       </c>
       <c r="K13" t="n">
-        <v>71.83093797171585</v>
+        <v>218.4369543230368</v>
       </c>
       <c r="L13" t="n">
-        <v>262.6744372905836</v>
+        <v>409.2804536419045</v>
       </c>
       <c r="M13" t="n">
-        <v>467.1889048597213</v>
+        <v>613.7949212110423</v>
       </c>
       <c r="N13" t="n">
-        <v>675.3773968414973</v>
+        <v>739.1672433450274</v>
       </c>
       <c r="O13" t="n">
-        <v>861.6167717661754</v>
+        <v>925.4066182697054</v>
       </c>
       <c r="P13" t="n">
-        <v>1016.286545226998</v>
+        <v>1080.076391730528</v>
       </c>
       <c r="Q13" t="n">
         <v>1080.076391730528</v>
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>696.0055687205199</v>
+        <v>1010.152614242293</v>
       </c>
       <c r="C14" t="n">
-        <v>460.1629765475054</v>
+        <v>1010.152614242293</v>
       </c>
       <c r="D14" t="n">
-        <v>235.0172027081522</v>
+        <v>1010.152614242293</v>
       </c>
       <c r="E14" t="n">
-        <v>235.0172027081522</v>
+        <v>757.484286411446</v>
       </c>
       <c r="F14" t="n">
-        <v>235.0172027081522</v>
+        <v>479.6183063892361</v>
       </c>
       <c r="G14" t="n">
-        <v>235.0172027081522</v>
+        <v>193.7462898897669</v>
       </c>
       <c r="H14" t="n">
-        <v>30.41303873494865</v>
+        <v>30.41303873494864</v>
       </c>
       <c r="I14" t="n">
-        <v>30.41303873494865</v>
+        <v>30.41303873494864</v>
       </c>
       <c r="J14" t="n">
-        <v>60.65588194307101</v>
+        <v>60.65588194307096</v>
       </c>
       <c r="K14" t="n">
         <v>226.7268685113764</v>
       </c>
       <c r="L14" t="n">
-        <v>485.029239892739</v>
+        <v>485.0292398927388</v>
       </c>
       <c r="M14" t="n">
-        <v>789.046943066186</v>
+        <v>789.0469430661858</v>
       </c>
       <c r="N14" t="n">
-        <v>1083.35197297189</v>
+        <v>1083.351972971889</v>
       </c>
       <c r="O14" t="n">
         <v>1316.068229373092</v>
       </c>
       <c r="P14" t="n">
-        <v>1477.011787223107</v>
+        <v>1477.011787223106</v>
       </c>
       <c r="Q14" t="n">
-        <v>1520.651936747433</v>
+        <v>1520.651936747432</v>
       </c>
       <c r="R14" t="n">
-        <v>1520.651936747433</v>
+        <v>1520.651936747432</v>
       </c>
       <c r="S14" t="n">
-        <v>1520.651936747433</v>
+        <v>1520.651936747432</v>
       </c>
       <c r="T14" t="n">
-        <v>1430.636541556871</v>
+        <v>1520.651936747432</v>
       </c>
       <c r="U14" t="n">
-        <v>1309.912430309156</v>
+        <v>1520.651936747432</v>
       </c>
       <c r="V14" t="n">
-        <v>1111.969467732982</v>
+        <v>1520.651936747432</v>
       </c>
       <c r="W14" t="n">
-        <v>892.3207372302654</v>
+        <v>1520.651936747432</v>
       </c>
       <c r="X14" t="n">
-        <v>696.0055687205199</v>
+        <v>1520.651936747432</v>
       </c>
       <c r="Y14" t="n">
-        <v>696.0055687205199</v>
+        <v>1263.632529539017</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>398.6729291475907</v>
+        <v>648.4623999772705</v>
       </c>
       <c r="C15" t="n">
-        <v>224.2198998664637</v>
+        <v>474.0093706961435</v>
       </c>
       <c r="D15" t="n">
-        <v>75.2854902052124</v>
+        <v>325.0749610348922</v>
       </c>
       <c r="E15" t="n">
-        <v>49.16795996715411</v>
+        <v>165.8375060294367</v>
       </c>
       <c r="F15" t="n">
-        <v>35.7533267614363</v>
+        <v>35.75332676143617</v>
       </c>
       <c r="G15" t="n">
-        <v>30.41303873494865</v>
+        <v>30.41303873494864</v>
       </c>
       <c r="H15" t="n">
-        <v>30.41303873494865</v>
+        <v>30.41303873494864</v>
       </c>
       <c r="I15" t="n">
-        <v>30.41303873494865</v>
+        <v>30.41303873494864</v>
       </c>
       <c r="J15" t="n">
-        <v>30.41303873494865</v>
+        <v>30.41303873494864</v>
       </c>
       <c r="K15" t="n">
-        <v>30.41303873494865</v>
+        <v>30.41303873494864</v>
       </c>
       <c r="L15" t="n">
-        <v>317.9642324787986</v>
+        <v>317.9642324787985</v>
       </c>
       <c r="M15" t="n">
-        <v>694.3255868237882</v>
+        <v>694.3255868237879</v>
       </c>
       <c r="N15" t="n">
-        <v>1070.686941168778</v>
+        <v>1070.686941168777</v>
       </c>
       <c r="O15" t="n">
         <v>1382.544708408629</v>
       </c>
       <c r="P15" t="n">
-        <v>1520.651936747433</v>
+        <v>1520.651936747432</v>
       </c>
       <c r="Q15" t="n">
-        <v>1520.651936747433</v>
+        <v>1520.651936747432</v>
       </c>
       <c r="R15" t="n">
-        <v>1520.651936747433</v>
+        <v>1520.651936747432</v>
       </c>
       <c r="S15" t="n">
-        <v>1485.381027757257</v>
+        <v>1485.381027757256</v>
       </c>
       <c r="T15" t="n">
         <v>1417.405116659719</v>
       </c>
       <c r="U15" t="n">
-        <v>1322.319226625578</v>
+        <v>1322.319226625577</v>
       </c>
       <c r="V15" t="n">
         <v>1220.287043161232</v>
       </c>
       <c r="W15" t="n">
-        <v>982.5000651381454</v>
+        <v>1099.169611200428</v>
       </c>
       <c r="X15" t="n">
-        <v>774.6485649326125</v>
+        <v>891.3181109948951</v>
       </c>
       <c r="Y15" t="n">
-        <v>566.8882661676587</v>
+        <v>816.6777369973385</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>193.9371478691504</v>
+        <v>634.5126928860552</v>
       </c>
       <c r="C16" t="n">
-        <v>158.1208897086407</v>
+        <v>598.6964347255456</v>
       </c>
       <c r="D16" t="n">
-        <v>141.1241750637022</v>
+        <v>581.6997200806072</v>
       </c>
       <c r="E16" t="n">
-        <v>126.3310062487063</v>
+        <v>566.9065512656115</v>
       </c>
       <c r="F16" t="n">
-        <v>112.5609835181932</v>
+        <v>553.1365285350985</v>
       </c>
       <c r="G16" t="n">
-        <v>76.21992288082814</v>
+        <v>516.7954678977336</v>
       </c>
       <c r="H16" t="n">
-        <v>47.4911198994229</v>
+        <v>488.0666649163285</v>
       </c>
       <c r="I16" t="n">
-        <v>30.41303873494865</v>
+        <v>470.9885837518543</v>
       </c>
       <c r="J16" t="n">
-        <v>68.04380491260915</v>
+        <v>470.9885837518543</v>
       </c>
       <c r="K16" t="n">
-        <v>202.3017762362419</v>
+        <v>512.4064829886192</v>
       </c>
       <c r="L16" t="n">
-        <v>262.6744372905836</v>
+        <v>703.249982307487</v>
       </c>
       <c r="M16" t="n">
-        <v>467.1889048597213</v>
+        <v>907.7644498766248</v>
       </c>
       <c r="N16" t="n">
-        <v>675.3773968414973</v>
+        <v>1115.952941858401</v>
       </c>
       <c r="O16" t="n">
-        <v>861.6167717661754</v>
+        <v>1302.192316783079</v>
       </c>
       <c r="P16" t="n">
-        <v>1016.286545226998</v>
+        <v>1456.862090243902</v>
       </c>
       <c r="Q16" t="n">
-        <v>1080.076391730528</v>
+        <v>1520.651936747432</v>
       </c>
       <c r="R16" t="n">
-        <v>1044.313096861689</v>
+        <v>1484.888641878593</v>
       </c>
       <c r="S16" t="n">
-        <v>955.1073991807717</v>
+        <v>1395.682944197676</v>
       </c>
       <c r="T16" t="n">
-        <v>858.9486182780935</v>
+        <v>1299.524163294998</v>
       </c>
       <c r="U16" t="n">
-        <v>702.8697771467989</v>
+        <v>1143.445322163703</v>
       </c>
       <c r="V16" t="n">
-        <v>581.3052137083092</v>
+        <v>1021.880758725214</v>
       </c>
       <c r="W16" t="n">
-        <v>425.0079684387458</v>
+        <v>865.5835134556503</v>
       </c>
       <c r="X16" t="n">
-        <v>330.1383423081257</v>
+        <v>770.7138873250303</v>
       </c>
       <c r="Y16" t="n">
-        <v>242.4656879319928</v>
+        <v>683.0412329488976</v>
       </c>
     </row>
     <row r="17">
@@ -5489,61 +5489,61 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>871.951434747526</v>
+        <v>871.9514347475256</v>
       </c>
       <c r="C17" t="n">
-        <v>742.8522522954318</v>
+        <v>742.8522522954314</v>
       </c>
       <c r="D17" t="n">
-        <v>624.4498881769982</v>
+        <v>624.4498881769983</v>
       </c>
       <c r="E17" t="n">
-        <v>478.5249700670714</v>
+        <v>478.5249700670715</v>
       </c>
       <c r="F17" t="n">
-        <v>307.4023997657812</v>
+        <v>307.4023997657814</v>
       </c>
       <c r="G17" t="n">
-        <v>128.273792987232</v>
+        <v>128.2737929872319</v>
       </c>
       <c r="H17" t="n">
-        <v>30.41303873494865</v>
+        <v>30.41303873494864</v>
       </c>
       <c r="I17" t="n">
-        <v>30.41303873494865</v>
+        <v>30.41303873494864</v>
       </c>
       <c r="J17" t="n">
-        <v>60.65588194307101</v>
+        <v>60.65588194307096</v>
       </c>
       <c r="K17" t="n">
         <v>226.7268685113764</v>
       </c>
       <c r="L17" t="n">
-        <v>485.029239892739</v>
+        <v>485.0292398927388</v>
       </c>
       <c r="M17" t="n">
-        <v>789.046943066186</v>
+        <v>789.0469430661858</v>
       </c>
       <c r="N17" t="n">
-        <v>1083.35197297189</v>
+        <v>1083.351972971889</v>
       </c>
       <c r="O17" t="n">
         <v>1316.068229373092</v>
       </c>
       <c r="P17" t="n">
-        <v>1477.011787223107</v>
+        <v>1477.011787223106</v>
       </c>
       <c r="Q17" t="n">
-        <v>1520.651936747433</v>
+        <v>1520.651936747432</v>
       </c>
       <c r="R17" t="n">
-        <v>1520.651936747433</v>
+        <v>1520.651936747432</v>
       </c>
       <c r="S17" t="n">
-        <v>1520.651936747433</v>
+        <v>1520.651936747432</v>
       </c>
       <c r="T17" t="n">
-        <v>1520.651936747433</v>
+        <v>1520.651936747432</v>
       </c>
       <c r="U17" t="n">
         <v>1506.671235220637</v>
@@ -5555,7 +5555,7 @@
         <v>1302.566361583587</v>
       </c>
       <c r="X17" t="n">
-        <v>1168.963937810825</v>
+        <v>1168.963937810824</v>
       </c>
       <c r="Y17" t="n">
         <v>1018.68794032333</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>682.5874440286761</v>
+        <v>387.4448580154623</v>
       </c>
       <c r="C18" t="n">
-        <v>508.1344147475492</v>
+        <v>387.4448580154623</v>
       </c>
       <c r="D18" t="n">
-        <v>359.2000050862979</v>
+        <v>387.4448580154623</v>
       </c>
       <c r="E18" t="n">
-        <v>199.9625500808424</v>
+        <v>228.2074030100068</v>
       </c>
       <c r="F18" t="n">
-        <v>53.42799210772736</v>
+        <v>81.6728450368918</v>
       </c>
       <c r="G18" t="n">
-        <v>30.41303873494865</v>
+        <v>30.41303873494864</v>
       </c>
       <c r="H18" t="n">
-        <v>30.41303873494865</v>
+        <v>30.41303873494864</v>
       </c>
       <c r="I18" t="n">
-        <v>30.41303873494865</v>
+        <v>30.41303873494864</v>
       </c>
       <c r="J18" t="n">
-        <v>30.41303873494865</v>
+        <v>54.73208928248586</v>
       </c>
       <c r="K18" t="n">
-        <v>198.5990127168808</v>
+        <v>222.918063264418</v>
       </c>
       <c r="L18" t="n">
-        <v>222.7811764186022</v>
+        <v>510.4692570082679</v>
       </c>
       <c r="M18" t="n">
-        <v>599.1425307635917</v>
+        <v>872.2532775188232</v>
       </c>
       <c r="N18" t="n">
-        <v>975.5038851085812</v>
+        <v>872.2532775188232</v>
       </c>
       <c r="O18" t="n">
-        <v>1287.361652348433</v>
+        <v>1184.111044758675</v>
       </c>
       <c r="P18" t="n">
-        <v>1520.651936747433</v>
+        <v>1417.401329157674</v>
       </c>
       <c r="Q18" t="n">
-        <v>1520.651936747433</v>
+        <v>1520.651936747432</v>
       </c>
       <c r="R18" t="n">
-        <v>1520.651936747433</v>
+        <v>1520.651936747432</v>
       </c>
       <c r="S18" t="n">
-        <v>1520.651936747433</v>
+        <v>1520.651936747432</v>
       </c>
       <c r="T18" t="n">
-        <v>1520.651936747433</v>
+        <v>1520.651936747432</v>
       </c>
       <c r="U18" t="n">
-        <v>1520.651936747433</v>
+        <v>1292.446121945893</v>
       </c>
       <c r="V18" t="n">
-        <v>1520.651936747433</v>
+        <v>1057.294013714151</v>
       </c>
       <c r="W18" t="n">
-        <v>1266.414580019231</v>
+        <v>803.0566569859491</v>
       </c>
       <c r="X18" t="n">
-        <v>1058.563079813698</v>
+        <v>595.2051567804162</v>
       </c>
       <c r="Y18" t="n">
-        <v>850.8027810487442</v>
+        <v>387.4448580154623</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>30.41303873494865</v>
+        <v>144.5562810578786</v>
       </c>
       <c r="C19" t="n">
-        <v>30.41303873494865</v>
+        <v>144.5562810578786</v>
       </c>
       <c r="D19" t="n">
-        <v>30.41303873494865</v>
+        <v>144.5562810578786</v>
       </c>
       <c r="E19" t="n">
-        <v>30.41303873494865</v>
+        <v>144.5562810578786</v>
       </c>
       <c r="F19" t="n">
-        <v>30.41303873494865</v>
+        <v>144.5562810578786</v>
       </c>
       <c r="G19" t="n">
-        <v>30.41303873494865</v>
+        <v>108.6753527846075</v>
       </c>
       <c r="H19" t="n">
-        <v>30.41303873494865</v>
+        <v>108.6753527846075</v>
       </c>
       <c r="I19" t="n">
-        <v>30.41303873494865</v>
+        <v>108.6753527846075</v>
       </c>
       <c r="J19" t="n">
-        <v>30.41303873494865</v>
+        <v>30.41303873494864</v>
       </c>
       <c r="K19" t="n">
-        <v>34.20017179405538</v>
+        <v>34.20017179405535</v>
       </c>
       <c r="L19" t="n">
-        <v>94.57283284839707</v>
+        <v>94.57283284839701</v>
       </c>
       <c r="M19" t="n">
-        <v>168.6164621530088</v>
+        <v>168.6164621530087</v>
       </c>
       <c r="N19" t="n">
-        <v>246.3341158702588</v>
+        <v>246.3341158702587</v>
       </c>
       <c r="O19" t="n">
-        <v>302.1026525304108</v>
+        <v>302.1026525304107</v>
       </c>
       <c r="P19" t="n">
-        <v>326.3015877267075</v>
+        <v>326.3015877267073</v>
       </c>
       <c r="Q19" t="n">
-        <v>326.3015877267075</v>
+        <v>258.2667017344656</v>
       </c>
       <c r="R19" t="n">
-        <v>326.3015877267075</v>
+        <v>258.2667017344656</v>
       </c>
       <c r="S19" t="n">
-        <v>326.3015877267075</v>
+        <v>258.2667017344656</v>
       </c>
       <c r="T19" t="n">
-        <v>326.3015877267075</v>
+        <v>258.2667017344656</v>
       </c>
       <c r="U19" t="n">
-        <v>276.9661563163331</v>
+        <v>208.9312703240912</v>
       </c>
       <c r="V19" t="n">
-        <v>262.1450025987635</v>
+        <v>194.1101166065218</v>
       </c>
       <c r="W19" t="n">
-        <v>212.5911670501203</v>
+        <v>144.5562810578786</v>
       </c>
       <c r="X19" t="n">
-        <v>212.5911670501203</v>
+        <v>144.5562810578786</v>
       </c>
       <c r="Y19" t="n">
-        <v>30.41303873494865</v>
+        <v>144.5562810578786</v>
       </c>
     </row>
     <row r="20">
@@ -5726,40 +5726,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>871.951434747526</v>
+        <v>871.9514347475254</v>
       </c>
       <c r="C20" t="n">
-        <v>742.8522522954318</v>
+        <v>742.8522522954311</v>
       </c>
       <c r="D20" t="n">
-        <v>624.4498881769987</v>
+        <v>624.449888176998</v>
       </c>
       <c r="E20" t="n">
-        <v>478.5249700670718</v>
+        <v>478.5249700670712</v>
       </c>
       <c r="F20" t="n">
-        <v>307.4023997657816</v>
+        <v>307.402399765781</v>
       </c>
       <c r="G20" t="n">
-        <v>128.273792987232</v>
+        <v>128.2737929872319</v>
       </c>
       <c r="H20" t="n">
-        <v>30.41303873494865</v>
+        <v>30.41303873494864</v>
       </c>
       <c r="I20" t="n">
-        <v>30.41303873494865</v>
+        <v>30.41303873494864</v>
       </c>
       <c r="J20" t="n">
-        <v>60.65588194307105</v>
+        <v>60.65588194307099</v>
       </c>
       <c r="K20" t="n">
-        <v>226.7268685113765</v>
+        <v>226.7268685113764</v>
       </c>
       <c r="L20" t="n">
-        <v>485.0292398927391</v>
+        <v>485.0292398927389</v>
       </c>
       <c r="M20" t="n">
-        <v>789.046943066186</v>
+        <v>789.0469430661858</v>
       </c>
       <c r="N20" t="n">
         <v>1083.351972971889</v>
@@ -5768,31 +5768,31 @@
         <v>1316.068229373092</v>
       </c>
       <c r="P20" t="n">
-        <v>1477.011787223107</v>
+        <v>1477.011787223106</v>
       </c>
       <c r="Q20" t="n">
-        <v>1520.651936747433</v>
+        <v>1520.651936747432</v>
       </c>
       <c r="R20" t="n">
-        <v>1520.651936747433</v>
+        <v>1520.651936747432</v>
       </c>
       <c r="S20" t="n">
-        <v>1520.651936747433</v>
+        <v>1520.651936747432</v>
       </c>
       <c r="T20" t="n">
-        <v>1520.651936747433</v>
+        <v>1520.651936747432</v>
       </c>
       <c r="U20" t="n">
-        <v>1506.671235220637</v>
+        <v>1506.671235220636</v>
       </c>
       <c r="V20" t="n">
-        <v>1415.471682365384</v>
+        <v>1415.471682365383</v>
       </c>
       <c r="W20" t="n">
         <v>1302.566361583587</v>
       </c>
       <c r="X20" t="n">
-        <v>1168.963937810825</v>
+        <v>1168.963937810824</v>
       </c>
       <c r="Y20" t="n">
         <v>1018.68794032333</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>447.4353357969335</v>
+        <v>922.4507785169928</v>
       </c>
       <c r="C21" t="n">
-        <v>272.9823065158065</v>
+        <v>747.9977492358659</v>
       </c>
       <c r="D21" t="n">
-        <v>124.0478968545552</v>
+        <v>599.0633395746146</v>
       </c>
       <c r="E21" t="n">
-        <v>30.41303873494865</v>
+        <v>439.8258845691591</v>
       </c>
       <c r="F21" t="n">
-        <v>30.41303873494865</v>
+        <v>293.2913265960441</v>
       </c>
       <c r="G21" t="n">
-        <v>30.41303873494865</v>
+        <v>222.1511100867999</v>
       </c>
       <c r="H21" t="n">
-        <v>30.41303873494865</v>
+        <v>111.3955227265992</v>
       </c>
       <c r="I21" t="n">
-        <v>30.41303873494865</v>
+        <v>30.41303873494864</v>
       </c>
       <c r="J21" t="n">
-        <v>40.1547554480521</v>
+        <v>54.73208928248586</v>
       </c>
       <c r="K21" t="n">
-        <v>208.3407294299843</v>
+        <v>54.73208928248586</v>
       </c>
       <c r="L21" t="n">
-        <v>495.8919231738342</v>
+        <v>342.2832830263357</v>
       </c>
       <c r="M21" t="n">
-        <v>872.2532775188238</v>
+        <v>718.6446373713251</v>
       </c>
       <c r="N21" t="n">
-        <v>872.2532775188238</v>
+        <v>872.2532775188232</v>
       </c>
       <c r="O21" t="n">
         <v>1184.111044758675</v>
       </c>
       <c r="P21" t="n">
-        <v>1417.401329157675</v>
+        <v>1417.401329157674</v>
       </c>
       <c r="Q21" t="n">
-        <v>1520.651936747433</v>
+        <v>1520.651936747432</v>
       </c>
       <c r="R21" t="n">
-        <v>1520.651936747433</v>
+        <v>1520.651936747432</v>
       </c>
       <c r="S21" t="n">
-        <v>1520.651936747433</v>
+        <v>1520.651936747432</v>
       </c>
       <c r="T21" t="n">
-        <v>1520.651936747433</v>
+        <v>1520.651936747432</v>
       </c>
       <c r="U21" t="n">
-        <v>1520.651936747433</v>
+        <v>1520.651936747432</v>
       </c>
       <c r="V21" t="n">
-        <v>1285.49982851569</v>
+        <v>1520.651936747432</v>
       </c>
       <c r="W21" t="n">
-        <v>1031.262471787488</v>
+        <v>1506.277914507548</v>
       </c>
       <c r="X21" t="n">
-        <v>823.4109715819554</v>
+        <v>1298.426414302015</v>
       </c>
       <c r="Y21" t="n">
-        <v>615.6506728170016</v>
+        <v>1090.666115537061</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>30.41303873494865</v>
+        <v>212.5911670501202</v>
       </c>
       <c r="C22" t="n">
-        <v>30.41303873494865</v>
+        <v>212.5911670501202</v>
       </c>
       <c r="D22" t="n">
-        <v>30.41303873494865</v>
+        <v>212.5911670501202</v>
       </c>
       <c r="E22" t="n">
-        <v>30.41303873494865</v>
+        <v>212.5911670501202</v>
       </c>
       <c r="F22" t="n">
-        <v>30.41303873494865</v>
+        <v>65.70121955220989</v>
       </c>
       <c r="G22" t="n">
-        <v>30.41303873494865</v>
+        <v>30.41303873494864</v>
       </c>
       <c r="H22" t="n">
-        <v>30.41303873494865</v>
+        <v>30.41303873494864</v>
       </c>
       <c r="I22" t="n">
-        <v>30.41303873494865</v>
+        <v>30.41303873494864</v>
       </c>
       <c r="J22" t="n">
-        <v>30.41303873494865</v>
+        <v>30.41303873494864</v>
       </c>
       <c r="K22" t="n">
-        <v>34.20017179405539</v>
+        <v>34.20017179405535</v>
       </c>
       <c r="L22" t="n">
-        <v>94.5728328483971</v>
+        <v>94.57283284839701</v>
       </c>
       <c r="M22" t="n">
-        <v>168.6164621530089</v>
+        <v>168.6164621530087</v>
       </c>
       <c r="N22" t="n">
-        <v>246.3341158702589</v>
+        <v>246.3341158702587</v>
       </c>
       <c r="O22" t="n">
-        <v>302.1026525304109</v>
+        <v>302.1026525304107</v>
       </c>
       <c r="P22" t="n">
-        <v>326.3015877267075</v>
+        <v>326.3015877267073</v>
       </c>
       <c r="Q22" t="n">
-        <v>326.3015877267075</v>
+        <v>326.3015877267073</v>
       </c>
       <c r="R22" t="n">
-        <v>326.3015877267075</v>
+        <v>326.3015877267073</v>
       </c>
       <c r="S22" t="n">
-        <v>144.1234594115358</v>
+        <v>326.3015877267073</v>
       </c>
       <c r="T22" t="n">
-        <v>144.1234594115358</v>
+        <v>326.3015877267073</v>
       </c>
       <c r="U22" t="n">
-        <v>94.78802800116142</v>
+        <v>276.966156316333</v>
       </c>
       <c r="V22" t="n">
-        <v>79.96687428359191</v>
+        <v>262.1450025987635</v>
       </c>
       <c r="W22" t="n">
-        <v>30.41303873494865</v>
+        <v>212.5911670501202</v>
       </c>
       <c r="X22" t="n">
-        <v>30.41303873494865</v>
+        <v>212.5911670501202</v>
       </c>
       <c r="Y22" t="n">
-        <v>30.41303873494865</v>
+        <v>212.5911670501202</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>871.9514347475256</v>
+        <v>871.9514347475255</v>
       </c>
       <c r="C23" t="n">
-        <v>742.8522522954313</v>
+        <v>742.8522522954312</v>
       </c>
       <c r="D23" t="n">
-        <v>624.4498881769982</v>
+        <v>624.4498881769981</v>
       </c>
       <c r="E23" t="n">
         <v>478.5249700670713</v>
@@ -5981,34 +5981,34 @@
         <v>128.273792987232</v>
       </c>
       <c r="H23" t="n">
-        <v>30.41303873494865</v>
+        <v>30.41303873494864</v>
       </c>
       <c r="I23" t="n">
-        <v>30.41303873494865</v>
+        <v>30.41303873494864</v>
       </c>
       <c r="J23" t="n">
-        <v>60.65588194307101</v>
+        <v>60.65588194307122</v>
       </c>
       <c r="K23" t="n">
-        <v>226.7268685113764</v>
+        <v>226.7268685113766</v>
       </c>
       <c r="L23" t="n">
-        <v>485.029239892739</v>
+        <v>485.0292398927391</v>
       </c>
       <c r="M23" t="n">
         <v>789.046943066186</v>
       </c>
       <c r="N23" t="n">
-        <v>1083.35197297189</v>
+        <v>1083.351972971889</v>
       </c>
       <c r="O23" t="n">
         <v>1316.068229373092</v>
       </c>
       <c r="P23" t="n">
-        <v>1477.011787223107</v>
+        <v>1477.011787223106</v>
       </c>
       <c r="Q23" t="n">
-        <v>1520.651936747433</v>
+        <v>1520.651936747432</v>
       </c>
       <c r="R23" t="n">
         <v>1520.651936747432</v>
@@ -6023,13 +6023,13 @@
         <v>1506.671235220637</v>
       </c>
       <c r="V23" t="n">
-        <v>1415.471682365384</v>
+        <v>1415.471682365383</v>
       </c>
       <c r="W23" t="n">
         <v>1302.566361583587</v>
       </c>
       <c r="X23" t="n">
-        <v>1168.963937810825</v>
+        <v>1168.963937810824</v>
       </c>
       <c r="Y23" t="n">
         <v>1018.68794032333</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>219.229520995395</v>
+        <v>141.3506783171999</v>
       </c>
       <c r="C24" t="n">
-        <v>219.229520995395</v>
+        <v>141.3506783171999</v>
       </c>
       <c r="D24" t="n">
-        <v>70.29511133414371</v>
+        <v>141.3506783171999</v>
       </c>
       <c r="E24" t="n">
-        <v>30.41303873494865</v>
+        <v>141.3506783171999</v>
       </c>
       <c r="F24" t="n">
-        <v>30.41303873494865</v>
+        <v>141.3506783171999</v>
       </c>
       <c r="G24" t="n">
-        <v>30.41303873494865</v>
+        <v>141.3506783171999</v>
       </c>
       <c r="H24" t="n">
-        <v>30.41303873494865</v>
+        <v>30.59509095699919</v>
       </c>
       <c r="I24" t="n">
-        <v>30.41303873494865</v>
+        <v>30.41303873494864</v>
       </c>
       <c r="J24" t="n">
-        <v>30.41303873494865</v>
+        <v>54.73208928248586</v>
       </c>
       <c r="K24" t="n">
-        <v>30.41303873494865</v>
+        <v>222.918063264418</v>
       </c>
       <c r="L24" t="n">
-        <v>317.9642324787986</v>
+        <v>510.4692570082679</v>
       </c>
       <c r="M24" t="n">
-        <v>694.3255868237882</v>
+        <v>872.2532775188232</v>
       </c>
       <c r="N24" t="n">
-        <v>1070.686941168778</v>
+        <v>872.2532775188232</v>
       </c>
       <c r="O24" t="n">
-        <v>1382.544708408629</v>
+        <v>1184.111044758675</v>
       </c>
       <c r="P24" t="n">
-        <v>1520.651936747433</v>
+        <v>1417.401329157674</v>
       </c>
       <c r="Q24" t="n">
-        <v>1520.651936747433</v>
+        <v>1520.651936747432</v>
       </c>
       <c r="R24" t="n">
-        <v>1520.651936747433</v>
+        <v>1436.284127906724</v>
       </c>
       <c r="S24" t="n">
-        <v>1520.651936747433</v>
+        <v>1267.893294149151</v>
       </c>
       <c r="T24" t="n">
-        <v>1520.651936747433</v>
+        <v>1066.797458284216</v>
       </c>
       <c r="U24" t="n">
-        <v>1292.446121945894</v>
+        <v>838.5916434826771</v>
       </c>
       <c r="V24" t="n">
-        <v>1057.294013714151</v>
+        <v>603.4395352509343</v>
       </c>
       <c r="W24" t="n">
-        <v>803.0566569859498</v>
+        <v>349.2021785227327</v>
       </c>
       <c r="X24" t="n">
-        <v>595.2051567804169</v>
+        <v>141.3506783171999</v>
       </c>
       <c r="Y24" t="n">
-        <v>387.444858015463</v>
+        <v>141.3506783171999</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>212.5911670501203</v>
+        <v>144.5562810578785</v>
       </c>
       <c r="C25" t="n">
-        <v>178.3261323173418</v>
+        <v>144.5562810578785</v>
       </c>
       <c r="D25" t="n">
-        <v>178.3261323173418</v>
+        <v>144.5562810578785</v>
       </c>
       <c r="E25" t="n">
-        <v>30.41303873494865</v>
+        <v>144.5562810578785</v>
       </c>
       <c r="F25" t="n">
-        <v>30.41303873494865</v>
+        <v>144.5562810578785</v>
       </c>
       <c r="G25" t="n">
-        <v>30.41303873494865</v>
+        <v>30.41303873494864</v>
       </c>
       <c r="H25" t="n">
-        <v>30.41303873494865</v>
+        <v>30.41303873494864</v>
       </c>
       <c r="I25" t="n">
-        <v>30.41303873494865</v>
+        <v>30.41303873494864</v>
       </c>
       <c r="J25" t="n">
-        <v>30.41303873494865</v>
+        <v>30.41303873494864</v>
       </c>
       <c r="K25" t="n">
-        <v>34.20017179405538</v>
+        <v>34.20017179405535</v>
       </c>
       <c r="L25" t="n">
-        <v>94.57283284839707</v>
+        <v>94.57283284839701</v>
       </c>
       <c r="M25" t="n">
-        <v>168.6164621530088</v>
+        <v>168.6164621530087</v>
       </c>
       <c r="N25" t="n">
-        <v>246.3341158702588</v>
+        <v>246.3341158702587</v>
       </c>
       <c r="O25" t="n">
-        <v>302.1026525304108</v>
+        <v>302.1026525304107</v>
       </c>
       <c r="P25" t="n">
-        <v>326.3015877267075</v>
+        <v>326.3015877267073</v>
       </c>
       <c r="Q25" t="n">
-        <v>326.3015877267075</v>
+        <v>258.2667017344656</v>
       </c>
       <c r="R25" t="n">
-        <v>326.3015877267075</v>
+        <v>258.2667017344656</v>
       </c>
       <c r="S25" t="n">
-        <v>326.3015877267075</v>
+        <v>258.2667017344656</v>
       </c>
       <c r="T25" t="n">
-        <v>326.3015877267075</v>
+        <v>258.2667017344656</v>
       </c>
       <c r="U25" t="n">
-        <v>276.9661563163331</v>
+        <v>208.9312703240912</v>
       </c>
       <c r="V25" t="n">
-        <v>262.1450025987635</v>
+        <v>194.1101166065217</v>
       </c>
       <c r="W25" t="n">
-        <v>212.5911670501203</v>
+        <v>144.5562810578785</v>
       </c>
       <c r="X25" t="n">
-        <v>212.5911670501203</v>
+        <v>144.5562810578785</v>
       </c>
       <c r="Y25" t="n">
-        <v>212.5911670501203</v>
+        <v>144.5562810578785</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1467.879015831206</v>
+        <v>1467.879015831205</v>
       </c>
       <c r="C26" t="n">
         <v>1250.524387899171</v>
       </c>
       <c r="D26" t="n">
-        <v>1043.866578300798</v>
+        <v>1043.866578300797</v>
       </c>
       <c r="E26" t="n">
-        <v>809.6862147109302</v>
+        <v>809.6862147109296</v>
       </c>
       <c r="F26" t="n">
-        <v>550.3081989296996</v>
+        <v>550.3081989296992</v>
       </c>
       <c r="G26" t="n">
-        <v>282.92414667121</v>
+        <v>282.9241466712095</v>
       </c>
       <c r="H26" t="n">
-        <v>96.80794693898522</v>
+        <v>96.80794693898525</v>
       </c>
       <c r="I26" t="n">
         <v>55.3127560967289</v>
       </c>
       <c r="J26" t="n">
-        <v>234.1464913219615</v>
+        <v>234.1464913219614</v>
       </c>
       <c r="K26" t="n">
-        <v>548.8083699073773</v>
+        <v>548.808369907377</v>
       </c>
       <c r="L26" t="n">
-        <v>955.70163330585</v>
+        <v>955.7016333058498</v>
       </c>
       <c r="M26" t="n">
         <v>1408.310228496407</v>
@@ -6260,16 +6260,16 @@
         <v>2543.876043704019</v>
       </c>
       <c r="V26" t="n">
-        <v>2364.421045368826</v>
+        <v>2364.421045368825</v>
       </c>
       <c r="W26" t="n">
-        <v>2163.260279107089</v>
+        <v>2163.260279107088</v>
       </c>
       <c r="X26" t="n">
         <v>1941.402409854385</v>
       </c>
       <c r="Y26" t="n">
-        <v>1702.870966886951</v>
+        <v>1702.87096688695</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>617.1141183862076</v>
+        <v>684.4722080176776</v>
       </c>
       <c r="C27" t="n">
-        <v>442.6610891050806</v>
+        <v>510.0191787365507</v>
       </c>
       <c r="D27" t="n">
-        <v>293.7266794438293</v>
+        <v>361.0847690752994</v>
       </c>
       <c r="E27" t="n">
-        <v>134.4892244383738</v>
+        <v>201.8473140698439</v>
       </c>
       <c r="F27" t="n">
         <v>55.3127560967289</v>
@@ -6303,25 +6303,25 @@
         <v>55.3127560967289</v>
       </c>
       <c r="J27" t="n">
-        <v>79.63180664426613</v>
+        <v>79.63180664426612</v>
       </c>
       <c r="K27" t="n">
         <v>247.8177806261983</v>
       </c>
       <c r="L27" t="n">
-        <v>535.3689743700482</v>
+        <v>535.3689743700481</v>
       </c>
       <c r="M27" t="n">
-        <v>922.9068761958349</v>
+        <v>922.9068761958347</v>
       </c>
       <c r="N27" t="n">
-        <v>1336.408766515391</v>
+        <v>1336.40876651539</v>
       </c>
       <c r="O27" t="n">
         <v>1648.266533755242</v>
       </c>
       <c r="P27" t="n">
-        <v>1881.556818154242</v>
+        <v>1881.556818154241</v>
       </c>
       <c r="Q27" t="n">
         <v>1984.807425743999</v>
@@ -6333,22 +6333,22 @@
         <v>1968.024480994803</v>
       </c>
       <c r="T27" t="n">
-        <v>1918.536534138245</v>
+        <v>1834.286734761338</v>
       </c>
       <c r="U27" t="n">
-        <v>1690.330719336707</v>
+        <v>1757.688808968177</v>
       </c>
       <c r="V27" t="n">
-        <v>1455.178611104964</v>
+        <v>1522.536700736434</v>
       </c>
       <c r="W27" t="n">
-        <v>1200.941254376762</v>
+        <v>1268.299344008232</v>
       </c>
       <c r="X27" t="n">
-        <v>993.0897541712295</v>
+        <v>1060.447843802699</v>
       </c>
       <c r="Y27" t="n">
-        <v>785.3294554062757</v>
+        <v>852.6875450377456</v>
       </c>
     </row>
     <row r="28">
@@ -6382,22 +6382,22 @@
         <v>55.3127560967289</v>
       </c>
       <c r="J28" t="n">
-        <v>127.1987541137685</v>
+        <v>55.3127560967289</v>
       </c>
       <c r="K28" t="n">
-        <v>149.2894506226432</v>
+        <v>59.09988915583561</v>
       </c>
       <c r="L28" t="n">
         <v>209.6621116769849</v>
       </c>
       <c r="M28" t="n">
-        <v>432.2966329987069</v>
+        <v>283.7057409815966</v>
       </c>
       <c r="N28" t="n">
-        <v>658.6051787330671</v>
+        <v>361.4233946988467</v>
       </c>
       <c r="O28" t="n">
-        <v>714.3737153932191</v>
+        <v>565.7828233761089</v>
       </c>
       <c r="P28" t="n">
         <v>738.5726505895158</v>
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1467.879015831206</v>
+        <v>1467.879015831205</v>
       </c>
       <c r="C29" t="n">
         <v>1250.524387899171</v>
@@ -6446,43 +6446,43 @@
         <v>1043.866578300797</v>
       </c>
       <c r="E29" t="n">
-        <v>809.68621471093</v>
+        <v>809.6862147109296</v>
       </c>
       <c r="F29" t="n">
-        <v>550.3081989296993</v>
+        <v>550.3081989296988</v>
       </c>
       <c r="G29" t="n">
-        <v>282.9241466712095</v>
+        <v>282.9241466712091</v>
       </c>
       <c r="H29" t="n">
-        <v>96.80794693898531</v>
+        <v>96.80794693898522</v>
       </c>
       <c r="I29" t="n">
-        <v>55.31275609672891</v>
+        <v>55.3127560967289</v>
       </c>
       <c r="J29" t="n">
-        <v>234.1464913219619</v>
+        <v>234.1464913219617</v>
       </c>
       <c r="K29" t="n">
-        <v>548.8083699073775</v>
+        <v>548.8083699073771</v>
       </c>
       <c r="L29" t="n">
-        <v>955.7016333058502</v>
+        <v>955.7016333058498</v>
       </c>
       <c r="M29" t="n">
         <v>1408.310228496407</v>
       </c>
       <c r="N29" t="n">
-        <v>1851.206150419221</v>
+        <v>1851.20615041922</v>
       </c>
       <c r="O29" t="n">
         <v>2232.513298837534</v>
       </c>
       <c r="P29" t="n">
-        <v>2542.047748704659</v>
+        <v>2542.047748704658</v>
       </c>
       <c r="Q29" t="n">
-        <v>2734.278790246095</v>
+        <v>2734.278790246094</v>
       </c>
       <c r="R29" t="n">
         <v>2765.637804836445</v>
@@ -6500,13 +6500,13 @@
         <v>2364.421045368826</v>
       </c>
       <c r="W29" t="n">
-        <v>2163.260279107088</v>
+        <v>2163.260279107089</v>
       </c>
       <c r="X29" t="n">
         <v>1941.402409854385</v>
       </c>
       <c r="Y29" t="n">
-        <v>1702.870966886951</v>
+        <v>1702.87096688695</v>
       </c>
     </row>
     <row r="30">
@@ -6516,7 +6516,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>684.4722080176778</v>
+        <v>684.4722080176776</v>
       </c>
       <c r="C30" t="n">
         <v>510.0191787365507</v>
@@ -6528,37 +6528,37 @@
         <v>201.8473140698439</v>
       </c>
       <c r="F30" t="n">
-        <v>55.31275609672891</v>
+        <v>55.3127560967289</v>
       </c>
       <c r="G30" t="n">
-        <v>55.31275609672891</v>
+        <v>55.3127560967289</v>
       </c>
       <c r="H30" t="n">
-        <v>55.31275609672891</v>
+        <v>55.3127560967289</v>
       </c>
       <c r="I30" t="n">
-        <v>55.31275609672891</v>
+        <v>55.3127560967289</v>
       </c>
       <c r="J30" t="n">
-        <v>79.63180664426616</v>
+        <v>79.63180664426612</v>
       </c>
       <c r="K30" t="n">
-        <v>247.8177806261984</v>
+        <v>247.8177806261983</v>
       </c>
       <c r="L30" t="n">
-        <v>535.3689743700482</v>
+        <v>535.3689743700481</v>
       </c>
       <c r="M30" t="n">
-        <v>922.9068761958349</v>
+        <v>922.9068761958347</v>
       </c>
       <c r="N30" t="n">
-        <v>1336.408766515391</v>
+        <v>1336.40876651539</v>
       </c>
       <c r="O30" t="n">
         <v>1648.266533755242</v>
       </c>
       <c r="P30" t="n">
-        <v>1881.556818154242</v>
+        <v>1881.556818154241</v>
       </c>
       <c r="Q30" t="n">
         <v>1984.807425743999</v>
@@ -6579,13 +6579,13 @@
         <v>1522.536700736434</v>
       </c>
       <c r="W30" t="n">
-        <v>1268.299344008233</v>
+        <v>1268.299344008232</v>
       </c>
       <c r="X30" t="n">
-        <v>1060.4478438027</v>
+        <v>1060.447843802699</v>
       </c>
       <c r="Y30" t="n">
-        <v>852.6875450377458</v>
+        <v>852.6875450377456</v>
       </c>
     </row>
     <row r="31">
@@ -6598,43 +6598,43 @@
         <v>100.7349851530699</v>
       </c>
       <c r="C31" t="n">
-        <v>83.40669123353987</v>
+        <v>83.40669123353986</v>
       </c>
       <c r="D31" t="n">
-        <v>83.40669123353987</v>
+        <v>83.40669123353986</v>
       </c>
       <c r="E31" t="n">
-        <v>83.40669123353987</v>
+        <v>83.40669123353986</v>
       </c>
       <c r="F31" t="n">
-        <v>83.40669123353987</v>
+        <v>83.40669123353986</v>
       </c>
       <c r="G31" t="n">
-        <v>65.55359483715449</v>
+        <v>65.55359483715448</v>
       </c>
       <c r="H31" t="n">
-        <v>55.31275609672891</v>
+        <v>55.3127560967289</v>
       </c>
       <c r="I31" t="n">
-        <v>55.31275609672891</v>
+        <v>55.3127560967289</v>
       </c>
       <c r="J31" t="n">
-        <v>127.1987541137685</v>
+        <v>55.3127560967289</v>
       </c>
       <c r="K31" t="n">
-        <v>279.5767791899854</v>
+        <v>149.2894506226446</v>
       </c>
       <c r="L31" t="n">
-        <v>358.2530036940962</v>
+        <v>209.6621116769862</v>
       </c>
       <c r="M31" t="n">
-        <v>580.887525015818</v>
+        <v>283.7057409815979</v>
       </c>
       <c r="N31" t="n">
-        <v>658.6051787330681</v>
+        <v>510.0142867159581</v>
       </c>
       <c r="O31" t="n">
-        <v>714.3737153932201</v>
+        <v>714.3737153932202</v>
       </c>
       <c r="P31" t="n">
         <v>738.5726505895168</v>
@@ -6661,7 +6661,7 @@
         <v>276.3419129997264</v>
       </c>
       <c r="X31" t="n">
-        <v>199.960251110086</v>
+        <v>199.9602511100859</v>
       </c>
       <c r="Y31" t="n">
         <v>130.7755609749327</v>
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1467.879015831205</v>
+        <v>1467.879015831206</v>
       </c>
       <c r="C32" t="n">
         <v>1250.524387899171</v>
@@ -6683,28 +6683,28 @@
         <v>1043.866578300797</v>
       </c>
       <c r="E32" t="n">
-        <v>809.6862147109297</v>
+        <v>809.68621471093</v>
       </c>
       <c r="F32" t="n">
-        <v>550.3081989296991</v>
+        <v>550.3081989296993</v>
       </c>
       <c r="G32" t="n">
-        <v>282.924146671209</v>
+        <v>282.9241466712092</v>
       </c>
       <c r="H32" t="n">
         <v>96.80794693898528</v>
       </c>
       <c r="I32" t="n">
-        <v>55.31275609672891</v>
+        <v>55.3127560967289</v>
       </c>
       <c r="J32" t="n">
         <v>234.1464913219614</v>
       </c>
       <c r="K32" t="n">
-        <v>548.808369907377</v>
+        <v>548.8083699073769</v>
       </c>
       <c r="L32" t="n">
-        <v>955.7016333058498</v>
+        <v>955.7016333058496</v>
       </c>
       <c r="M32" t="n">
         <v>1408.310228496407</v>
@@ -6719,31 +6719,31 @@
         <v>2542.047748704658</v>
       </c>
       <c r="Q32" t="n">
-        <v>2734.278790246095</v>
+        <v>2734.278790246094</v>
       </c>
       <c r="R32" t="n">
         <v>2765.637804836445</v>
       </c>
       <c r="S32" t="n">
-        <v>2717.639621660337</v>
+        <v>2717.639621660336</v>
       </c>
       <c r="T32" t="n">
-        <v>2646.112190710755</v>
+        <v>2646.112190710754</v>
       </c>
       <c r="U32" t="n">
         <v>2543.876043704019</v>
       </c>
       <c r="V32" t="n">
-        <v>2364.421045368825</v>
+        <v>2364.421045368826</v>
       </c>
       <c r="W32" t="n">
-        <v>2163.260279107088</v>
+        <v>2163.260279107089</v>
       </c>
       <c r="X32" t="n">
         <v>1941.402409854385</v>
       </c>
       <c r="Y32" t="n">
-        <v>1702.87096688695</v>
+        <v>1702.870966886951</v>
       </c>
     </row>
     <row r="33">
@@ -6753,7 +6753,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>532.8643190093009</v>
+        <v>684.4722080176776</v>
       </c>
       <c r="C33" t="n">
         <v>510.0191787365507</v>
@@ -6765,37 +6765,37 @@
         <v>201.8473140698439</v>
       </c>
       <c r="F33" t="n">
-        <v>55.31275609672891</v>
+        <v>55.3127560967289</v>
       </c>
       <c r="G33" t="n">
-        <v>55.31275609672891</v>
+        <v>55.3127560967289</v>
       </c>
       <c r="H33" t="n">
-        <v>55.31275609672891</v>
+        <v>55.3127560967289</v>
       </c>
       <c r="I33" t="n">
-        <v>55.31275609672891</v>
+        <v>55.3127560967289</v>
       </c>
       <c r="J33" t="n">
-        <v>79.63180664426616</v>
+        <v>79.63180664426612</v>
       </c>
       <c r="K33" t="n">
-        <v>247.8177806261984</v>
+        <v>247.8177806261983</v>
       </c>
       <c r="L33" t="n">
-        <v>535.3689743700482</v>
+        <v>535.3689743700481</v>
       </c>
       <c r="M33" t="n">
-        <v>922.9068761958349</v>
+        <v>922.9068761958347</v>
       </c>
       <c r="N33" t="n">
-        <v>1336.408766515391</v>
+        <v>1336.40876651539</v>
       </c>
       <c r="O33" t="n">
         <v>1648.266533755242</v>
       </c>
       <c r="P33" t="n">
-        <v>1881.556818154242</v>
+        <v>1881.556818154241</v>
       </c>
       <c r="Q33" t="n">
         <v>1984.807425743999</v>
@@ -6804,25 +6804,25 @@
         <v>1984.807425743999</v>
       </c>
       <c r="S33" t="n">
-        <v>1883.774681617896</v>
+        <v>1968.024480994803</v>
       </c>
       <c r="T33" t="n">
-        <v>1834.286734761338</v>
+        <v>1918.536534138245</v>
       </c>
       <c r="U33" t="n">
-        <v>1606.0809199598</v>
+        <v>1757.688808968177</v>
       </c>
       <c r="V33" t="n">
-        <v>1370.928811728057</v>
+        <v>1522.536700736434</v>
       </c>
       <c r="W33" t="n">
-        <v>1116.691454999856</v>
+        <v>1268.299344008232</v>
       </c>
       <c r="X33" t="n">
-        <v>908.8399547943227</v>
+        <v>1060.447843802699</v>
       </c>
       <c r="Y33" t="n">
-        <v>701.0796560293688</v>
+        <v>852.6875450377456</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.7349851530699</v>
+        <v>100.7349851530698</v>
       </c>
       <c r="C34" t="n">
-        <v>83.40669123353987</v>
+        <v>83.4066912335398</v>
       </c>
       <c r="D34" t="n">
-        <v>83.40669123353987</v>
+        <v>83.4066912335398</v>
       </c>
       <c r="E34" t="n">
-        <v>83.40669123353987</v>
+        <v>83.4066912335398</v>
       </c>
       <c r="F34" t="n">
-        <v>83.40669123353987</v>
+        <v>83.4066912335398</v>
       </c>
       <c r="G34" t="n">
-        <v>65.55359483715449</v>
+        <v>65.55359483715445</v>
       </c>
       <c r="H34" t="n">
-        <v>55.31275609672891</v>
+        <v>55.3127560967289</v>
       </c>
       <c r="I34" t="n">
-        <v>55.31275609672891</v>
+        <v>55.3127560967289</v>
       </c>
       <c r="J34" t="n">
-        <v>55.31275609672891</v>
+        <v>55.3127560967289</v>
       </c>
       <c r="K34" t="n">
-        <v>59.09988915583564</v>
+        <v>59.09988915583561</v>
       </c>
       <c r="L34" t="n">
-        <v>209.662111676986</v>
+        <v>268.0634422272875</v>
       </c>
       <c r="M34" t="n">
-        <v>432.2966329987079</v>
+        <v>342.1070715318991</v>
       </c>
       <c r="N34" t="n">
-        <v>658.6051787330681</v>
+        <v>419.8247252491491</v>
       </c>
       <c r="O34" t="n">
-        <v>714.3737153932201</v>
+        <v>624.1841539264113</v>
       </c>
       <c r="P34" t="n">
-        <v>738.5726505895168</v>
+        <v>796.9739811398182</v>
       </c>
       <c r="Q34" t="n">
-        <v>820.4825508456308</v>
+        <v>820.4825508456305</v>
       </c>
       <c r="R34" t="n">
-        <v>803.2072202177714</v>
+        <v>803.207220217771</v>
       </c>
       <c r="S34" t="n">
-        <v>732.4894867778338</v>
+        <v>732.4894867778335</v>
       </c>
       <c r="T34" t="n">
-        <v>654.8186701161352</v>
+        <v>654.8186701161349</v>
       </c>
       <c r="U34" t="n">
-        <v>517.2277932258203</v>
+        <v>517.2277932258199</v>
       </c>
       <c r="V34" t="n">
-        <v>414.1511940283102</v>
+        <v>414.1511940283099</v>
       </c>
       <c r="W34" t="n">
-        <v>276.3419129997264</v>
+        <v>276.3419129997262</v>
       </c>
       <c r="X34" t="n">
-        <v>199.960251110086</v>
+        <v>199.9602511100858</v>
       </c>
       <c r="Y34" t="n">
-        <v>130.7755609749327</v>
+        <v>130.7755609749326</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>976.4161785493591</v>
+        <v>976.4161785493577</v>
       </c>
       <c r="C35" t="n">
-        <v>830.588981566906</v>
+        <v>830.5889815669047</v>
       </c>
       <c r="D35" t="n">
-        <v>695.4586029181141</v>
+        <v>695.4586029181129</v>
       </c>
       <c r="E35" t="n">
-        <v>532.8056702778285</v>
+        <v>532.8056702778273</v>
       </c>
       <c r="F35" t="n">
-        <v>344.9550854461797</v>
+        <v>344.9550854461784</v>
       </c>
       <c r="G35" t="n">
         <v>149.0984641372704</v>
       </c>
       <c r="H35" t="n">
-        <v>34.50969535462836</v>
+        <v>34.50969535462833</v>
       </c>
       <c r="I35" t="n">
-        <v>63.94429388381798</v>
+        <v>63.94429388381793</v>
       </c>
       <c r="J35" t="n">
-        <v>94.18713709194034</v>
+        <v>94.18713709194026</v>
       </c>
       <c r="K35" t="n">
-        <v>260.2581236602458</v>
+        <v>260.2581236602456</v>
       </c>
       <c r="L35" t="n">
-        <v>518.5604950416083</v>
+        <v>518.5604950416082</v>
       </c>
       <c r="M35" t="n">
-        <v>822.5781982150553</v>
+        <v>822.5781982150552</v>
       </c>
       <c r="N35" t="n">
         <v>1116.883228120759</v>
       </c>
       <c r="O35" t="n">
-        <v>1349.599484521962</v>
+        <v>1349.599484521961</v>
       </c>
       <c r="P35" t="n">
-        <v>1510.543042371976</v>
+        <v>1510.543042371975</v>
       </c>
       <c r="Q35" t="n">
-        <v>1600.960702324601</v>
+        <v>1600.960702324599</v>
       </c>
       <c r="R35" t="n">
-        <v>1702.423751988637</v>
+        <v>1702.423751988635</v>
       </c>
       <c r="S35" t="n">
-        <v>1725.484767731418</v>
+        <v>1725.484767731416</v>
       </c>
       <c r="T35" t="n">
-        <v>1725.484767731418</v>
+        <v>1725.484767731416</v>
       </c>
       <c r="U35" t="n">
-        <v>1694.776051674264</v>
+        <v>1694.776051674263</v>
       </c>
       <c r="V35" t="n">
-        <v>1586.848484288652</v>
+        <v>1586.848484288651</v>
       </c>
       <c r="W35" t="n">
-        <v>1457.215148976496</v>
+        <v>1457.215148976495</v>
       </c>
       <c r="X35" t="n">
-        <v>1306.884710673375</v>
+        <v>1306.884710673374</v>
       </c>
       <c r="Y35" t="n">
-        <v>1139.880698655522</v>
+        <v>1139.880698655521</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>424.0623519793806</v>
+        <v>489.2161179944501</v>
       </c>
       <c r="C36" t="n">
-        <v>249.6093226982536</v>
+        <v>489.2161179944501</v>
       </c>
       <c r="D36" t="n">
-        <v>100.6749130370023</v>
+        <v>340.2817083331988</v>
       </c>
       <c r="E36" t="n">
-        <v>34.50969535462836</v>
+        <v>181.0442533277433</v>
       </c>
       <c r="F36" t="n">
-        <v>34.50969535462836</v>
+        <v>34.50969535462833</v>
       </c>
       <c r="G36" t="n">
-        <v>34.50969535462836</v>
+        <v>34.50969535462833</v>
       </c>
       <c r="H36" t="n">
-        <v>34.50969535462836</v>
+        <v>34.50969535462833</v>
       </c>
       <c r="I36" t="n">
-        <v>34.50969535462836</v>
+        <v>34.50969535462833</v>
       </c>
       <c r="J36" t="n">
-        <v>58.82874590216561</v>
+        <v>34.50969535462833</v>
       </c>
       <c r="K36" t="n">
-        <v>227.0147198840978</v>
+        <v>91.74573020337306</v>
       </c>
       <c r="L36" t="n">
-        <v>514.5659136279478</v>
+        <v>379.2969239472229</v>
       </c>
       <c r="M36" t="n">
-        <v>902.1038154537343</v>
+        <v>766.8348257730095</v>
       </c>
       <c r="N36" t="n">
-        <v>1077.086108502809</v>
+        <v>1180.336716092565</v>
       </c>
       <c r="O36" t="n">
-        <v>1388.943875742661</v>
+        <v>1492.194483332416</v>
       </c>
       <c r="P36" t="n">
-        <v>1622.234160141661</v>
+        <v>1725.484767731416</v>
       </c>
       <c r="Q36" t="n">
-        <v>1725.484767731418</v>
+        <v>1725.484767731416</v>
       </c>
       <c r="R36" t="n">
-        <v>1725.484767731418</v>
+        <v>1725.484767731416</v>
       </c>
       <c r="S36" t="n">
-        <v>1725.484767731418</v>
+        <v>1725.484767731416</v>
       </c>
       <c r="T36" t="n">
-        <v>1725.484767731418</v>
+        <v>1725.484767731416</v>
       </c>
       <c r="U36" t="n">
-        <v>1497.27895292988</v>
+        <v>1562.432718944949</v>
       </c>
       <c r="V36" t="n">
-        <v>1262.126844698137</v>
+        <v>1327.280610713206</v>
       </c>
       <c r="W36" t="n">
-        <v>1007.889487969935</v>
+        <v>1073.043253985005</v>
       </c>
       <c r="X36" t="n">
-        <v>800.0379877644025</v>
+        <v>865.191753779472</v>
       </c>
       <c r="Y36" t="n">
-        <v>592.2776889994486</v>
+        <v>657.4314550145182</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34.50969535462836</v>
+        <v>34.50969535462833</v>
       </c>
       <c r="C37" t="n">
-        <v>34.50969535462836</v>
+        <v>34.50969535462833</v>
       </c>
       <c r="D37" t="n">
-        <v>34.50969535462836</v>
+        <v>34.50969535462833</v>
       </c>
       <c r="E37" t="n">
-        <v>34.50969535462836</v>
+        <v>34.50969535462833</v>
       </c>
       <c r="F37" t="n">
-        <v>34.50969535462836</v>
+        <v>34.50969535462833</v>
       </c>
       <c r="G37" t="n">
-        <v>34.50969535462836</v>
+        <v>34.50969535462833</v>
       </c>
       <c r="H37" t="n">
-        <v>34.50969535462836</v>
+        <v>34.50969535462833</v>
       </c>
       <c r="I37" t="n">
-        <v>34.50969535462836</v>
+        <v>34.50969535462833</v>
       </c>
       <c r="J37" t="n">
-        <v>34.50969535462836</v>
+        <v>34.50969535462833</v>
       </c>
       <c r="K37" t="n">
-        <v>38.2968284137351</v>
+        <v>38.29682841373504</v>
       </c>
       <c r="L37" t="n">
-        <v>98.66948946807679</v>
+        <v>98.6694894680767</v>
       </c>
       <c r="M37" t="n">
-        <v>172.7131187726885</v>
+        <v>172.7131187726884</v>
       </c>
       <c r="N37" t="n">
-        <v>250.4307724899385</v>
+        <v>250.4307724899384</v>
       </c>
       <c r="O37" t="n">
-        <v>306.1993091500905</v>
+        <v>306.1993091500904</v>
       </c>
       <c r="P37" t="n">
-        <v>330.3982443463872</v>
+        <v>330.3982443463871</v>
       </c>
       <c r="Q37" t="n">
-        <v>330.3982443463872</v>
+        <v>330.3982443463871</v>
       </c>
       <c r="R37" t="n">
-        <v>330.3982443463872</v>
+        <v>330.3982443463871</v>
       </c>
       <c r="S37" t="n">
-        <v>330.3982443463872</v>
+        <v>330.3982443463871</v>
       </c>
       <c r="T37" t="n">
-        <v>324.2548586342704</v>
+        <v>324.2548586342702</v>
       </c>
       <c r="U37" t="n">
-        <v>258.1914126935372</v>
+        <v>258.1914126935371</v>
       </c>
       <c r="V37" t="n">
-        <v>226.642244445609</v>
+        <v>105.645776373689</v>
       </c>
       <c r="W37" t="n">
-        <v>160.360394366607</v>
+        <v>39.36392629468701</v>
       </c>
       <c r="X37" t="n">
-        <v>155.5061634265484</v>
+        <v>34.50969535462833</v>
       </c>
       <c r="Y37" t="n">
-        <v>34.50969535462836</v>
+        <v>34.50969535462833</v>
       </c>
     </row>
     <row r="38">
@@ -7148,61 +7148,61 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>976.4161785493578</v>
+        <v>976.4161785493581</v>
       </c>
       <c r="C38" t="n">
-        <v>830.5889815669047</v>
+        <v>830.588981566905</v>
       </c>
       <c r="D38" t="n">
-        <v>695.4586029181129</v>
+        <v>695.4586029181131</v>
       </c>
       <c r="E38" t="n">
-        <v>532.8056702778273</v>
+        <v>532.8056702778275</v>
       </c>
       <c r="F38" t="n">
-        <v>344.9550854461784</v>
+        <v>344.9550854461786</v>
       </c>
       <c r="G38" t="n">
         <v>149.0984641372704</v>
       </c>
       <c r="H38" t="n">
-        <v>34.50969535462833</v>
+        <v>34.50969535462834</v>
       </c>
       <c r="I38" t="n">
         <v>63.94429388381795</v>
       </c>
       <c r="J38" t="n">
-        <v>94.18713709194031</v>
+        <v>140.964647520239</v>
       </c>
       <c r="K38" t="n">
-        <v>260.2581236602457</v>
+        <v>307.0356340885444</v>
       </c>
       <c r="L38" t="n">
-        <v>518.5604950416082</v>
+        <v>565.3380054699069</v>
       </c>
       <c r="M38" t="n">
-        <v>822.5781982150552</v>
+        <v>869.3557086433539</v>
       </c>
       <c r="N38" t="n">
-        <v>1116.883228120759</v>
+        <v>1163.660738549057</v>
       </c>
       <c r="O38" t="n">
-        <v>1396.376994950259</v>
+        <v>1396.37699495026</v>
       </c>
       <c r="P38" t="n">
-        <v>1557.320552800273</v>
+        <v>1557.320552800274</v>
       </c>
       <c r="Q38" t="n">
-        <v>1600.960702324599</v>
+        <v>1600.9607023246</v>
       </c>
       <c r="R38" t="n">
-        <v>1702.423751988635</v>
+        <v>1702.423751988636</v>
       </c>
       <c r="S38" t="n">
-        <v>1725.484767731416</v>
+        <v>1725.484767731417</v>
       </c>
       <c r="T38" t="n">
-        <v>1725.484767731416</v>
+        <v>1725.484767731417</v>
       </c>
       <c r="U38" t="n">
         <v>1694.776051674263</v>
@@ -7211,7 +7211,7 @@
         <v>1586.848484288651</v>
       </c>
       <c r="W38" t="n">
-        <v>1457.215148976495</v>
+        <v>1457.215148976496</v>
       </c>
       <c r="X38" t="n">
         <v>1306.884710673374</v>
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>663.6691472755771</v>
+        <v>489.2161179944501</v>
       </c>
       <c r="C39" t="n">
         <v>489.2161179944501</v>
       </c>
       <c r="D39" t="n">
-        <v>340.2817083331988</v>
+        <v>340.2817083331989</v>
       </c>
       <c r="E39" t="n">
-        <v>181.0442533277433</v>
+        <v>181.0442533277434</v>
       </c>
       <c r="F39" t="n">
-        <v>34.50969535462833</v>
+        <v>34.50969535462834</v>
       </c>
       <c r="G39" t="n">
-        <v>34.50969535462833</v>
+        <v>34.50969535462834</v>
       </c>
       <c r="H39" t="n">
-        <v>34.50969535462833</v>
+        <v>34.50969535462834</v>
       </c>
       <c r="I39" t="n">
-        <v>34.50969535462833</v>
+        <v>34.50969535462834</v>
       </c>
       <c r="J39" t="n">
-        <v>34.50969535462833</v>
+        <v>58.82874590216556</v>
       </c>
       <c r="K39" t="n">
-        <v>91.74573020337283</v>
+        <v>227.0147198840977</v>
       </c>
       <c r="L39" t="n">
-        <v>379.2969239472228</v>
+        <v>514.5659136279476</v>
       </c>
       <c r="M39" t="n">
-        <v>766.8348257730094</v>
+        <v>902.1038154537341</v>
       </c>
       <c r="N39" t="n">
-        <v>1180.336716092565</v>
+        <v>1315.60570577329</v>
       </c>
       <c r="O39" t="n">
-        <v>1492.194483332416</v>
+        <v>1627.463473013141</v>
       </c>
       <c r="P39" t="n">
-        <v>1725.484767731416</v>
+        <v>1725.484767731417</v>
       </c>
       <c r="Q39" t="n">
-        <v>1725.484767731416</v>
+        <v>1725.484767731417</v>
       </c>
       <c r="R39" t="n">
-        <v>1725.484767731416</v>
+        <v>1725.484767731417</v>
       </c>
       <c r="S39" t="n">
-        <v>1725.484767731416</v>
+        <v>1725.484767731417</v>
       </c>
       <c r="T39" t="n">
-        <v>1725.484767731416</v>
+        <v>1725.484767731417</v>
       </c>
       <c r="U39" t="n">
-        <v>1720.414272887836</v>
+        <v>1562.432718944949</v>
       </c>
       <c r="V39" t="n">
-        <v>1501.733639994333</v>
+        <v>1327.280610713206</v>
       </c>
       <c r="W39" t="n">
-        <v>1247.496283266132</v>
+        <v>1073.043253985005</v>
       </c>
       <c r="X39" t="n">
-        <v>1039.644783060599</v>
+        <v>865.191753779472</v>
       </c>
       <c r="Y39" t="n">
-        <v>831.8844842956451</v>
+        <v>657.4314550145182</v>
       </c>
     </row>
     <row r="40">
@@ -7306,46 +7306,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.50969535462833</v>
+        <v>155.5061634265483</v>
       </c>
       <c r="C40" t="n">
-        <v>34.50969535462833</v>
+        <v>34.50969535462834</v>
       </c>
       <c r="D40" t="n">
-        <v>34.50969535462833</v>
+        <v>34.50969535462834</v>
       </c>
       <c r="E40" t="n">
-        <v>34.50969535462833</v>
+        <v>34.50969535462834</v>
       </c>
       <c r="F40" t="n">
-        <v>34.50969535462833</v>
+        <v>34.50969535462834</v>
       </c>
       <c r="G40" t="n">
-        <v>34.50969535462833</v>
+        <v>34.50969535462834</v>
       </c>
       <c r="H40" t="n">
-        <v>34.50969535462833</v>
+        <v>34.50969535462834</v>
       </c>
       <c r="I40" t="n">
-        <v>34.50969535462833</v>
+        <v>34.50969535462834</v>
       </c>
       <c r="J40" t="n">
-        <v>34.50969535462833</v>
+        <v>34.50969535462834</v>
       </c>
       <c r="K40" t="n">
         <v>38.29682841373506</v>
       </c>
       <c r="L40" t="n">
-        <v>98.66948946807675</v>
+        <v>98.66948946807672</v>
       </c>
       <c r="M40" t="n">
-        <v>172.7131187726885</v>
+        <v>172.7131187726884</v>
       </c>
       <c r="N40" t="n">
-        <v>250.4307724899385</v>
+        <v>250.4307724899384</v>
       </c>
       <c r="O40" t="n">
-        <v>306.1993091500905</v>
+        <v>306.1993091500904</v>
       </c>
       <c r="P40" t="n">
         <v>330.3982443463871</v>
@@ -7357,25 +7357,25 @@
         <v>330.3982443463871</v>
       </c>
       <c r="S40" t="n">
-        <v>209.4017762744672</v>
+        <v>330.3982443463871</v>
       </c>
       <c r="T40" t="n">
-        <v>203.2583905623503</v>
+        <v>324.2548586342702</v>
       </c>
       <c r="U40" t="n">
-        <v>137.1949446216172</v>
+        <v>258.1914126935371</v>
       </c>
       <c r="V40" t="n">
-        <v>105.645776373689</v>
+        <v>226.6422444456089</v>
       </c>
       <c r="W40" t="n">
-        <v>39.36392629468701</v>
+        <v>160.3603943666069</v>
       </c>
       <c r="X40" t="n">
-        <v>34.50969535462833</v>
+        <v>155.5061634265483</v>
       </c>
       <c r="Y40" t="n">
-        <v>34.50969535462833</v>
+        <v>155.5061634265483</v>
       </c>
     </row>
     <row r="41">
@@ -7388,37 +7388,37 @@
         <v>1091.369893403421</v>
       </c>
       <c r="C41" t="n">
-        <v>927.195035092469</v>
+        <v>927.1950350924694</v>
       </c>
       <c r="D41" t="n">
-        <v>773.7169951151784</v>
+        <v>773.716995115179</v>
       </c>
       <c r="E41" t="n">
-        <v>592.7164011463941</v>
+        <v>592.7164011463948</v>
       </c>
       <c r="F41" t="n">
-        <v>386.5181549862465</v>
+        <v>386.5181549862473</v>
       </c>
       <c r="G41" t="n">
         <v>172.3138723488401</v>
       </c>
       <c r="H41" t="n">
-        <v>39.37744223769941</v>
+        <v>39.37744223769939</v>
       </c>
       <c r="I41" t="n">
-        <v>50.82949789882748</v>
+        <v>50.82949789882751</v>
       </c>
       <c r="J41" t="n">
         <v>219.6046931871807</v>
       </c>
       <c r="K41" t="n">
-        <v>385.6756797554861</v>
+        <v>385.675679755486</v>
       </c>
       <c r="L41" t="n">
-        <v>643.9780511368486</v>
+        <v>643.9780511368485</v>
       </c>
       <c r="M41" t="n">
-        <v>947.9957543102956</v>
+        <v>947.9957543102955</v>
       </c>
       <c r="N41" t="n">
         <v>1242.300784215999</v>
@@ -7430,7 +7430,7 @@
         <v>1635.960598467216</v>
       </c>
       <c r="Q41" t="n">
-        <v>1880.313132214276</v>
+        <v>1880.313132214275</v>
       </c>
       <c r="R41" t="n">
         <v>1963.79363901025</v>
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>583.0818872922243</v>
+        <v>381.9860514272889</v>
       </c>
       <c r="C42" t="n">
-        <v>583.0818872922243</v>
+        <v>207.5330221461619</v>
       </c>
       <c r="D42" t="n">
-        <v>434.1474776309731</v>
+        <v>58.59861248491066</v>
       </c>
       <c r="E42" t="n">
-        <v>274.9100226255176</v>
+        <v>58.59861248491066</v>
       </c>
       <c r="F42" t="n">
-        <v>128.3754646524025</v>
+        <v>39.37744223769939</v>
       </c>
       <c r="G42" t="n">
-        <v>39.37744223769941</v>
+        <v>39.37744223769939</v>
       </c>
       <c r="H42" t="n">
-        <v>39.37744223769941</v>
+        <v>39.37744223769939</v>
       </c>
       <c r="I42" t="n">
-        <v>39.37744223769941</v>
+        <v>39.37744223769939</v>
       </c>
       <c r="J42" t="n">
-        <v>63.69649278523696</v>
+        <v>63.69649278523661</v>
       </c>
       <c r="K42" t="n">
-        <v>231.8824667671691</v>
+        <v>231.8824667671687</v>
       </c>
       <c r="L42" t="n">
-        <v>519.4336605110191</v>
+        <v>519.4336605110186</v>
       </c>
       <c r="M42" t="n">
-        <v>906.9715623368057</v>
+        <v>906.9715623368054</v>
       </c>
       <c r="N42" t="n">
         <v>1320.473452656361</v>
       </c>
       <c r="O42" t="n">
-        <v>1632.331219896213</v>
+        <v>1632.331219896212</v>
       </c>
       <c r="P42" t="n">
-        <v>1865.621504295213</v>
+        <v>1865.621504295212</v>
       </c>
       <c r="Q42" t="n">
         <v>1968.87211188497</v>
       </c>
       <c r="R42" t="n">
-        <v>1884.504303044262</v>
+        <v>1884.504303044261</v>
       </c>
       <c r="S42" t="n">
-        <v>1884.504303044262</v>
+        <v>1884.504303044261</v>
       </c>
       <c r="T42" t="n">
-        <v>1884.504303044262</v>
+        <v>1683.408467179326</v>
       </c>
       <c r="U42" t="n">
-        <v>1656.298488242723</v>
+        <v>1455.202652377788</v>
       </c>
       <c r="V42" t="n">
-        <v>1421.146380010981</v>
+        <v>1220.050544146045</v>
       </c>
       <c r="W42" t="n">
-        <v>1166.909023282779</v>
+        <v>965.8131874178437</v>
       </c>
       <c r="X42" t="n">
-        <v>959.0575230772463</v>
+        <v>757.9616872123108</v>
       </c>
       <c r="Y42" t="n">
-        <v>751.2972243122924</v>
+        <v>550.201388447357</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>43.66216514119729</v>
+        <v>39.37744223769939</v>
       </c>
       <c r="C43" t="n">
-        <v>43.66216514119729</v>
+        <v>39.37744223769939</v>
       </c>
       <c r="D43" t="n">
-        <v>43.66216514119729</v>
+        <v>43.66216514119692</v>
       </c>
       <c r="E43" t="n">
-        <v>43.66216514119729</v>
+        <v>43.66216514119692</v>
       </c>
       <c r="F43" t="n">
-        <v>43.66216514119729</v>
+        <v>43.66216514119692</v>
       </c>
       <c r="G43" t="n">
-        <v>43.66216514119729</v>
+        <v>43.66216514119692</v>
       </c>
       <c r="H43" t="n">
-        <v>43.66216514119729</v>
+        <v>43.66216514119692</v>
       </c>
       <c r="I43" t="n">
-        <v>43.66216514119729</v>
+        <v>43.66216514119692</v>
       </c>
       <c r="J43" t="n">
-        <v>43.66216514119729</v>
+        <v>43.66216514119692</v>
       </c>
       <c r="K43" t="n">
-        <v>47.44929820030403</v>
+        <v>47.44929820030363</v>
       </c>
       <c r="L43" t="n">
-        <v>107.8219592546457</v>
+        <v>107.8219592546453</v>
       </c>
       <c r="M43" t="n">
-        <v>181.8655885592574</v>
+        <v>181.865588559257</v>
       </c>
       <c r="N43" t="n">
-        <v>259.5832422765075</v>
+        <v>259.583242276507</v>
       </c>
       <c r="O43" t="n">
-        <v>315.3517789366595</v>
+        <v>315.351778936659</v>
       </c>
       <c r="P43" t="n">
-        <v>339.5507141329561</v>
+        <v>339.5507141329556</v>
       </c>
       <c r="Q43" t="n">
-        <v>339.5507141329561</v>
+        <v>339.5507141329556</v>
       </c>
       <c r="R43" t="n">
-        <v>339.5507141329561</v>
+        <v>339.5507141329556</v>
       </c>
       <c r="S43" t="n">
-        <v>322.0127503141017</v>
+        <v>322.0127503141013</v>
       </c>
       <c r="T43" t="n">
-        <v>297.5217032734862</v>
+        <v>297.5217032734859</v>
       </c>
       <c r="U43" t="n">
-        <v>213.1105960042544</v>
+        <v>213.1105960042541</v>
       </c>
       <c r="V43" t="n">
-        <v>163.2137664278275</v>
+        <v>163.2137664278273</v>
       </c>
       <c r="W43" t="n">
-        <v>78.58425502032688</v>
+        <v>78.58425502032674</v>
       </c>
       <c r="X43" t="n">
-        <v>55.38236275176952</v>
+        <v>55.38236275176945</v>
       </c>
       <c r="Y43" t="n">
-        <v>39.37744223769941</v>
+        <v>39.37744223769939</v>
       </c>
     </row>
     <row r="44">
@@ -7622,52 +7622,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1091.369893403421</v>
+        <v>1091.36989340342</v>
       </c>
       <c r="C44" t="n">
-        <v>927.195035092469</v>
+        <v>927.1950350924684</v>
       </c>
       <c r="D44" t="n">
-        <v>773.7169951151784</v>
+        <v>773.716995115178</v>
       </c>
       <c r="E44" t="n">
-        <v>592.7164011463942</v>
+        <v>592.7164011463937</v>
       </c>
       <c r="F44" t="n">
-        <v>386.5181549862466</v>
+        <v>386.5181549862461</v>
       </c>
       <c r="G44" t="n">
         <v>172.3138723488401</v>
       </c>
       <c r="H44" t="n">
-        <v>39.37744223769941</v>
+        <v>39.37744223769939</v>
       </c>
       <c r="I44" t="n">
-        <v>50.82949789882748</v>
+        <v>50.82949789882746</v>
       </c>
       <c r="J44" t="n">
-        <v>81.07234110694984</v>
+        <v>281.7847253296835</v>
       </c>
       <c r="K44" t="n">
-        <v>447.8557118979891</v>
+        <v>447.8557118979889</v>
       </c>
       <c r="L44" t="n">
-        <v>706.1580832793516</v>
+        <v>706.1580832793513</v>
       </c>
       <c r="M44" t="n">
-        <v>1010.175786452799</v>
+        <v>1010.175786452798</v>
       </c>
       <c r="N44" t="n">
         <v>1304.480816358502</v>
       </c>
       <c r="O44" t="n">
-        <v>1537.197072759705</v>
+        <v>1537.197072759704</v>
       </c>
       <c r="P44" t="n">
         <v>1698.140630609719</v>
       </c>
       <c r="Q44" t="n">
-        <v>1880.313132214276</v>
+        <v>1880.313132214275</v>
       </c>
       <c r="R44" t="n">
         <v>1963.79363901025</v>
@@ -7679,16 +7679,16 @@
         <v>1950.524450556471</v>
       </c>
       <c r="U44" t="n">
-        <v>1901.468073170819</v>
+        <v>1901.468073170818</v>
       </c>
       <c r="V44" t="n">
-        <v>1775.192844456708</v>
+        <v>1775.192844456707</v>
       </c>
       <c r="W44" t="n">
-        <v>1627.211847816054</v>
+        <v>1627.211847816053</v>
       </c>
       <c r="X44" t="n">
-        <v>1458.533748184434</v>
+        <v>1458.533748184433</v>
       </c>
       <c r="Y44" t="n">
         <v>1273.182074838082</v>
@@ -7713,37 +7713,37 @@
         <v>185.9120002108144</v>
       </c>
       <c r="F45" t="n">
-        <v>39.37744223769941</v>
+        <v>39.37744223769939</v>
       </c>
       <c r="G45" t="n">
-        <v>39.37744223769941</v>
+        <v>39.37744223769939</v>
       </c>
       <c r="H45" t="n">
-        <v>39.37744223769941</v>
+        <v>39.37744223769939</v>
       </c>
       <c r="I45" t="n">
-        <v>39.37744223769941</v>
+        <v>39.37744223769939</v>
       </c>
       <c r="J45" t="n">
-        <v>63.69649278523673</v>
+        <v>63.69649278523661</v>
       </c>
       <c r="K45" t="n">
-        <v>231.8824667671689</v>
+        <v>231.8824667671688</v>
       </c>
       <c r="L45" t="n">
-        <v>519.4336605110188</v>
+        <v>519.4336605110186</v>
       </c>
       <c r="M45" t="n">
-        <v>906.9715623368055</v>
+        <v>906.9715623368052</v>
       </c>
       <c r="N45" t="n">
-        <v>1320.473452656362</v>
+        <v>1320.473452656361</v>
       </c>
       <c r="O45" t="n">
-        <v>1632.331219896213</v>
+        <v>1632.331219896212</v>
       </c>
       <c r="P45" t="n">
-        <v>1865.621504295213</v>
+        <v>1865.621504295212</v>
       </c>
       <c r="Q45" t="n">
         <v>1968.87211188497</v>
@@ -7780,52 +7780,52 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>39.37744223769941</v>
+        <v>43.66216514119737</v>
       </c>
       <c r="C46" t="n">
-        <v>39.37744223769941</v>
+        <v>43.66216514119737</v>
       </c>
       <c r="D46" t="n">
-        <v>39.37744223769941</v>
+        <v>43.66216514119737</v>
       </c>
       <c r="E46" t="n">
-        <v>39.37744223769941</v>
+        <v>43.66216514119737</v>
       </c>
       <c r="F46" t="n">
-        <v>39.37744223769941</v>
+        <v>43.66216514119737</v>
       </c>
       <c r="G46" t="n">
-        <v>39.37744223769941</v>
+        <v>43.66216514119737</v>
       </c>
       <c r="H46" t="n">
-        <v>39.37744223769941</v>
+        <v>43.66216514119737</v>
       </c>
       <c r="I46" t="n">
-        <v>39.37744223769941</v>
+        <v>43.66216514119737</v>
       </c>
       <c r="J46" t="n">
-        <v>39.37744223769941</v>
+        <v>43.66216514119737</v>
       </c>
       <c r="K46" t="n">
-        <v>43.16457529680613</v>
+        <v>47.44929820030409</v>
       </c>
       <c r="L46" t="n">
-        <v>103.5372363511478</v>
+        <v>107.8219592546457</v>
       </c>
       <c r="M46" t="n">
-        <v>177.5808656557596</v>
+        <v>181.8655885592574</v>
       </c>
       <c r="N46" t="n">
-        <v>255.2985193730096</v>
+        <v>259.5832422765075</v>
       </c>
       <c r="O46" t="n">
-        <v>311.0670560331616</v>
+        <v>315.3517789366595</v>
       </c>
       <c r="P46" t="n">
-        <v>335.2659912294582</v>
+        <v>339.5507141329561</v>
       </c>
       <c r="Q46" t="n">
-        <v>335.2659912294582</v>
+        <v>339.5507141329561</v>
       </c>
       <c r="R46" t="n">
         <v>339.5507141329561</v>
@@ -7843,13 +7843,13 @@
         <v>163.2137664278275</v>
       </c>
       <c r="W46" t="n">
-        <v>78.58425502032688</v>
+        <v>78.58425502032685</v>
       </c>
       <c r="X46" t="n">
-        <v>55.38236275176952</v>
+        <v>55.38236275176951</v>
       </c>
       <c r="Y46" t="n">
-        <v>39.37744223769941</v>
+        <v>39.37744223769939</v>
       </c>
     </row>
   </sheetData>
@@ -8769,25 +8769,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>94.58041480860669</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>454.4156218502049</v>
+        <v>454.4156218502048</v>
       </c>
       <c r="N12" t="n">
-        <v>441.8266814399514</v>
+        <v>441.8266814399513</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>78.85447357991002</v>
       </c>
       <c r="P12" t="n">
-        <v>93.46002702630979</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>130.1975696150693</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,25 +9003,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>101.5263378176439</v>
+        <v>101.526337817644</v>
       </c>
       <c r="K15" t="n">
-        <v>94.58041480860669</v>
+        <v>94.58041480860672</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>454.4156218502049</v>
+        <v>454.4156218502048</v>
       </c>
       <c r="N15" t="n">
-        <v>441.8266814399514</v>
+        <v>441.8266814399513</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>222.3182675690317</v>
+        <v>222.3182675690315</v>
       </c>
       <c r="Q15" t="n">
         <v>105.7837447158921</v>
@@ -9240,19 +9240,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>101.5263378176439</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>104.8110220285818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>454.415621850205</v>
+        <v>439.6910422194633</v>
       </c>
       <c r="N18" t="n">
-        <v>441.8266814399514</v>
+        <v>61.66369725309335</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>105.7837447158921</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,19 +9477,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>111.3664557096676</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>94.58041480860672</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>454.415621850205</v>
+        <v>454.4156218502048</v>
       </c>
       <c r="N21" t="n">
-        <v>61.66369725309329</v>
+        <v>216.8239398263238</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720741</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9647,7 +9647,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>101.5263378176439</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>94.58041480860669</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>454.4156218502049</v>
+        <v>439.6910422194633</v>
       </c>
       <c r="N24" t="n">
-        <v>441.8266814399514</v>
+        <v>61.66369725309335</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>222.3182675690317</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>105.7837447158921</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>101.526337817644</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>152.3945914235004</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,7 +10674,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>238.4134882117549</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>105.7837447158921</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>101.5263378176439</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>152.3945914235001</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10917,7 +10917,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>181.827425528095</v>
       </c>
       <c r="Q39" t="n">
         <v>105.7837447158921</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404091</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>210.0772877358494</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>250.9451161437573</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>222.8943161009597</v>
       </c>
       <c r="E11" t="n">
         <v>250.1416445525385</v>
       </c>
       <c r="F11" t="n">
-        <v>49.19889230162596</v>
+        <v>275.0873202219882</v>
       </c>
       <c r="G11" t="n">
         <v>283.0132963344747</v>
       </c>
       <c r="H11" t="n">
-        <v>202.5581223334715</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>46.69933666424154</v>
       </c>
       <c r="T11" t="n">
         <v>89.1152412386558</v>
@@ -23315,13 +23315,13 @@
         <v>119.5168701352383</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>195.9635329504117</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>237.9423751587458</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>250.9451161437573</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>233.4841662512842</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>222.8943161009596</v>
       </c>
       <c r="E14" t="n">
-        <v>250.1416445525385</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>275.0873202219882</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>283.0132963344747</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>40.85820369020126</v>
       </c>
       <c r="I14" t="n">
-        <v>59.38332353240367</v>
+        <v>59.38332353240357</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>65.82128594291707</v>
+        <v>65.82128594291697</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>89.11524123865568</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>119.5168701352382</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>195.9635329504115</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>217.4522431976897</v>
       </c>
       <c r="X14" t="n">
-        <v>43.59035833409777</v>
+        <v>237.9423751587457</v>
       </c>
       <c r="Y14" t="n">
-        <v>254.4492131363303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-3.655858457395553e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1502957.923183693</v>
+        <v>1502957.923183692</v>
       </c>
     </row>
     <row r="8">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>61445.72540377786</v>
+      </c>
+      <c r="C2" t="n">
+        <v>61445.72540377785</v>
+      </c>
+      <c r="D2" t="n">
         <v>61445.72540377787</v>
       </c>
-      <c r="C2" t="n">
-        <v>61445.72540377787</v>
-      </c>
-      <c r="D2" t="n">
-        <v>61445.72540377788</v>
-      </c>
       <c r="E2" t="n">
-        <v>52728.01633737612</v>
+        <v>52728.01633737609</v>
       </c>
       <c r="F2" t="n">
         <v>52728.0163373761</v>
       </c>
       <c r="G2" t="n">
+        <v>61578.13273982119</v>
+      </c>
+      <c r="H2" t="n">
+        <v>61578.1327398212</v>
+      </c>
+      <c r="I2" t="n">
         <v>61578.13273982122</v>
       </c>
-      <c r="H2" t="n">
-        <v>61578.13273982119</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>61578.13273982123</v>
+      </c>
+      <c r="K2" t="n">
+        <v>61578.13273982124</v>
+      </c>
+      <c r="L2" t="n">
+        <v>61578.13273982124</v>
+      </c>
+      <c r="M2" t="n">
         <v>61578.13273982121</v>
-      </c>
-      <c r="J2" t="n">
-        <v>61578.1327398212</v>
-      </c>
-      <c r="K2" t="n">
-        <v>61578.13273982122</v>
-      </c>
-      <c r="L2" t="n">
-        <v>61578.13273982122</v>
-      </c>
-      <c r="M2" t="n">
-        <v>61578.13273982122</v>
       </c>
       <c r="N2" t="n">
         <v>61578.13273982122</v>
       </c>
       <c r="O2" t="n">
-        <v>61578.13273982128</v>
+        <v>61578.13273982127</v>
       </c>
       <c r="P2" t="n">
         <v>61578.13273982128</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>319005.5543641123</v>
+        <v>319005.5543641121</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>9.094947017729282e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>84540.78049896876</v>
+        <v>84540.7804989687</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>116968.4382132362</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5.5409215677243e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>84540.78049896876</v>
+        <v>84540.78049896873</v>
       </c>
       <c r="M3" t="n">
-        <v>86585.28725869025</v>
+        <v>86585.28725869008</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>35644.17176296905</v>
+        <v>35644.17176296899</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26433,7 +26433,7 @@
         <v>360969.7681107472</v>
       </c>
       <c r="H4" t="n">
-        <v>360969.7681107471</v>
+        <v>360969.7681107472</v>
       </c>
       <c r="I4" t="n">
         <v>360969.7681107472</v>
@@ -26454,10 +26454,10 @@
         <v>359604.7994948407</v>
       </c>
       <c r="O4" t="n">
-        <v>357984.2462516573</v>
+        <v>357984.2462516574</v>
       </c>
       <c r="P4" t="n">
-        <v>357984.2462516573</v>
+        <v>357984.2462516574</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>36908.51165462545</v>
+        <v>36908.51165462544</v>
       </c>
       <c r="F5" t="n">
         <v>36908.51165462545</v>
@@ -26494,22 +26494,22 @@
         <v>57371.01886869561</v>
       </c>
       <c r="K5" t="n">
-        <v>57371.01886869561</v>
+        <v>57371.0188686956</v>
       </c>
       <c r="L5" t="n">
-        <v>57371.01886869561</v>
+        <v>57371.0188686956</v>
       </c>
       <c r="M5" t="n">
-        <v>47513.79990127459</v>
+        <v>47513.79990127456</v>
       </c>
       <c r="N5" t="n">
-        <v>47513.79990127456</v>
+        <v>47513.79990127457</v>
       </c>
       <c r="O5" t="n">
-        <v>49686.24268758528</v>
+        <v>49686.24268758527</v>
       </c>
       <c r="P5" t="n">
-        <v>49686.24268758528</v>
+        <v>49686.24268758527</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-397705.0137623256</v>
+        <v>-397709.4273401938</v>
       </c>
       <c r="C6" t="n">
-        <v>-397705.0137623257</v>
+        <v>-397709.4273401938</v>
       </c>
       <c r="D6" t="n">
-        <v>-397705.0137623256</v>
+        <v>-397709.4273401938</v>
       </c>
       <c r="E6" t="n">
-        <v>-597039.3803237075</v>
+        <v>-597334.3842037888</v>
       </c>
       <c r="F6" t="n">
-        <v>-278033.8259595953</v>
+        <v>-278328.8298396769</v>
       </c>
       <c r="G6" t="n">
         <v>-429725.0011192299</v>
       </c>
       <c r="H6" t="n">
-        <v>-345184.2206202611</v>
+        <v>-345184.2206202612</v>
       </c>
       <c r="I6" t="n">
         <v>-345184.2206202612</v>
       </c>
       <c r="J6" t="n">
-        <v>-471697.7837403887</v>
+        <v>-471697.7837403888</v>
       </c>
       <c r="K6" t="n">
-        <v>-354729.3455271525</v>
+        <v>-354729.3455271526</v>
       </c>
       <c r="L6" t="n">
         <v>-439270.1260261213</v>
       </c>
       <c r="M6" t="n">
-        <v>-432125.7539149843</v>
+        <v>-432125.7539149841</v>
       </c>
       <c r="N6" t="n">
-        <v>-345540.4666562939</v>
+        <v>-345540.4666562941</v>
       </c>
       <c r="O6" t="n">
-        <v>-381736.5279623904</v>
+        <v>-381736.5279623903</v>
       </c>
       <c r="P6" t="n">
         <v>-346092.3561994213</v>
@@ -26695,7 +26695,7 @@
         <v>131.7887255197232</v>
       </c>
       <c r="F2" t="n">
-        <v>131.7887255197232</v>
+        <v>131.7887255197234</v>
       </c>
       <c r="G2" t="n">
         <v>237.4647011434342</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>124.553020658113</v>
+        <v>124.5530206581129</v>
       </c>
       <c r="F3" t="n">
-        <v>124.553020658113</v>
+        <v>124.5530206581129</v>
       </c>
       <c r="G3" t="n">
-        <v>124.553020658113</v>
+        <v>124.5530206581129</v>
       </c>
       <c r="H3" t="n">
-        <v>124.553020658113</v>
+        <v>124.5530206581129</v>
       </c>
       <c r="I3" t="n">
-        <v>124.553020658113</v>
+        <v>124.5530206581129</v>
       </c>
       <c r="J3" t="n">
-        <v>124.553020658113</v>
+        <v>124.5530206581129</v>
       </c>
       <c r="K3" t="n">
-        <v>124.553020658113</v>
+        <v>124.5530206581129</v>
       </c>
       <c r="L3" t="n">
-        <v>124.553020658113</v>
+        <v>124.5530206581129</v>
       </c>
       <c r="M3" t="n">
-        <v>124.553020658113</v>
+        <v>124.5530206581129</v>
       </c>
       <c r="N3" t="n">
-        <v>124.553020658113</v>
+        <v>124.5530206581129</v>
       </c>
       <c r="O3" t="n">
-        <v>124.553020658113</v>
+        <v>124.5530206581129</v>
       </c>
       <c r="P3" t="n">
-        <v>124.553020658113</v>
+        <v>124.5530206581129</v>
       </c>
     </row>
     <row r="4">
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>380.1629841868581</v>
+        <v>380.162984186858</v>
       </c>
       <c r="F4" t="n">
-        <v>380.1629841868581</v>
+        <v>380.162984186858</v>
       </c>
       <c r="G4" t="n">
-        <v>380.1629841868581</v>
+        <v>380.162984186858</v>
       </c>
       <c r="H4" t="n">
-        <v>380.1629841868581</v>
+        <v>380.162984186858</v>
       </c>
       <c r="I4" t="n">
-        <v>380.1629841868581</v>
+        <v>380.162984186858</v>
       </c>
       <c r="J4" t="n">
         <v>691.4094512091112</v>
       </c>
       <c r="K4" t="n">
-        <v>691.4094512091114</v>
+        <v>691.4094512091112</v>
       </c>
       <c r="L4" t="n">
-        <v>691.4094512091114</v>
+        <v>691.4094512091112</v>
       </c>
       <c r="M4" t="n">
-        <v>431.3711919328545</v>
+        <v>431.3711919328541</v>
       </c>
       <c r="N4" t="n">
-        <v>431.3711919328541</v>
+        <v>431.3711919328543</v>
       </c>
       <c r="O4" t="n">
-        <v>492.2180279712425</v>
+        <v>492.2180279712424</v>
       </c>
       <c r="P4" t="n">
-        <v>492.2180279712425</v>
+        <v>492.2180279712424</v>
       </c>
     </row>
   </sheetData>
@@ -26917,7 +26917,7 @@
         <v>131.7887255197232</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="G2" t="n">
         <v>105.6759756237109</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>44.41583449458221</v>
+        <v>44.41583449458219</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="L2" t="n">
         <v>105.6759756237109</v>
       </c>
       <c r="M2" t="n">
-        <v>70.81215664008596</v>
+        <v>70.8121566400859</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>26.25164977936853</v>
+        <v>26.25164977936856</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>124.553020658113</v>
+        <v>124.5530206581129</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>380.1629841868581</v>
+        <v>380.162984186858</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>311.2464670222531</v>
+        <v>311.2464670222533</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>120.1247249106013</v>
+        <v>120.1247249106008</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>60.84683603838846</v>
+        <v>60.84683603838812</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>131.7887255197232</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="L2" t="n">
         <v>105.6759756237109</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>44.41583449458221</v>
+        <v>44.41583449458219</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>380.1629841868581</v>
+        <v>380.162984186858</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28166,28 +28166,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>131.7887255197232</v>
+        <v>16.28587491806434</v>
       </c>
       <c r="C12" t="n">
         <v>131.7887255197232</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>131.7887255197232</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>131.7887255197232</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>131.7887255197232</v>
       </c>
       <c r="G12" t="n">
-        <v>16.28587491806375</v>
+        <v>131.7887255197232</v>
       </c>
       <c r="H12" t="n">
         <v>109.6480314865987</v>
       </c>
       <c r="I12" t="n">
-        <v>80.17265915173407</v>
+        <v>80.17265915173408</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,7 +28214,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>83.52413075230118</v>
+        <v>83.52413075230119</v>
       </c>
       <c r="S12" t="n">
         <v>131.7887255197232</v>
@@ -28223,7 +28223,7 @@
         <v>131.7887255197232</v>
       </c>
       <c r="U12" t="n">
-        <v>131.7887255197232</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -28232,10 +28232,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>131.7887255197232</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>131.7887255197232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28269,10 +28269,10 @@
         <v>131.7887255197232</v>
       </c>
       <c r="J13" t="n">
-        <v>77.47969090916222</v>
+        <v>131.7887255197232</v>
       </c>
       <c r="K13" t="n">
-        <v>38.01087492692977</v>
+        <v>131.7887255197232</v>
       </c>
       <c r="L13" t="n">
         <v>131.7887255197232</v>
@@ -28281,7 +28281,7 @@
         <v>131.7887255197232</v>
       </c>
       <c r="N13" t="n">
-        <v>131.7887255197232</v>
+        <v>48.13602870377284</v>
       </c>
       <c r="O13" t="n">
         <v>131.7887255197232</v>
@@ -28290,7 +28290,7 @@
         <v>131.7887255197232</v>
       </c>
       <c r="Q13" t="n">
-        <v>131.7887255197232</v>
+        <v>67.35453713231934</v>
       </c>
       <c r="R13" t="n">
         <v>131.7887255197232</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>131.7887255197232</v>
+        <v>131.7887255197234</v>
       </c>
       <c r="C14" t="n">
-        <v>131.7887255197232</v>
+        <v>131.7887255197234</v>
       </c>
       <c r="D14" t="n">
-        <v>131.7887255197232</v>
+        <v>131.7887255197234</v>
       </c>
       <c r="E14" t="n">
-        <v>131.7887255197232</v>
+        <v>131.7887255197234</v>
       </c>
       <c r="F14" t="n">
-        <v>131.7887255197232</v>
+        <v>131.7887255197234</v>
       </c>
       <c r="G14" t="n">
-        <v>131.7887255197232</v>
+        <v>131.7887255197234</v>
       </c>
       <c r="H14" t="n">
-        <v>131.7887255197232</v>
+        <v>131.7887255197234</v>
       </c>
       <c r="I14" t="n">
-        <v>131.7887255197232</v>
+        <v>131.7887255197234</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>118.4160378048072</v>
       </c>
       <c r="S14" t="n">
-        <v>131.7887255197232</v>
+        <v>131.7887255197234</v>
       </c>
       <c r="T14" t="n">
-        <v>131.7887255197232</v>
+        <v>131.7887255197234</v>
       </c>
       <c r="U14" t="n">
-        <v>131.7887255197232</v>
+        <v>131.7887255197234</v>
       </c>
       <c r="V14" t="n">
-        <v>131.7887255197232</v>
+        <v>131.7887255197234</v>
       </c>
       <c r="W14" t="n">
-        <v>131.7887255197232</v>
+        <v>131.7887255197234</v>
       </c>
       <c r="X14" t="n">
-        <v>131.7887255197232</v>
+        <v>131.7887255197234</v>
       </c>
       <c r="Y14" t="n">
-        <v>131.7887255197232</v>
+        <v>131.7887255197234</v>
       </c>
     </row>
     <row r="15">
@@ -28412,19 +28412,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>131.7887255197232</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>131.7887255197232</v>
+        <v>16.28587491806334</v>
       </c>
       <c r="G15" t="n">
-        <v>131.7887255197232</v>
+        <v>131.7887255197234</v>
       </c>
       <c r="H15" t="n">
         <v>109.6480314865987</v>
       </c>
       <c r="I15" t="n">
-        <v>80.17265915173407</v>
+        <v>80.17265915173408</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>83.52413075230118</v>
+        <v>83.52413075230119</v>
       </c>
       <c r="S15" t="n">
-        <v>131.7887255197232</v>
+        <v>131.7887255197234</v>
       </c>
       <c r="T15" t="n">
-        <v>131.7887255197232</v>
+        <v>131.7887255197234</v>
       </c>
       <c r="U15" t="n">
-        <v>131.7887255197232</v>
+        <v>131.7887255197234</v>
       </c>
       <c r="V15" t="n">
-        <v>131.7887255197232</v>
+        <v>131.7887255197234</v>
       </c>
       <c r="W15" t="n">
-        <v>16.2858749180638</v>
+        <v>131.7887255197234</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>131.7887255197234</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>131.7887255197232</v>
+        <v>131.7887255197234</v>
       </c>
       <c r="C16" t="n">
-        <v>131.7887255197232</v>
+        <v>131.7887255197234</v>
       </c>
       <c r="D16" t="n">
-        <v>131.7887255197232</v>
+        <v>131.7887255197234</v>
       </c>
       <c r="E16" t="n">
-        <v>131.7887255197232</v>
+        <v>131.7887255197234</v>
       </c>
       <c r="F16" t="n">
-        <v>131.7887255197232</v>
+        <v>131.7887255197234</v>
       </c>
       <c r="G16" t="n">
-        <v>131.7887255197232</v>
+        <v>131.7887255197234</v>
       </c>
       <c r="H16" t="n">
-        <v>131.7887255197232</v>
+        <v>131.7887255197234</v>
       </c>
       <c r="I16" t="n">
-        <v>131.7887255197232</v>
+        <v>131.7887255197234</v>
       </c>
       <c r="J16" t="n">
-        <v>115.490565836092</v>
+        <v>77.47969090916223</v>
       </c>
       <c r="K16" t="n">
-        <v>131.7887255197232</v>
+        <v>38.01087492692749</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>131.7887255197234</v>
       </c>
       <c r="M16" t="n">
-        <v>131.7887255197232</v>
+        <v>131.7887255197234</v>
       </c>
       <c r="N16" t="n">
-        <v>131.7887255197232</v>
+        <v>131.7887255197234</v>
       </c>
       <c r="O16" t="n">
-        <v>131.7887255197232</v>
+        <v>131.7887255197234</v>
       </c>
       <c r="P16" t="n">
-        <v>131.7887255197232</v>
+        <v>131.7887255197234</v>
       </c>
       <c r="Q16" t="n">
-        <v>131.7887255197232</v>
+        <v>131.7887255197234</v>
       </c>
       <c r="R16" t="n">
-        <v>131.7887255197232</v>
+        <v>131.7887255197234</v>
       </c>
       <c r="S16" t="n">
-        <v>131.7887255197232</v>
+        <v>131.7887255197234</v>
       </c>
       <c r="T16" t="n">
-        <v>131.7887255197232</v>
+        <v>131.7887255197234</v>
       </c>
       <c r="U16" t="n">
-        <v>131.7887255197232</v>
+        <v>131.7887255197234</v>
       </c>
       <c r="V16" t="n">
-        <v>131.7887255197232</v>
+        <v>131.7887255197234</v>
       </c>
       <c r="W16" t="n">
-        <v>131.7887255197232</v>
+        <v>131.7887255197234</v>
       </c>
       <c r="X16" t="n">
-        <v>131.7887255197232</v>
+        <v>131.7887255197234</v>
       </c>
       <c r="Y16" t="n">
-        <v>131.7887255197232</v>
+        <v>131.7887255197234</v>
       </c>
     </row>
     <row r="17">
@@ -28640,13 +28640,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -28655,13 +28655,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>114.2908068268951</v>
+        <v>86.32840242702228</v>
       </c>
       <c r="H18" t="n">
         <v>109.6480314865987</v>
       </c>
       <c r="I18" t="n">
-        <v>80.17265915173407</v>
+        <v>80.17265915173408</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>83.52413075230118</v>
+        <v>83.52413075230119</v>
       </c>
       <c r="S18" t="n">
         <v>166.7069254199972</v>
@@ -28697,10 +28697,10 @@
         <v>199.0848775062857</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9237566535232</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -28734,7 +28734,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.7663755507146</v>
+        <v>132.2442565601762</v>
       </c>
       <c r="H19" t="n">
         <v>160.2302404713144</v>
@@ -28743,7 +28743,7 @@
         <v>148.6960258725528</v>
       </c>
       <c r="J19" t="n">
-        <v>77.47969090916222</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>67.35453713231934</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>167.194387439874</v>
@@ -28788,7 +28788,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>38.22830632007489</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -28886,19 +28886,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>64.94657091699044</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.075610665946</v>
+        <v>66.6467963217943</v>
       </c>
       <c r="H21" t="n">
-        <v>109.6480314865987</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>80.17265915173407</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>83.52413075230118</v>
+        <v>83.52413075230119</v>
       </c>
       <c r="S21" t="n">
         <v>166.7069254199972</v>
@@ -28937,10 +28937,10 @@
         <v>225.9237566535232</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>237.4647011434342</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -28968,10 +28968,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.7663755507146</v>
+        <v>132.831076541626</v>
       </c>
       <c r="H22" t="n">
         <v>160.2302404713144</v>
@@ -28980,7 +28980,7 @@
         <v>148.6960258725528</v>
       </c>
       <c r="J22" t="n">
-        <v>77.4796909091622</v>
+        <v>77.47969090916223</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,13 +29001,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>67.35453713231932</v>
+        <v>67.35453713231934</v>
       </c>
       <c r="R22" t="n">
         <v>167.194387439874</v>
       </c>
       <c r="S22" t="n">
-        <v>39.74601919181129</v>
+        <v>220.1023662238312</v>
       </c>
       <c r="T22" t="n">
         <v>226.9859186133747</v>
@@ -29114,16 +29114,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>118.1618285821978</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -29132,10 +29132,10 @@
         <v>137.075610665946</v>
       </c>
       <c r="H24" t="n">
-        <v>109.6480314865987</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>80.17265915173407</v>
+        <v>79.99242745190404</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,13 +29162,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>83.52413075230118</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>166.7069254199972</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>199.0848775062857</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -29183,7 +29183,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -29196,19 +29196,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>133.3244367131771</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.7663755507146</v>
+        <v>54.76456565101407</v>
       </c>
       <c r="H25" t="n">
         <v>160.2302404713144</v>
@@ -29217,7 +29217,7 @@
         <v>148.6960258725528</v>
       </c>
       <c r="J25" t="n">
-        <v>77.47969090916222</v>
+        <v>77.47969090916223</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>67.35453713231934</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>167.194387439874</v>
@@ -29314,7 +29314,7 @@
         <v>150.0918101182932</v>
       </c>
       <c r="P26" t="n">
-        <v>150.0918101182932</v>
+        <v>150.0918101182936</v>
       </c>
       <c r="Q26" t="n">
         <v>150.0918101182932</v>
@@ -29363,7 +29363,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>66.68450873515542</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>137.075610665946</v>
@@ -29372,7 +29372,7 @@
         <v>109.6480314865987</v>
       </c>
       <c r="I27" t="n">
-        <v>80.17265915173407</v>
+        <v>80.17265915173408</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29399,16 +29399,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>83.52413075230118</v>
+        <v>83.52413075230119</v>
       </c>
       <c r="S27" t="n">
         <v>150.0918101182932</v>
       </c>
       <c r="T27" t="n">
+        <v>66.68450873515576</v>
+      </c>
+      <c r="U27" t="n">
         <v>150.0918101182932</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -29454,25 +29454,25 @@
         <v>148.6960258725528</v>
       </c>
       <c r="J28" t="n">
+        <v>77.47969090916223</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>91.10056713818958</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
         <v>150.0918101182932</v>
       </c>
-      <c r="K28" t="n">
-        <v>18.48844792905851</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
+      <c r="P28" t="n">
         <v>150.0918101182932</v>
-      </c>
-      <c r="N28" t="n">
-        <v>150.0918101182932</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>150.0918101182932</v>
@@ -29609,7 +29609,7 @@
         <v>109.6480314865987</v>
       </c>
       <c r="I30" t="n">
-        <v>80.17265915173407</v>
+        <v>80.17265915173408</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29636,7 +29636,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>83.52413075230118</v>
+        <v>83.52413075230119</v>
       </c>
       <c r="S30" t="n">
         <v>150.0918101182931</v>
@@ -29645,7 +29645,7 @@
         <v>150.0918101182931</v>
       </c>
       <c r="U30" t="n">
-        <v>66.68450873515556</v>
+        <v>66.68450873515579</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -29691,22 +29691,22 @@
         <v>148.6960258725528</v>
       </c>
       <c r="J31" t="n">
+        <v>77.47969090916223</v>
+      </c>
+      <c r="K31" t="n">
+        <v>91.10056713819085</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
         <v>150.0918101182931</v>
       </c>
-      <c r="K31" t="n">
+      <c r="O31" t="n">
         <v>150.0918101182931</v>
-      </c>
-      <c r="L31" t="n">
-        <v>18.4884479290597</v>
-      </c>
-      <c r="M31" t="n">
-        <v>150.0918101182931</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -29779,7 +29779,7 @@
         <v>150.0918101182931</v>
       </c>
       <c r="M32" t="n">
-        <v>150.0918101182931</v>
+        <v>150.0918101182937</v>
       </c>
       <c r="N32" t="n">
         <v>150.0918101182931</v>
@@ -29791,7 +29791,7 @@
         <v>150.0918101182931</v>
       </c>
       <c r="Q32" t="n">
-        <v>150.091810118294</v>
+        <v>150.0918101182931</v>
       </c>
       <c r="R32" t="n">
         <v>150.0918101182931</v>
@@ -29828,7 +29828,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>150.0918101182931</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -29846,7 +29846,7 @@
         <v>109.6480314865987</v>
       </c>
       <c r="I33" t="n">
-        <v>80.17265915173407</v>
+        <v>80.17265915173408</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29873,16 +29873,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>83.52413075230118</v>
+        <v>83.52413075230119</v>
       </c>
       <c r="S33" t="n">
-        <v>66.68450873515533</v>
+        <v>150.0918101182931</v>
       </c>
       <c r="T33" t="n">
         <v>150.0918101182931</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>66.68450873515579</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -29928,28 +29928,28 @@
         <v>148.6960258725528</v>
       </c>
       <c r="J34" t="n">
-        <v>77.47969090916222</v>
+        <v>77.47969090916223</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>91.10056713819051</v>
+        <v>150.0918101182931</v>
       </c>
       <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
         <v>150.0918101182931</v>
       </c>
-      <c r="N34" t="n">
+      <c r="P34" t="n">
         <v>150.0918101182931</v>
       </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
       <c r="Q34" t="n">
-        <v>150.0918101182931</v>
+        <v>91.10056713819036</v>
       </c>
       <c r="R34" t="n">
         <v>150.0918101182931</v>
@@ -30028,7 +30028,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>47.25001053363537</v>
+        <v>47.25001053363403</v>
       </c>
       <c r="R35" t="n">
         <v>220.9039667583791</v>
@@ -30065,16 +30065,16 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>92.14151494985074</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>137.075610665946</v>
@@ -30083,7 +30083,7 @@
         <v>109.6480314865987</v>
       </c>
       <c r="I36" t="n">
-        <v>80.17265915173407</v>
+        <v>80.17265915173408</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30110,7 +30110,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>83.52413075230118</v>
+        <v>83.52413075230119</v>
       </c>
       <c r="S36" t="n">
         <v>166.7069254199972</v>
@@ -30119,7 +30119,7 @@
         <v>199.0848775062857</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>64.50222835492073</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -30165,7 +30165,7 @@
         <v>148.6960258725528</v>
       </c>
       <c r="J37" t="n">
-        <v>77.47969090916222</v>
+        <v>77.47969090916223</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30201,7 +30201,7 @@
         <v>220.9039667583791</v>
       </c>
       <c r="V37" t="n">
-        <v>220.9039667583791</v>
+        <v>101.1174633671783</v>
       </c>
       <c r="W37" t="n">
         <v>220.9039667583791</v>
@@ -30210,7 +30210,7 @@
         <v>220.9039667583791</v>
       </c>
       <c r="Y37" t="n">
-        <v>98.79814996089399</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -30244,7 +30244,7 @@
         <v>220.9039667583791</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>47.25001053363508</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -30259,7 +30259,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>47.25001053363354</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -30302,7 +30302,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -30320,7 +30320,7 @@
         <v>109.6480314865987</v>
       </c>
       <c r="I39" t="n">
-        <v>80.17265915173407</v>
+        <v>80.17265915173408</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>83.52413075230118</v>
+        <v>83.52413075230119</v>
       </c>
       <c r="S39" t="n">
         <v>166.7069254199972</v>
@@ -30356,10 +30356,10 @@
         <v>199.0848775062857</v>
       </c>
       <c r="U39" t="n">
-        <v>220.9039667583791</v>
+        <v>64.50222835491982</v>
       </c>
       <c r="V39" t="n">
-        <v>16.30676058485741</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -30381,7 +30381,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>47.46031770742714</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -30402,7 +30402,7 @@
         <v>148.6960258725528</v>
       </c>
       <c r="J40" t="n">
-        <v>77.47969090916222</v>
+        <v>77.47969090916223</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30429,7 +30429,7 @@
         <v>167.194387439874</v>
       </c>
       <c r="S40" t="n">
-        <v>100.3158628326305</v>
+        <v>220.1023662238312</v>
       </c>
       <c r="T40" t="n">
         <v>220.9039667583791</v>
@@ -30539,25 +30539,25 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>126.0402538486447</v>
       </c>
       <c r="G42" t="n">
-        <v>48.96756847538991</v>
+        <v>137.075610665946</v>
       </c>
       <c r="H42" t="n">
         <v>109.6480314865987</v>
       </c>
       <c r="I42" t="n">
-        <v>80.17265915173407</v>
+        <v>80.17265915173408</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30590,7 +30590,7 @@
         <v>166.7069254199972</v>
       </c>
       <c r="T42" t="n">
-        <v>199.0848775062857</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -30615,13 +30615,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>184.1599831147634</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>152.9434759510381</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -30639,7 +30639,7 @@
         <v>148.6960258725528</v>
       </c>
       <c r="J43" t="n">
-        <v>77.47969090916222</v>
+        <v>77.47969090916223</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30718,10 +30718,10 @@
         <v>202.7397820431654</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>202.7397820431654</v>
       </c>
       <c r="K44" t="n">
-        <v>202.7397820431654</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -30739,7 +30739,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>139.9316687679098</v>
+        <v>139.9316687679101</v>
       </c>
       <c r="R44" t="n">
         <v>202.7397820431654</v>
@@ -30794,7 +30794,7 @@
         <v>109.6480314865987</v>
       </c>
       <c r="I45" t="n">
-        <v>80.17265915173407</v>
+        <v>80.17265915173408</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>83.52413075230118</v>
+        <v>83.52413075230119</v>
       </c>
       <c r="S45" t="n">
         <v>166.7069254199972</v>
@@ -30830,7 +30830,7 @@
         <v>199.0848775062857</v>
       </c>
       <c r="U45" t="n">
-        <v>1.076326045458586</v>
+        <v>1.076326045459041</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -30852,7 +30852,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>184.1599831147635</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -30876,7 +30876,7 @@
         <v>148.6960258725528</v>
       </c>
       <c r="J46" t="n">
-        <v>77.47969090916222</v>
+        <v>77.47969090916223</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30900,7 +30900,7 @@
         <v>67.35453713231934</v>
       </c>
       <c r="R46" t="n">
-        <v>171.5223903727001</v>
+        <v>167.194387439874</v>
       </c>
       <c r="S46" t="n">
         <v>202.7397820431654</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5007156609371372</v>
+        <v>0.5007156609371367</v>
       </c>
       <c r="H11" t="n">
-        <v>5.127954262572457</v>
+        <v>5.127954262572453</v>
       </c>
       <c r="I11" t="n">
-        <v>19.303840518279</v>
+        <v>19.30384051827898</v>
       </c>
       <c r="J11" t="n">
-        <v>42.49761582746338</v>
+        <v>42.49761582746335</v>
       </c>
       <c r="K11" t="n">
-        <v>63.69290975493241</v>
+        <v>63.69290975493236</v>
       </c>
       <c r="L11" t="n">
-        <v>79.01668666333734</v>
+        <v>79.01668666333727</v>
       </c>
       <c r="M11" t="n">
-        <v>87.92128879852814</v>
+        <v>87.92128879852807</v>
       </c>
       <c r="N11" t="n">
-        <v>89.34394717016579</v>
+        <v>89.34394717016572</v>
       </c>
       <c r="O11" t="n">
-        <v>84.36495581672213</v>
+        <v>84.36495581672206</v>
       </c>
       <c r="P11" t="n">
-        <v>72.00353793733655</v>
+        <v>72.00353793733649</v>
       </c>
       <c r="Q11" t="n">
-        <v>54.07165833002531</v>
+        <v>54.07165833002527</v>
       </c>
       <c r="R11" t="n">
-        <v>31.45308013634247</v>
+        <v>31.45308013634244</v>
       </c>
       <c r="S11" t="n">
         <v>11.41005812360502</v>
       </c>
       <c r="T11" t="n">
-        <v>2.191882805752319</v>
+        <v>2.191882805752317</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04005725287497097</v>
+        <v>0.04005725287497093</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2679064972646203</v>
+        <v>0.2679064972646201</v>
       </c>
       <c r="H12" t="n">
-        <v>2.587412749897781</v>
+        <v>2.587412749897779</v>
       </c>
       <c r="I12" t="n">
-        <v>9.223973699681007</v>
+        <v>9.223973699681</v>
       </c>
       <c r="J12" t="n">
-        <v>25.31128884902275</v>
+        <v>25.31128884902273</v>
       </c>
       <c r="K12" t="n">
-        <v>43.26102416575231</v>
+        <v>43.26102416575227</v>
       </c>
       <c r="L12" t="n">
-        <v>58.16978573282908</v>
+        <v>58.16978573282903</v>
       </c>
       <c r="M12" t="n">
-        <v>67.88139625867156</v>
+        <v>67.8813962586715</v>
       </c>
       <c r="N12" t="n">
-        <v>69.67801483024</v>
+        <v>69.67801483023995</v>
       </c>
       <c r="O12" t="n">
-        <v>63.74177086453447</v>
+        <v>63.74177086453442</v>
       </c>
       <c r="P12" t="n">
-        <v>51.15839069257474</v>
+        <v>51.1583906925747</v>
       </c>
       <c r="Q12" t="n">
-        <v>34.19802937012943</v>
+        <v>34.1980293701294</v>
       </c>
       <c r="R12" t="n">
-        <v>16.63370340034196</v>
+        <v>16.63370340034195</v>
       </c>
       <c r="S12" t="n">
-        <v>4.976245683840641</v>
+        <v>4.976245683840638</v>
       </c>
       <c r="T12" t="n">
         <v>1.079851188535903</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01762542745161976</v>
+        <v>0.01762542745161975</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2246038077441381</v>
+        <v>0.2246038077441379</v>
       </c>
       <c r="H13" t="n">
-        <v>1.996932036125157</v>
+        <v>1.996932036125155</v>
       </c>
       <c r="I13" t="n">
-        <v>6.754449054705537</v>
+        <v>6.754449054705532</v>
       </c>
       <c r="J13" t="n">
-        <v>15.87948920751056</v>
+        <v>15.87948920751055</v>
       </c>
       <c r="K13" t="n">
-        <v>26.09487875427349</v>
+        <v>26.09487875427347</v>
       </c>
       <c r="L13" t="n">
-        <v>33.39246065316032</v>
+        <v>33.39246065316029</v>
       </c>
       <c r="M13" t="n">
-        <v>35.20766779029248</v>
+        <v>35.20766779029245</v>
       </c>
       <c r="N13" t="n">
-        <v>34.37050814324618</v>
+        <v>34.37050814324615</v>
       </c>
       <c r="O13" t="n">
-        <v>31.74672729823509</v>
+        <v>31.74672729823507</v>
       </c>
       <c r="P13" t="n">
-        <v>27.16480962025465</v>
+        <v>27.16480962025463</v>
       </c>
       <c r="Q13" t="n">
-        <v>18.80750611937506</v>
+        <v>18.80750611937504</v>
       </c>
       <c r="R13" t="n">
-        <v>10.09900393729552</v>
+        <v>10.09900393729551</v>
       </c>
       <c r="S13" t="n">
-        <v>3.914231813141023</v>
+        <v>3.91423181314102</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9596708149067716</v>
+        <v>0.9596708149067709</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01225111678604391</v>
+        <v>0.0122511167860439</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5007156609371372</v>
+        <v>0.5007156609371368</v>
       </c>
       <c r="H14" t="n">
-        <v>5.127954262572457</v>
+        <v>5.127954262572453</v>
       </c>
       <c r="I14" t="n">
-        <v>19.303840518279</v>
+        <v>19.30384051827899</v>
       </c>
       <c r="J14" t="n">
-        <v>42.49761582746338</v>
+        <v>42.49761582746335</v>
       </c>
       <c r="K14" t="n">
-        <v>63.69290975493241</v>
+        <v>63.69290975493237</v>
       </c>
       <c r="L14" t="n">
-        <v>79.01668666333734</v>
+        <v>79.01668666333728</v>
       </c>
       <c r="M14" t="n">
-        <v>87.92128879852814</v>
+        <v>87.92128879852808</v>
       </c>
       <c r="N14" t="n">
-        <v>89.34394717016579</v>
+        <v>89.34394717016573</v>
       </c>
       <c r="O14" t="n">
-        <v>84.36495581672213</v>
+        <v>84.36495581672207</v>
       </c>
       <c r="P14" t="n">
-        <v>72.00353793733655</v>
+        <v>72.0035379373365</v>
       </c>
       <c r="Q14" t="n">
-        <v>54.07165833002531</v>
+        <v>54.07165833002527</v>
       </c>
       <c r="R14" t="n">
-        <v>31.45308013634247</v>
+        <v>31.45308013634245</v>
       </c>
       <c r="S14" t="n">
         <v>11.41005812360502</v>
       </c>
       <c r="T14" t="n">
-        <v>2.191882805752319</v>
+        <v>2.191882805752317</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04005725287497097</v>
+        <v>0.04005725287497094</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2679064972646203</v>
+        <v>0.2679064972646201</v>
       </c>
       <c r="H15" t="n">
-        <v>2.587412749897781</v>
+        <v>2.587412749897779</v>
       </c>
       <c r="I15" t="n">
-        <v>9.223973699681007</v>
+        <v>9.223973699681002</v>
       </c>
       <c r="J15" t="n">
-        <v>25.31128884902275</v>
+        <v>25.31128884902273</v>
       </c>
       <c r="K15" t="n">
-        <v>43.26102416575231</v>
+        <v>43.26102416575228</v>
       </c>
       <c r="L15" t="n">
-        <v>58.16978573282908</v>
+        <v>58.16978573282904</v>
       </c>
       <c r="M15" t="n">
-        <v>67.88139625867156</v>
+        <v>67.8813962586715</v>
       </c>
       <c r="N15" t="n">
-        <v>69.67801483024</v>
+        <v>69.67801483023996</v>
       </c>
       <c r="O15" t="n">
-        <v>63.74177086453447</v>
+        <v>63.74177086453442</v>
       </c>
       <c r="P15" t="n">
-        <v>51.15839069257474</v>
+        <v>51.15839069257471</v>
       </c>
       <c r="Q15" t="n">
-        <v>34.19802937012943</v>
+        <v>34.19802937012941</v>
       </c>
       <c r="R15" t="n">
-        <v>16.63370340034196</v>
+        <v>16.63370340034195</v>
       </c>
       <c r="S15" t="n">
-        <v>4.976245683840641</v>
+        <v>4.976245683840639</v>
       </c>
       <c r="T15" t="n">
         <v>1.079851188535903</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01762542745161976</v>
+        <v>0.01762542745161975</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2246038077441381</v>
+        <v>0.2246038077441379</v>
       </c>
       <c r="H16" t="n">
-        <v>1.996932036125157</v>
+        <v>1.996932036125155</v>
       </c>
       <c r="I16" t="n">
-        <v>6.754449054705537</v>
+        <v>6.754449054705532</v>
       </c>
       <c r="J16" t="n">
-        <v>15.87948920751056</v>
+        <v>15.87948920751055</v>
       </c>
       <c r="K16" t="n">
-        <v>26.09487875427349</v>
+        <v>26.09487875427347</v>
       </c>
       <c r="L16" t="n">
-        <v>33.39246065316032</v>
+        <v>33.39246065316029</v>
       </c>
       <c r="M16" t="n">
-        <v>35.20766779029248</v>
+        <v>35.20766779029245</v>
       </c>
       <c r="N16" t="n">
-        <v>34.37050814324618</v>
+        <v>34.37050814324615</v>
       </c>
       <c r="O16" t="n">
-        <v>31.74672729823509</v>
+        <v>31.74672729823507</v>
       </c>
       <c r="P16" t="n">
-        <v>27.16480962025465</v>
+        <v>27.16480962025464</v>
       </c>
       <c r="Q16" t="n">
-        <v>18.80750611937506</v>
+        <v>18.80750611937504</v>
       </c>
       <c r="R16" t="n">
-        <v>10.09900393729552</v>
+        <v>10.09900393729551</v>
       </c>
       <c r="S16" t="n">
-        <v>3.914231813141023</v>
+        <v>3.914231813141021</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9596708149067716</v>
+        <v>0.959670814906771</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01225111678604391</v>
+        <v>0.0122511167860439</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5007156609371372</v>
+        <v>0.5007156609371368</v>
       </c>
       <c r="H17" t="n">
-        <v>5.127954262572457</v>
+        <v>5.127954262572453</v>
       </c>
       <c r="I17" t="n">
-        <v>19.303840518279</v>
+        <v>19.30384051827899</v>
       </c>
       <c r="J17" t="n">
-        <v>42.49761582746338</v>
+        <v>42.49761582746335</v>
       </c>
       <c r="K17" t="n">
-        <v>63.69290975493241</v>
+        <v>63.69290975493237</v>
       </c>
       <c r="L17" t="n">
-        <v>79.01668666333734</v>
+        <v>79.01668666333728</v>
       </c>
       <c r="M17" t="n">
-        <v>87.92128879852814</v>
+        <v>87.92128879852808</v>
       </c>
       <c r="N17" t="n">
-        <v>89.34394717016579</v>
+        <v>89.34394717016573</v>
       </c>
       <c r="O17" t="n">
-        <v>84.36495581672213</v>
+        <v>84.36495581672207</v>
       </c>
       <c r="P17" t="n">
-        <v>72.00353793733655</v>
+        <v>72.0035379373365</v>
       </c>
       <c r="Q17" t="n">
-        <v>54.07165833002531</v>
+        <v>54.07165833002527</v>
       </c>
       <c r="R17" t="n">
-        <v>31.45308013634247</v>
+        <v>31.45308013634245</v>
       </c>
       <c r="S17" t="n">
         <v>11.41005812360502</v>
       </c>
       <c r="T17" t="n">
-        <v>2.191882805752319</v>
+        <v>2.191882805752317</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04005725287497097</v>
+        <v>0.04005725287497094</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2679064972646203</v>
+        <v>0.2679064972646201</v>
       </c>
       <c r="H18" t="n">
-        <v>2.587412749897781</v>
+        <v>2.587412749897779</v>
       </c>
       <c r="I18" t="n">
-        <v>9.223973699681007</v>
+        <v>9.223973699681002</v>
       </c>
       <c r="J18" t="n">
-        <v>25.31128884902275</v>
+        <v>25.31128884902273</v>
       </c>
       <c r="K18" t="n">
-        <v>43.26102416575231</v>
+        <v>43.26102416575228</v>
       </c>
       <c r="L18" t="n">
-        <v>58.16978573282908</v>
+        <v>58.16978573282904</v>
       </c>
       <c r="M18" t="n">
-        <v>67.88139625867156</v>
+        <v>67.8813962586715</v>
       </c>
       <c r="N18" t="n">
-        <v>69.67801483024</v>
+        <v>69.67801483023996</v>
       </c>
       <c r="O18" t="n">
-        <v>63.74177086453447</v>
+        <v>63.74177086453442</v>
       </c>
       <c r="P18" t="n">
-        <v>51.15839069257474</v>
+        <v>51.15839069257471</v>
       </c>
       <c r="Q18" t="n">
-        <v>34.19802937012943</v>
+        <v>34.19802937012941</v>
       </c>
       <c r="R18" t="n">
-        <v>16.63370340034196</v>
+        <v>16.63370340034195</v>
       </c>
       <c r="S18" t="n">
-        <v>4.976245683840641</v>
+        <v>4.976245683840639</v>
       </c>
       <c r="T18" t="n">
         <v>1.079851188535903</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01762542745161976</v>
+        <v>0.01762542745161975</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2246038077441381</v>
+        <v>0.2246038077441379</v>
       </c>
       <c r="H19" t="n">
-        <v>1.996932036125157</v>
+        <v>1.996932036125155</v>
       </c>
       <c r="I19" t="n">
-        <v>6.754449054705537</v>
+        <v>6.754449054705532</v>
       </c>
       <c r="J19" t="n">
-        <v>15.87948920751056</v>
+        <v>15.87948920751055</v>
       </c>
       <c r="K19" t="n">
-        <v>26.09487875427349</v>
+        <v>26.09487875427347</v>
       </c>
       <c r="L19" t="n">
-        <v>33.39246065316032</v>
+        <v>33.39246065316029</v>
       </c>
       <c r="M19" t="n">
-        <v>35.20766779029248</v>
+        <v>35.20766779029245</v>
       </c>
       <c r="N19" t="n">
-        <v>34.37050814324618</v>
+        <v>34.37050814324615</v>
       </c>
       <c r="O19" t="n">
-        <v>31.74672729823509</v>
+        <v>31.74672729823507</v>
       </c>
       <c r="P19" t="n">
-        <v>27.16480962025465</v>
+        <v>27.16480962025464</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.80750611937506</v>
+        <v>18.80750611937504</v>
       </c>
       <c r="R19" t="n">
-        <v>10.09900393729552</v>
+        <v>10.09900393729551</v>
       </c>
       <c r="S19" t="n">
-        <v>3.914231813141023</v>
+        <v>3.914231813141021</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9596708149067716</v>
+        <v>0.959670814906771</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01225111678604391</v>
+        <v>0.0122511167860439</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5007156609371373</v>
+        <v>0.5007156609371367</v>
       </c>
       <c r="H20" t="n">
-        <v>5.127954262572458</v>
+        <v>5.127954262572453</v>
       </c>
       <c r="I20" t="n">
-        <v>19.303840518279</v>
+        <v>19.30384051827898</v>
       </c>
       <c r="J20" t="n">
-        <v>42.49761582746339</v>
+        <v>42.49761582746335</v>
       </c>
       <c r="K20" t="n">
-        <v>63.69290975493242</v>
+        <v>63.69290975493236</v>
       </c>
       <c r="L20" t="n">
-        <v>79.01668666333735</v>
+        <v>79.01668666333727</v>
       </c>
       <c r="M20" t="n">
-        <v>87.92128879852817</v>
+        <v>87.92128879852807</v>
       </c>
       <c r="N20" t="n">
-        <v>89.34394717016582</v>
+        <v>89.34394717016572</v>
       </c>
       <c r="O20" t="n">
-        <v>84.36495581672214</v>
+        <v>84.36495581672206</v>
       </c>
       <c r="P20" t="n">
-        <v>72.00353793733656</v>
+        <v>72.00353793733649</v>
       </c>
       <c r="Q20" t="n">
-        <v>54.07165833002531</v>
+        <v>54.07165833002527</v>
       </c>
       <c r="R20" t="n">
-        <v>31.45308013634248</v>
+        <v>31.45308013634244</v>
       </c>
       <c r="S20" t="n">
-        <v>11.41005812360503</v>
+        <v>11.41005812360502</v>
       </c>
       <c r="T20" t="n">
-        <v>2.19188280575232</v>
+        <v>2.191882805752317</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04005725287497097</v>
+        <v>0.04005725287497093</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2679064972646204</v>
+        <v>0.2679064972646201</v>
       </c>
       <c r="H21" t="n">
-        <v>2.587412749897782</v>
+        <v>2.587412749897779</v>
       </c>
       <c r="I21" t="n">
-        <v>9.223973699681011</v>
+        <v>9.223973699681</v>
       </c>
       <c r="J21" t="n">
-        <v>25.31128884902276</v>
+        <v>25.31128884902273</v>
       </c>
       <c r="K21" t="n">
-        <v>43.26102416575232</v>
+        <v>43.26102416575227</v>
       </c>
       <c r="L21" t="n">
-        <v>58.1697857328291</v>
+        <v>58.16978573282903</v>
       </c>
       <c r="M21" t="n">
-        <v>67.88139625867157</v>
+        <v>67.8813962586715</v>
       </c>
       <c r="N21" t="n">
-        <v>69.67801483024002</v>
+        <v>69.67801483023995</v>
       </c>
       <c r="O21" t="n">
-        <v>63.74177086453448</v>
+        <v>63.74177086453442</v>
       </c>
       <c r="P21" t="n">
-        <v>51.15839069257476</v>
+        <v>51.1583906925747</v>
       </c>
       <c r="Q21" t="n">
-        <v>34.19802937012944</v>
+        <v>34.1980293701294</v>
       </c>
       <c r="R21" t="n">
-        <v>16.63370340034196</v>
+        <v>16.63370340034195</v>
       </c>
       <c r="S21" t="n">
-        <v>4.976245683840643</v>
+        <v>4.976245683840638</v>
       </c>
       <c r="T21" t="n">
-        <v>1.079851188535904</v>
+        <v>1.079851188535903</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01762542745161977</v>
+        <v>0.01762542745161975</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2246038077441381</v>
+        <v>0.2246038077441379</v>
       </c>
       <c r="H22" t="n">
-        <v>1.996932036125157</v>
+        <v>1.996932036125155</v>
       </c>
       <c r="I22" t="n">
-        <v>6.754449054705538</v>
+        <v>6.754449054705532</v>
       </c>
       <c r="J22" t="n">
-        <v>15.87948920751057</v>
+        <v>15.87948920751055</v>
       </c>
       <c r="K22" t="n">
-        <v>26.0948787542735</v>
+        <v>26.09487875427347</v>
       </c>
       <c r="L22" t="n">
-        <v>33.39246065316033</v>
+        <v>33.39246065316029</v>
       </c>
       <c r="M22" t="n">
-        <v>35.20766779029249</v>
+        <v>35.20766779029245</v>
       </c>
       <c r="N22" t="n">
-        <v>34.37050814324618</v>
+        <v>34.37050814324615</v>
       </c>
       <c r="O22" t="n">
-        <v>31.7467272982351</v>
+        <v>31.74672729823507</v>
       </c>
       <c r="P22" t="n">
-        <v>27.16480962025466</v>
+        <v>27.16480962025463</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.80750611937506</v>
+        <v>18.80750611937504</v>
       </c>
       <c r="R22" t="n">
-        <v>10.09900393729552</v>
+        <v>10.09900393729551</v>
       </c>
       <c r="S22" t="n">
-        <v>3.914231813141024</v>
+        <v>3.91423181314102</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9596708149067719</v>
+        <v>0.9596708149067709</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01225111678604391</v>
+        <v>0.0122511167860439</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5007156609371372</v>
+        <v>0.5007156609371368</v>
       </c>
       <c r="H23" t="n">
-        <v>5.127954262572457</v>
+        <v>5.127954262572453</v>
       </c>
       <c r="I23" t="n">
-        <v>19.303840518279</v>
+        <v>19.30384051827899</v>
       </c>
       <c r="J23" t="n">
-        <v>42.49761582746338</v>
+        <v>42.49761582746335</v>
       </c>
       <c r="K23" t="n">
-        <v>63.69290975493241</v>
+        <v>63.69290975493237</v>
       </c>
       <c r="L23" t="n">
-        <v>79.01668666333734</v>
+        <v>79.01668666333728</v>
       </c>
       <c r="M23" t="n">
-        <v>87.92128879852814</v>
+        <v>87.92128879852808</v>
       </c>
       <c r="N23" t="n">
-        <v>89.34394717016579</v>
+        <v>89.34394717016573</v>
       </c>
       <c r="O23" t="n">
-        <v>84.36495581672213</v>
+        <v>84.36495581672207</v>
       </c>
       <c r="P23" t="n">
-        <v>72.00353793733655</v>
+        <v>72.0035379373365</v>
       </c>
       <c r="Q23" t="n">
-        <v>54.07165833002531</v>
+        <v>54.07165833002527</v>
       </c>
       <c r="R23" t="n">
-        <v>31.45308013634247</v>
+        <v>31.45308013634245</v>
       </c>
       <c r="S23" t="n">
         <v>11.41005812360502</v>
       </c>
       <c r="T23" t="n">
-        <v>2.191882805752319</v>
+        <v>2.191882805752317</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04005725287497097</v>
+        <v>0.04005725287497094</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2679064972646203</v>
+        <v>0.2679064972646201</v>
       </c>
       <c r="H24" t="n">
-        <v>2.587412749897781</v>
+        <v>2.587412749897779</v>
       </c>
       <c r="I24" t="n">
-        <v>9.223973699681007</v>
+        <v>9.223973699681002</v>
       </c>
       <c r="J24" t="n">
-        <v>25.31128884902275</v>
+        <v>25.31128884902273</v>
       </c>
       <c r="K24" t="n">
-        <v>43.26102416575231</v>
+        <v>43.26102416575228</v>
       </c>
       <c r="L24" t="n">
-        <v>58.16978573282908</v>
+        <v>58.16978573282904</v>
       </c>
       <c r="M24" t="n">
-        <v>67.88139625867156</v>
+        <v>67.8813962586715</v>
       </c>
       <c r="N24" t="n">
-        <v>69.67801483024</v>
+        <v>69.67801483023996</v>
       </c>
       <c r="O24" t="n">
-        <v>63.74177086453447</v>
+        <v>63.74177086453442</v>
       </c>
       <c r="P24" t="n">
-        <v>51.15839069257474</v>
+        <v>51.15839069257471</v>
       </c>
       <c r="Q24" t="n">
-        <v>34.19802937012943</v>
+        <v>34.19802937012941</v>
       </c>
       <c r="R24" t="n">
-        <v>16.63370340034196</v>
+        <v>16.63370340034195</v>
       </c>
       <c r="S24" t="n">
-        <v>4.976245683840641</v>
+        <v>4.976245683840639</v>
       </c>
       <c r="T24" t="n">
         <v>1.079851188535903</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01762542745161976</v>
+        <v>0.01762542745161975</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2246038077441381</v>
+        <v>0.2246038077441379</v>
       </c>
       <c r="H25" t="n">
-        <v>1.996932036125157</v>
+        <v>1.996932036125155</v>
       </c>
       <c r="I25" t="n">
-        <v>6.754449054705537</v>
+        <v>6.754449054705532</v>
       </c>
       <c r="J25" t="n">
-        <v>15.87948920751056</v>
+        <v>15.87948920751055</v>
       </c>
       <c r="K25" t="n">
-        <v>26.09487875427349</v>
+        <v>26.09487875427347</v>
       </c>
       <c r="L25" t="n">
-        <v>33.39246065316032</v>
+        <v>33.39246065316029</v>
       </c>
       <c r="M25" t="n">
-        <v>35.20766779029248</v>
+        <v>35.20766779029245</v>
       </c>
       <c r="N25" t="n">
-        <v>34.37050814324618</v>
+        <v>34.37050814324615</v>
       </c>
       <c r="O25" t="n">
-        <v>31.74672729823509</v>
+        <v>31.74672729823507</v>
       </c>
       <c r="P25" t="n">
-        <v>27.16480962025465</v>
+        <v>27.16480962025464</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.80750611937506</v>
+        <v>18.80750611937504</v>
       </c>
       <c r="R25" t="n">
-        <v>10.09900393729552</v>
+        <v>10.09900393729551</v>
       </c>
       <c r="S25" t="n">
-        <v>3.914231813141023</v>
+        <v>3.914231813141021</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9596708149067716</v>
+        <v>0.959670814906771</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01225111678604391</v>
+        <v>0.0122511167860439</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5007156609371372</v>
+        <v>0.5007156609371368</v>
       </c>
       <c r="H26" t="n">
-        <v>5.127954262572457</v>
+        <v>5.127954262572453</v>
       </c>
       <c r="I26" t="n">
-        <v>19.303840518279</v>
+        <v>19.30384051827899</v>
       </c>
       <c r="J26" t="n">
-        <v>42.49761582746338</v>
+        <v>42.49761582746335</v>
       </c>
       <c r="K26" t="n">
-        <v>63.69290975493241</v>
+        <v>63.69290975493237</v>
       </c>
       <c r="L26" t="n">
-        <v>79.01668666333734</v>
+        <v>79.01668666333728</v>
       </c>
       <c r="M26" t="n">
-        <v>87.92128879852814</v>
+        <v>87.92128879852808</v>
       </c>
       <c r="N26" t="n">
-        <v>89.34394717016579</v>
+        <v>89.34394717016573</v>
       </c>
       <c r="O26" t="n">
-        <v>84.36495581672213</v>
+        <v>84.36495581672207</v>
       </c>
       <c r="P26" t="n">
-        <v>72.00353793733655</v>
+        <v>72.0035379373365</v>
       </c>
       <c r="Q26" t="n">
-        <v>54.07165833002531</v>
+        <v>54.07165833002527</v>
       </c>
       <c r="R26" t="n">
-        <v>31.45308013634247</v>
+        <v>31.45308013634245</v>
       </c>
       <c r="S26" t="n">
         <v>11.41005812360502</v>
       </c>
       <c r="T26" t="n">
-        <v>2.191882805752319</v>
+        <v>2.191882805752317</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04005725287497097</v>
+        <v>0.04005725287497094</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2679064972646203</v>
+        <v>0.2679064972646201</v>
       </c>
       <c r="H27" t="n">
-        <v>2.587412749897781</v>
+        <v>2.587412749897779</v>
       </c>
       <c r="I27" t="n">
-        <v>9.223973699681007</v>
+        <v>9.223973699681002</v>
       </c>
       <c r="J27" t="n">
-        <v>25.31128884902275</v>
+        <v>25.31128884902273</v>
       </c>
       <c r="K27" t="n">
-        <v>43.26102416575231</v>
+        <v>43.26102416575228</v>
       </c>
       <c r="L27" t="n">
-        <v>58.16978573282908</v>
+        <v>58.16978573282904</v>
       </c>
       <c r="M27" t="n">
-        <v>67.88139625867156</v>
+        <v>67.8813962586715</v>
       </c>
       <c r="N27" t="n">
-        <v>69.67801483024</v>
+        <v>69.67801483023996</v>
       </c>
       <c r="O27" t="n">
-        <v>63.74177086453447</v>
+        <v>63.74177086453442</v>
       </c>
       <c r="P27" t="n">
-        <v>51.15839069257474</v>
+        <v>51.15839069257471</v>
       </c>
       <c r="Q27" t="n">
-        <v>34.19802937012943</v>
+        <v>34.19802937012941</v>
       </c>
       <c r="R27" t="n">
-        <v>16.63370340034196</v>
+        <v>16.63370340034195</v>
       </c>
       <c r="S27" t="n">
-        <v>4.976245683840641</v>
+        <v>4.976245683840639</v>
       </c>
       <c r="T27" t="n">
         <v>1.079851188535903</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01762542745161976</v>
+        <v>0.01762542745161975</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2246038077441381</v>
+        <v>0.2246038077441379</v>
       </c>
       <c r="H28" t="n">
-        <v>1.996932036125157</v>
+        <v>1.996932036125155</v>
       </c>
       <c r="I28" t="n">
-        <v>6.754449054705537</v>
+        <v>6.754449054705532</v>
       </c>
       <c r="J28" t="n">
-        <v>15.87948920751056</v>
+        <v>15.87948920751055</v>
       </c>
       <c r="K28" t="n">
-        <v>26.09487875427349</v>
+        <v>26.09487875427347</v>
       </c>
       <c r="L28" t="n">
-        <v>33.39246065316032</v>
+        <v>33.39246065316029</v>
       </c>
       <c r="M28" t="n">
-        <v>35.20766779029248</v>
+        <v>35.20766779029245</v>
       </c>
       <c r="N28" t="n">
-        <v>34.37050814324618</v>
+        <v>34.37050814324615</v>
       </c>
       <c r="O28" t="n">
-        <v>31.74672729823509</v>
+        <v>31.74672729823507</v>
       </c>
       <c r="P28" t="n">
-        <v>27.16480962025465</v>
+        <v>27.16480962025464</v>
       </c>
       <c r="Q28" t="n">
-        <v>18.80750611937506</v>
+        <v>18.80750611937504</v>
       </c>
       <c r="R28" t="n">
-        <v>10.09900393729552</v>
+        <v>10.09900393729551</v>
       </c>
       <c r="S28" t="n">
-        <v>3.914231813141023</v>
+        <v>3.914231813141021</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9596708149067716</v>
+        <v>0.959670814906771</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01225111678604391</v>
+        <v>0.0122511167860439</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5007156609371372</v>
+        <v>0.5007156609371368</v>
       </c>
       <c r="H29" t="n">
-        <v>5.127954262572457</v>
+        <v>5.127954262572453</v>
       </c>
       <c r="I29" t="n">
-        <v>19.303840518279</v>
+        <v>19.30384051827899</v>
       </c>
       <c r="J29" t="n">
-        <v>42.49761582746338</v>
+        <v>42.49761582746335</v>
       </c>
       <c r="K29" t="n">
-        <v>63.69290975493241</v>
+        <v>63.69290975493237</v>
       </c>
       <c r="L29" t="n">
-        <v>79.01668666333734</v>
+        <v>79.01668666333728</v>
       </c>
       <c r="M29" t="n">
-        <v>87.92128879852814</v>
+        <v>87.92128879852808</v>
       </c>
       <c r="N29" t="n">
-        <v>89.34394717016579</v>
+        <v>89.34394717016573</v>
       </c>
       <c r="O29" t="n">
-        <v>84.36495581672213</v>
+        <v>84.36495581672207</v>
       </c>
       <c r="P29" t="n">
-        <v>72.00353793733655</v>
+        <v>72.0035379373365</v>
       </c>
       <c r="Q29" t="n">
-        <v>54.07165833002531</v>
+        <v>54.07165833002527</v>
       </c>
       <c r="R29" t="n">
-        <v>31.45308013634247</v>
+        <v>31.45308013634245</v>
       </c>
       <c r="S29" t="n">
         <v>11.41005812360502</v>
       </c>
       <c r="T29" t="n">
-        <v>2.191882805752319</v>
+        <v>2.191882805752317</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04005725287497097</v>
+        <v>0.04005725287497094</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2679064972646203</v>
+        <v>0.2679064972646201</v>
       </c>
       <c r="H30" t="n">
-        <v>2.587412749897781</v>
+        <v>2.587412749897779</v>
       </c>
       <c r="I30" t="n">
-        <v>9.223973699681007</v>
+        <v>9.223973699681002</v>
       </c>
       <c r="J30" t="n">
-        <v>25.31128884902275</v>
+        <v>25.31128884902273</v>
       </c>
       <c r="K30" t="n">
-        <v>43.26102416575231</v>
+        <v>43.26102416575228</v>
       </c>
       <c r="L30" t="n">
-        <v>58.16978573282908</v>
+        <v>58.16978573282904</v>
       </c>
       <c r="M30" t="n">
-        <v>67.88139625867156</v>
+        <v>67.8813962586715</v>
       </c>
       <c r="N30" t="n">
-        <v>69.67801483024</v>
+        <v>69.67801483023996</v>
       </c>
       <c r="O30" t="n">
-        <v>63.74177086453447</v>
+        <v>63.74177086453442</v>
       </c>
       <c r="P30" t="n">
-        <v>51.15839069257474</v>
+        <v>51.15839069257471</v>
       </c>
       <c r="Q30" t="n">
-        <v>34.19802937012943</v>
+        <v>34.19802937012941</v>
       </c>
       <c r="R30" t="n">
-        <v>16.63370340034196</v>
+        <v>16.63370340034195</v>
       </c>
       <c r="S30" t="n">
-        <v>4.976245683840641</v>
+        <v>4.976245683840639</v>
       </c>
       <c r="T30" t="n">
         <v>1.079851188535903</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01762542745161976</v>
+        <v>0.01762542745161975</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2246038077441381</v>
+        <v>0.2246038077441379</v>
       </c>
       <c r="H31" t="n">
-        <v>1.996932036125157</v>
+        <v>1.996932036125155</v>
       </c>
       <c r="I31" t="n">
-        <v>6.754449054705537</v>
+        <v>6.754449054705532</v>
       </c>
       <c r="J31" t="n">
-        <v>15.87948920751056</v>
+        <v>15.87948920751055</v>
       </c>
       <c r="K31" t="n">
-        <v>26.09487875427349</v>
+        <v>26.09487875427347</v>
       </c>
       <c r="L31" t="n">
-        <v>33.39246065316032</v>
+        <v>33.39246065316029</v>
       </c>
       <c r="M31" t="n">
-        <v>35.20766779029248</v>
+        <v>35.20766779029245</v>
       </c>
       <c r="N31" t="n">
-        <v>34.37050814324618</v>
+        <v>34.37050814324615</v>
       </c>
       <c r="O31" t="n">
-        <v>31.74672729823509</v>
+        <v>31.74672729823507</v>
       </c>
       <c r="P31" t="n">
-        <v>27.16480962025465</v>
+        <v>27.16480962025464</v>
       </c>
       <c r="Q31" t="n">
-        <v>18.80750611937506</v>
+        <v>18.80750611937504</v>
       </c>
       <c r="R31" t="n">
-        <v>10.09900393729552</v>
+        <v>10.09900393729551</v>
       </c>
       <c r="S31" t="n">
-        <v>3.914231813141023</v>
+        <v>3.914231813141021</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9596708149067716</v>
+        <v>0.959670814906771</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01225111678604391</v>
+        <v>0.0122511167860439</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5007156609371372</v>
+        <v>0.5007156609371368</v>
       </c>
       <c r="H32" t="n">
-        <v>5.127954262572457</v>
+        <v>5.127954262572453</v>
       </c>
       <c r="I32" t="n">
-        <v>19.303840518279</v>
+        <v>19.30384051827899</v>
       </c>
       <c r="J32" t="n">
-        <v>42.49761582746338</v>
+        <v>42.49761582746335</v>
       </c>
       <c r="K32" t="n">
-        <v>63.69290975493241</v>
+        <v>63.69290975493237</v>
       </c>
       <c r="L32" t="n">
-        <v>79.01668666333734</v>
+        <v>79.01668666333728</v>
       </c>
       <c r="M32" t="n">
-        <v>87.92128879852814</v>
+        <v>87.92128879852808</v>
       </c>
       <c r="N32" t="n">
-        <v>89.34394717016579</v>
+        <v>89.34394717016573</v>
       </c>
       <c r="O32" t="n">
-        <v>84.36495581672213</v>
+        <v>84.36495581672207</v>
       </c>
       <c r="P32" t="n">
-        <v>72.00353793733655</v>
+        <v>72.0035379373365</v>
       </c>
       <c r="Q32" t="n">
-        <v>54.07165833002531</v>
+        <v>54.07165833002527</v>
       </c>
       <c r="R32" t="n">
-        <v>31.45308013634247</v>
+        <v>31.45308013634245</v>
       </c>
       <c r="S32" t="n">
         <v>11.41005812360502</v>
       </c>
       <c r="T32" t="n">
-        <v>2.191882805752319</v>
+        <v>2.191882805752317</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04005725287497097</v>
+        <v>0.04005725287497094</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2679064972646203</v>
+        <v>0.2679064972646201</v>
       </c>
       <c r="H33" t="n">
-        <v>2.587412749897781</v>
+        <v>2.587412749897779</v>
       </c>
       <c r="I33" t="n">
-        <v>9.223973699681007</v>
+        <v>9.223973699681002</v>
       </c>
       <c r="J33" t="n">
-        <v>25.31128884902275</v>
+        <v>25.31128884902273</v>
       </c>
       <c r="K33" t="n">
-        <v>43.26102416575231</v>
+        <v>43.26102416575228</v>
       </c>
       <c r="L33" t="n">
-        <v>58.16978573282908</v>
+        <v>58.16978573282904</v>
       </c>
       <c r="M33" t="n">
-        <v>67.88139625867156</v>
+        <v>67.8813962586715</v>
       </c>
       <c r="N33" t="n">
-        <v>69.67801483024</v>
+        <v>69.67801483023996</v>
       </c>
       <c r="O33" t="n">
-        <v>63.74177086453447</v>
+        <v>63.74177086453442</v>
       </c>
       <c r="P33" t="n">
-        <v>51.15839069257474</v>
+        <v>51.15839069257471</v>
       </c>
       <c r="Q33" t="n">
-        <v>34.19802937012943</v>
+        <v>34.19802937012941</v>
       </c>
       <c r="R33" t="n">
-        <v>16.63370340034196</v>
+        <v>16.63370340034195</v>
       </c>
       <c r="S33" t="n">
-        <v>4.976245683840641</v>
+        <v>4.976245683840639</v>
       </c>
       <c r="T33" t="n">
         <v>1.079851188535903</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01762542745161976</v>
+        <v>0.01762542745161975</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2246038077441381</v>
+        <v>0.2246038077441379</v>
       </c>
       <c r="H34" t="n">
-        <v>1.996932036125157</v>
+        <v>1.996932036125155</v>
       </c>
       <c r="I34" t="n">
-        <v>6.754449054705537</v>
+        <v>6.754449054705532</v>
       </c>
       <c r="J34" t="n">
-        <v>15.87948920751056</v>
+        <v>15.87948920751055</v>
       </c>
       <c r="K34" t="n">
-        <v>26.09487875427349</v>
+        <v>26.09487875427347</v>
       </c>
       <c r="L34" t="n">
-        <v>33.39246065316032</v>
+        <v>33.39246065316029</v>
       </c>
       <c r="M34" t="n">
-        <v>35.20766779029248</v>
+        <v>35.20766779029245</v>
       </c>
       <c r="N34" t="n">
-        <v>34.37050814324618</v>
+        <v>34.37050814324615</v>
       </c>
       <c r="O34" t="n">
-        <v>31.74672729823509</v>
+        <v>31.74672729823507</v>
       </c>
       <c r="P34" t="n">
-        <v>27.16480962025465</v>
+        <v>27.16480962025464</v>
       </c>
       <c r="Q34" t="n">
-        <v>18.80750611937506</v>
+        <v>18.80750611937504</v>
       </c>
       <c r="R34" t="n">
-        <v>10.09900393729552</v>
+        <v>10.09900393729551</v>
       </c>
       <c r="S34" t="n">
-        <v>3.914231813141023</v>
+        <v>3.914231813141021</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9596708149067716</v>
+        <v>0.959670814906771</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01225111678604391</v>
+        <v>0.0122511167860439</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5007156609371372</v>
+        <v>0.5007156609371368</v>
       </c>
       <c r="H35" t="n">
-        <v>5.127954262572457</v>
+        <v>5.127954262572453</v>
       </c>
       <c r="I35" t="n">
-        <v>19.303840518279</v>
+        <v>19.30384051827899</v>
       </c>
       <c r="J35" t="n">
-        <v>42.49761582746338</v>
+        <v>42.49761582746335</v>
       </c>
       <c r="K35" t="n">
-        <v>63.69290975493241</v>
+        <v>63.69290975493237</v>
       </c>
       <c r="L35" t="n">
-        <v>79.01668666333734</v>
+        <v>79.01668666333728</v>
       </c>
       <c r="M35" t="n">
-        <v>87.92128879852814</v>
+        <v>87.92128879852808</v>
       </c>
       <c r="N35" t="n">
-        <v>89.34394717016579</v>
+        <v>89.34394717016573</v>
       </c>
       <c r="O35" t="n">
-        <v>84.36495581672213</v>
+        <v>84.36495581672207</v>
       </c>
       <c r="P35" t="n">
-        <v>72.00353793733655</v>
+        <v>72.0035379373365</v>
       </c>
       <c r="Q35" t="n">
-        <v>54.07165833002531</v>
+        <v>54.07165833002527</v>
       </c>
       <c r="R35" t="n">
-        <v>31.45308013634247</v>
+        <v>31.45308013634245</v>
       </c>
       <c r="S35" t="n">
         <v>11.41005812360502</v>
       </c>
       <c r="T35" t="n">
-        <v>2.191882805752319</v>
+        <v>2.191882805752317</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04005725287497097</v>
+        <v>0.04005725287497094</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2679064972646203</v>
+        <v>0.2679064972646201</v>
       </c>
       <c r="H36" t="n">
-        <v>2.587412749897781</v>
+        <v>2.587412749897779</v>
       </c>
       <c r="I36" t="n">
-        <v>9.223973699681007</v>
+        <v>9.223973699681002</v>
       </c>
       <c r="J36" t="n">
-        <v>25.31128884902275</v>
+        <v>25.31128884902273</v>
       </c>
       <c r="K36" t="n">
-        <v>43.26102416575231</v>
+        <v>43.26102416575228</v>
       </c>
       <c r="L36" t="n">
-        <v>58.16978573282908</v>
+        <v>58.16978573282904</v>
       </c>
       <c r="M36" t="n">
-        <v>67.88139625867156</v>
+        <v>67.8813962586715</v>
       </c>
       <c r="N36" t="n">
-        <v>69.67801483024</v>
+        <v>69.67801483023996</v>
       </c>
       <c r="O36" t="n">
-        <v>63.74177086453447</v>
+        <v>63.74177086453442</v>
       </c>
       <c r="P36" t="n">
-        <v>51.15839069257474</v>
+        <v>51.15839069257471</v>
       </c>
       <c r="Q36" t="n">
-        <v>34.19802937012943</v>
+        <v>34.19802937012941</v>
       </c>
       <c r="R36" t="n">
-        <v>16.63370340034196</v>
+        <v>16.63370340034195</v>
       </c>
       <c r="S36" t="n">
-        <v>4.976245683840641</v>
+        <v>4.976245683840639</v>
       </c>
       <c r="T36" t="n">
         <v>1.079851188535903</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01762542745161976</v>
+        <v>0.01762542745161975</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2246038077441381</v>
+        <v>0.2246038077441379</v>
       </c>
       <c r="H37" t="n">
-        <v>1.996932036125157</v>
+        <v>1.996932036125155</v>
       </c>
       <c r="I37" t="n">
-        <v>6.754449054705537</v>
+        <v>6.754449054705532</v>
       </c>
       <c r="J37" t="n">
-        <v>15.87948920751056</v>
+        <v>15.87948920751055</v>
       </c>
       <c r="K37" t="n">
-        <v>26.09487875427349</v>
+        <v>26.09487875427347</v>
       </c>
       <c r="L37" t="n">
-        <v>33.39246065316032</v>
+        <v>33.39246065316029</v>
       </c>
       <c r="M37" t="n">
-        <v>35.20766779029248</v>
+        <v>35.20766779029245</v>
       </c>
       <c r="N37" t="n">
-        <v>34.37050814324618</v>
+        <v>34.37050814324615</v>
       </c>
       <c r="O37" t="n">
-        <v>31.74672729823509</v>
+        <v>31.74672729823507</v>
       </c>
       <c r="P37" t="n">
-        <v>27.16480962025465</v>
+        <v>27.16480962025464</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.80750611937506</v>
+        <v>18.80750611937504</v>
       </c>
       <c r="R37" t="n">
-        <v>10.09900393729552</v>
+        <v>10.09900393729551</v>
       </c>
       <c r="S37" t="n">
-        <v>3.914231813141023</v>
+        <v>3.914231813141021</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9596708149067716</v>
+        <v>0.959670814906771</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01225111678604391</v>
+        <v>0.0122511167860439</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5007156609371372</v>
+        <v>0.5007156609371368</v>
       </c>
       <c r="H38" t="n">
-        <v>5.127954262572457</v>
+        <v>5.127954262572453</v>
       </c>
       <c r="I38" t="n">
-        <v>19.303840518279</v>
+        <v>19.30384051827899</v>
       </c>
       <c r="J38" t="n">
-        <v>42.49761582746338</v>
+        <v>42.49761582746335</v>
       </c>
       <c r="K38" t="n">
-        <v>63.69290975493241</v>
+        <v>63.69290975493237</v>
       </c>
       <c r="L38" t="n">
-        <v>79.01668666333734</v>
+        <v>79.01668666333728</v>
       </c>
       <c r="M38" t="n">
-        <v>87.92128879852814</v>
+        <v>87.92128879852808</v>
       </c>
       <c r="N38" t="n">
-        <v>89.34394717016579</v>
+        <v>89.34394717016573</v>
       </c>
       <c r="O38" t="n">
-        <v>84.36495581672213</v>
+        <v>84.36495581672207</v>
       </c>
       <c r="P38" t="n">
-        <v>72.00353793733655</v>
+        <v>72.0035379373365</v>
       </c>
       <c r="Q38" t="n">
-        <v>54.07165833002531</v>
+        <v>54.07165833002527</v>
       </c>
       <c r="R38" t="n">
-        <v>31.45308013634247</v>
+        <v>31.45308013634245</v>
       </c>
       <c r="S38" t="n">
         <v>11.41005812360502</v>
       </c>
       <c r="T38" t="n">
-        <v>2.191882805752319</v>
+        <v>2.191882805752317</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04005725287497097</v>
+        <v>0.04005725287497094</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2679064972646203</v>
+        <v>0.2679064972646201</v>
       </c>
       <c r="H39" t="n">
-        <v>2.587412749897781</v>
+        <v>2.587412749897779</v>
       </c>
       <c r="I39" t="n">
-        <v>9.223973699681007</v>
+        <v>9.223973699681002</v>
       </c>
       <c r="J39" t="n">
-        <v>25.31128884902275</v>
+        <v>25.31128884902273</v>
       </c>
       <c r="K39" t="n">
-        <v>43.26102416575231</v>
+        <v>43.26102416575228</v>
       </c>
       <c r="L39" t="n">
-        <v>58.16978573282908</v>
+        <v>58.16978573282904</v>
       </c>
       <c r="M39" t="n">
-        <v>67.88139625867156</v>
+        <v>67.8813962586715</v>
       </c>
       <c r="N39" t="n">
-        <v>69.67801483024</v>
+        <v>69.67801483023996</v>
       </c>
       <c r="O39" t="n">
-        <v>63.74177086453447</v>
+        <v>63.74177086453442</v>
       </c>
       <c r="P39" t="n">
-        <v>51.15839069257474</v>
+        <v>51.15839069257471</v>
       </c>
       <c r="Q39" t="n">
-        <v>34.19802937012943</v>
+        <v>34.19802937012941</v>
       </c>
       <c r="R39" t="n">
-        <v>16.63370340034196</v>
+        <v>16.63370340034195</v>
       </c>
       <c r="S39" t="n">
-        <v>4.976245683840641</v>
+        <v>4.976245683840639</v>
       </c>
       <c r="T39" t="n">
         <v>1.079851188535903</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01762542745161976</v>
+        <v>0.01762542745161975</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2246038077441381</v>
+        <v>0.2246038077441379</v>
       </c>
       <c r="H40" t="n">
-        <v>1.996932036125157</v>
+        <v>1.996932036125155</v>
       </c>
       <c r="I40" t="n">
-        <v>6.754449054705537</v>
+        <v>6.754449054705532</v>
       </c>
       <c r="J40" t="n">
-        <v>15.87948920751056</v>
+        <v>15.87948920751055</v>
       </c>
       <c r="K40" t="n">
-        <v>26.09487875427349</v>
+        <v>26.09487875427347</v>
       </c>
       <c r="L40" t="n">
-        <v>33.39246065316032</v>
+        <v>33.39246065316029</v>
       </c>
       <c r="M40" t="n">
-        <v>35.20766779029248</v>
+        <v>35.20766779029245</v>
       </c>
       <c r="N40" t="n">
-        <v>34.37050814324618</v>
+        <v>34.37050814324615</v>
       </c>
       <c r="O40" t="n">
-        <v>31.74672729823509</v>
+        <v>31.74672729823507</v>
       </c>
       <c r="P40" t="n">
-        <v>27.16480962025465</v>
+        <v>27.16480962025464</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.80750611937506</v>
+        <v>18.80750611937504</v>
       </c>
       <c r="R40" t="n">
-        <v>10.09900393729552</v>
+        <v>10.09900393729551</v>
       </c>
       <c r="S40" t="n">
-        <v>3.914231813141023</v>
+        <v>3.914231813141021</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9596708149067716</v>
+        <v>0.959670814906771</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01225111678604391</v>
+        <v>0.0122511167860439</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5007156609371372</v>
+        <v>0.5007156609371368</v>
       </c>
       <c r="H41" t="n">
-        <v>5.127954262572457</v>
+        <v>5.127954262572453</v>
       </c>
       <c r="I41" t="n">
-        <v>19.303840518279</v>
+        <v>19.30384051827899</v>
       </c>
       <c r="J41" t="n">
-        <v>42.49761582746338</v>
+        <v>42.49761582746335</v>
       </c>
       <c r="K41" t="n">
-        <v>63.69290975493241</v>
+        <v>63.69290975493237</v>
       </c>
       <c r="L41" t="n">
-        <v>79.01668666333734</v>
+        <v>79.01668666333728</v>
       </c>
       <c r="M41" t="n">
-        <v>87.92128879852814</v>
+        <v>87.92128879852808</v>
       </c>
       <c r="N41" t="n">
-        <v>89.34394717016579</v>
+        <v>89.34394717016573</v>
       </c>
       <c r="O41" t="n">
-        <v>84.36495581672213</v>
+        <v>84.36495581672207</v>
       </c>
       <c r="P41" t="n">
-        <v>72.00353793733655</v>
+        <v>72.0035379373365</v>
       </c>
       <c r="Q41" t="n">
-        <v>54.07165833002531</v>
+        <v>54.07165833002527</v>
       </c>
       <c r="R41" t="n">
-        <v>31.45308013634247</v>
+        <v>31.45308013634245</v>
       </c>
       <c r="S41" t="n">
         <v>11.41005812360502</v>
       </c>
       <c r="T41" t="n">
-        <v>2.191882805752319</v>
+        <v>2.191882805752317</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04005725287497097</v>
+        <v>0.04005725287497094</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2679064972646203</v>
+        <v>0.2679064972646201</v>
       </c>
       <c r="H42" t="n">
-        <v>2.587412749897781</v>
+        <v>2.587412749897779</v>
       </c>
       <c r="I42" t="n">
-        <v>9.223973699681007</v>
+        <v>9.223973699681002</v>
       </c>
       <c r="J42" t="n">
-        <v>25.31128884902275</v>
+        <v>25.31128884902273</v>
       </c>
       <c r="K42" t="n">
-        <v>43.26102416575231</v>
+        <v>43.26102416575228</v>
       </c>
       <c r="L42" t="n">
-        <v>58.16978573282908</v>
+        <v>58.16978573282904</v>
       </c>
       <c r="M42" t="n">
-        <v>67.88139625867156</v>
+        <v>67.8813962586715</v>
       </c>
       <c r="N42" t="n">
-        <v>69.67801483024</v>
+        <v>69.67801483023996</v>
       </c>
       <c r="O42" t="n">
-        <v>63.74177086453447</v>
+        <v>63.74177086453442</v>
       </c>
       <c r="P42" t="n">
-        <v>51.15839069257474</v>
+        <v>51.15839069257471</v>
       </c>
       <c r="Q42" t="n">
-        <v>34.19802937012943</v>
+        <v>34.19802937012941</v>
       </c>
       <c r="R42" t="n">
-        <v>16.63370340034196</v>
+        <v>16.63370340034195</v>
       </c>
       <c r="S42" t="n">
-        <v>4.976245683840641</v>
+        <v>4.976245683840639</v>
       </c>
       <c r="T42" t="n">
         <v>1.079851188535903</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01762542745161976</v>
+        <v>0.01762542745161975</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2246038077441381</v>
+        <v>0.2246038077441379</v>
       </c>
       <c r="H43" t="n">
-        <v>1.996932036125157</v>
+        <v>1.996932036125155</v>
       </c>
       <c r="I43" t="n">
-        <v>6.754449054705537</v>
+        <v>6.754449054705532</v>
       </c>
       <c r="J43" t="n">
-        <v>15.87948920751056</v>
+        <v>15.87948920751055</v>
       </c>
       <c r="K43" t="n">
-        <v>26.09487875427349</v>
+        <v>26.09487875427347</v>
       </c>
       <c r="L43" t="n">
-        <v>33.39246065316032</v>
+        <v>33.39246065316029</v>
       </c>
       <c r="M43" t="n">
-        <v>35.20766779029248</v>
+        <v>35.20766779029245</v>
       </c>
       <c r="N43" t="n">
-        <v>34.37050814324618</v>
+        <v>34.37050814324615</v>
       </c>
       <c r="O43" t="n">
-        <v>31.74672729823509</v>
+        <v>31.74672729823507</v>
       </c>
       <c r="P43" t="n">
-        <v>27.16480962025465</v>
+        <v>27.16480962025464</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.80750611937506</v>
+        <v>18.80750611937504</v>
       </c>
       <c r="R43" t="n">
-        <v>10.09900393729552</v>
+        <v>10.09900393729551</v>
       </c>
       <c r="S43" t="n">
-        <v>3.914231813141023</v>
+        <v>3.914231813141021</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9596708149067716</v>
+        <v>0.959670814906771</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01225111678604391</v>
+        <v>0.0122511167860439</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5007156609371372</v>
+        <v>0.5007156609371368</v>
       </c>
       <c r="H44" t="n">
-        <v>5.127954262572457</v>
+        <v>5.127954262572453</v>
       </c>
       <c r="I44" t="n">
-        <v>19.303840518279</v>
+        <v>19.30384051827899</v>
       </c>
       <c r="J44" t="n">
-        <v>42.49761582746338</v>
+        <v>42.49761582746335</v>
       </c>
       <c r="K44" t="n">
-        <v>63.69290975493241</v>
+        <v>63.69290975493237</v>
       </c>
       <c r="L44" t="n">
-        <v>79.01668666333734</v>
+        <v>79.01668666333728</v>
       </c>
       <c r="M44" t="n">
-        <v>87.92128879852814</v>
+        <v>87.92128879852808</v>
       </c>
       <c r="N44" t="n">
-        <v>89.34394717016579</v>
+        <v>89.34394717016573</v>
       </c>
       <c r="O44" t="n">
-        <v>84.36495581672213</v>
+        <v>84.36495581672207</v>
       </c>
       <c r="P44" t="n">
-        <v>72.00353793733655</v>
+        <v>72.0035379373365</v>
       </c>
       <c r="Q44" t="n">
-        <v>54.07165833002531</v>
+        <v>54.07165833002527</v>
       </c>
       <c r="R44" t="n">
-        <v>31.45308013634247</v>
+        <v>31.45308013634245</v>
       </c>
       <c r="S44" t="n">
         <v>11.41005812360502</v>
       </c>
       <c r="T44" t="n">
-        <v>2.191882805752319</v>
+        <v>2.191882805752317</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04005725287497097</v>
+        <v>0.04005725287497094</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2679064972646203</v>
+        <v>0.2679064972646201</v>
       </c>
       <c r="H45" t="n">
-        <v>2.587412749897781</v>
+        <v>2.587412749897779</v>
       </c>
       <c r="I45" t="n">
-        <v>9.223973699681007</v>
+        <v>9.223973699681002</v>
       </c>
       <c r="J45" t="n">
-        <v>25.31128884902275</v>
+        <v>25.31128884902273</v>
       </c>
       <c r="K45" t="n">
-        <v>43.26102416575231</v>
+        <v>43.26102416575228</v>
       </c>
       <c r="L45" t="n">
-        <v>58.16978573282908</v>
+        <v>58.16978573282904</v>
       </c>
       <c r="M45" t="n">
-        <v>67.88139625867156</v>
+        <v>67.8813962586715</v>
       </c>
       <c r="N45" t="n">
-        <v>69.67801483024</v>
+        <v>69.67801483023996</v>
       </c>
       <c r="O45" t="n">
-        <v>63.74177086453447</v>
+        <v>63.74177086453442</v>
       </c>
       <c r="P45" t="n">
-        <v>51.15839069257474</v>
+        <v>51.15839069257471</v>
       </c>
       <c r="Q45" t="n">
-        <v>34.19802937012943</v>
+        <v>34.19802937012941</v>
       </c>
       <c r="R45" t="n">
-        <v>16.63370340034196</v>
+        <v>16.63370340034195</v>
       </c>
       <c r="S45" t="n">
-        <v>4.976245683840641</v>
+        <v>4.976245683840639</v>
       </c>
       <c r="T45" t="n">
         <v>1.079851188535903</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01762542745161976</v>
+        <v>0.01762542745161975</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2246038077441381</v>
+        <v>0.2246038077441379</v>
       </c>
       <c r="H46" t="n">
-        <v>1.996932036125157</v>
+        <v>1.996932036125155</v>
       </c>
       <c r="I46" t="n">
-        <v>6.754449054705537</v>
+        <v>6.754449054705532</v>
       </c>
       <c r="J46" t="n">
-        <v>15.87948920751056</v>
+        <v>15.87948920751055</v>
       </c>
       <c r="K46" t="n">
-        <v>26.09487875427349</v>
+        <v>26.09487875427347</v>
       </c>
       <c r="L46" t="n">
-        <v>33.39246065316032</v>
+        <v>33.39246065316029</v>
       </c>
       <c r="M46" t="n">
-        <v>35.20766779029248</v>
+        <v>35.20766779029245</v>
       </c>
       <c r="N46" t="n">
-        <v>34.37050814324618</v>
+        <v>34.37050814324615</v>
       </c>
       <c r="O46" t="n">
-        <v>31.74672729823509</v>
+        <v>31.74672729823507</v>
       </c>
       <c r="P46" t="n">
-        <v>27.16480962025465</v>
+        <v>27.16480962025464</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.80750611937506</v>
+        <v>18.80750611937504</v>
       </c>
       <c r="R46" t="n">
-        <v>10.09900393729552</v>
+        <v>10.09900393729551</v>
       </c>
       <c r="S46" t="n">
-        <v>3.914231813141023</v>
+        <v>3.914231813141021</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9596708149067716</v>
+        <v>0.959670814906771</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01225111678604391</v>
+        <v>0.0122511167860439</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>30.54832647285087</v>
+        <v>30.54832647285083</v>
       </c>
       <c r="K11" t="n">
         <v>167.7484712811166</v>
@@ -35416,19 +35416,19 @@
         <v>260.9114862438005</v>
       </c>
       <c r="M11" t="n">
-        <v>307.0885890640879</v>
+        <v>307.0885890640878</v>
       </c>
       <c r="N11" t="n">
         <v>297.277807985559</v>
       </c>
       <c r="O11" t="n">
-        <v>235.0669256577808</v>
+        <v>235.0669256577807</v>
       </c>
       <c r="P11" t="n">
         <v>162.5692503535496</v>
       </c>
       <c r="Q11" t="n">
-        <v>44.0809591154805</v>
+        <v>44.08095911548046</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>24.5646975227649</v>
+        <v>24.56469752276487</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>169.8848222039719</v>
       </c>
       <c r="L12" t="n">
-        <v>290.4557512564141</v>
+        <v>290.455751256414</v>
       </c>
       <c r="M12" t="n">
-        <v>380.1629841868581</v>
+        <v>380.162984186858</v>
       </c>
       <c r="N12" t="n">
-        <v>380.1629841868581</v>
+        <v>380.162984186858</v>
       </c>
       <c r="O12" t="n">
-        <v>315.0078456968196</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>10.64401030455429</v>
+        <v>235.6467519181816</v>
       </c>
       <c r="Q12" t="n">
-        <v>104.293543019957</v>
+        <v>24.41382489917721</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>54.30903461056102</v>
       </c>
       <c r="K13" t="n">
-        <v>41.83626185532041</v>
+        <v>135.6141124481139</v>
       </c>
       <c r="L13" t="n">
         <v>192.7712114331997</v>
@@ -35577,7 +35577,7 @@
         <v>206.5802702718563</v>
       </c>
       <c r="N13" t="n">
-        <v>210.291406042198</v>
+        <v>126.6387092262476</v>
       </c>
       <c r="O13" t="n">
         <v>188.120580731998</v>
@@ -35586,7 +35586,7 @@
         <v>156.2320944048714</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.43418838740391</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>30.54832647285087</v>
+        <v>30.54832647285083</v>
       </c>
       <c r="K14" t="n">
         <v>167.7484712811166</v>
@@ -35653,19 +35653,19 @@
         <v>260.9114862438005</v>
       </c>
       <c r="M14" t="n">
-        <v>307.0885890640879</v>
+        <v>307.0885890640878</v>
       </c>
       <c r="N14" t="n">
         <v>297.277807985559</v>
       </c>
       <c r="O14" t="n">
-        <v>235.0669256577808</v>
+        <v>235.0669256577807</v>
       </c>
       <c r="P14" t="n">
         <v>162.5692503535496</v>
       </c>
       <c r="Q14" t="n">
-        <v>44.0809591154805</v>
+        <v>44.08095911548046</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35729,19 +35729,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>290.4557512564141</v>
+        <v>290.455751256414</v>
       </c>
       <c r="M15" t="n">
-        <v>380.1629841868581</v>
+        <v>380.162984186858</v>
       </c>
       <c r="N15" t="n">
-        <v>380.1629841868581</v>
+        <v>380.162984186858</v>
       </c>
       <c r="O15" t="n">
-        <v>315.0078456968196</v>
+        <v>315.0078456968195</v>
       </c>
       <c r="P15" t="n">
-        <v>139.5022508472762</v>
+        <v>139.502250847276</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>38.01087492692979</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>135.6141124481139</v>
+        <v>41.83626185531811</v>
       </c>
       <c r="L16" t="n">
-        <v>60.98248591347646</v>
+        <v>192.7712114331998</v>
       </c>
       <c r="M16" t="n">
-        <v>206.5802702718563</v>
+        <v>206.5802702718564</v>
       </c>
       <c r="N16" t="n">
-        <v>210.291406042198</v>
+        <v>210.2914060421981</v>
       </c>
       <c r="O16" t="n">
-        <v>188.120580731998</v>
+        <v>188.1205807319981</v>
       </c>
       <c r="P16" t="n">
-        <v>156.2320944048714</v>
+        <v>156.2320944048715</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.43418838740391</v>
+        <v>64.43418838740402</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>30.54832647285087</v>
+        <v>30.54832647285083</v>
       </c>
       <c r="K17" t="n">
         <v>167.7484712811166</v>
@@ -35890,19 +35890,19 @@
         <v>260.9114862438005</v>
       </c>
       <c r="M17" t="n">
-        <v>307.0885890640879</v>
+        <v>307.0885890640878</v>
       </c>
       <c r="N17" t="n">
         <v>297.277807985559</v>
       </c>
       <c r="O17" t="n">
-        <v>235.0669256577808</v>
+        <v>235.0669256577807</v>
       </c>
       <c r="P17" t="n">
         <v>162.5692503535496</v>
       </c>
       <c r="Q17" t="n">
-        <v>44.0809591154805</v>
+        <v>44.08095911548046</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>24.56469752276488</v>
       </c>
       <c r="K18" t="n">
         <v>169.8848222039719</v>
       </c>
       <c r="L18" t="n">
-        <v>24.42642798153669</v>
+        <v>290.455751256414</v>
       </c>
       <c r="M18" t="n">
-        <v>380.1629841868581</v>
+        <v>365.4384045561165</v>
       </c>
       <c r="N18" t="n">
-        <v>380.1629841868581</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>315.0078456968196</v>
+        <v>315.0078456968195</v>
       </c>
       <c r="P18" t="n">
-        <v>235.6467519181817</v>
+        <v>235.6467519181816</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>104.293543019957</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>3.825386928390639</v>
+        <v>3.825386928390621</v>
       </c>
       <c r="L19" t="n">
-        <v>60.98248591347646</v>
+        <v>60.98248591347643</v>
       </c>
       <c r="M19" t="n">
-        <v>74.79154475213306</v>
+        <v>74.79154475213303</v>
       </c>
       <c r="N19" t="n">
-        <v>78.50268052247478</v>
+        <v>78.50268052247475</v>
       </c>
       <c r="O19" t="n">
-        <v>56.33185521227477</v>
+        <v>56.33185521227475</v>
       </c>
       <c r="P19" t="n">
-        <v>24.44336888514814</v>
+        <v>24.44336888514813</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>30.54832647285087</v>
+        <v>30.54832647285083</v>
       </c>
       <c r="K20" t="n">
         <v>167.7484712811166</v>
@@ -36127,19 +36127,19 @@
         <v>260.9114862438005</v>
       </c>
       <c r="M20" t="n">
-        <v>307.088589064088</v>
+        <v>307.0885890640878</v>
       </c>
       <c r="N20" t="n">
-        <v>297.2778079855591</v>
+        <v>297.277807985559</v>
       </c>
       <c r="O20" t="n">
-        <v>235.0669256577808</v>
+        <v>235.0669256577807</v>
       </c>
       <c r="P20" t="n">
         <v>162.5692503535496</v>
       </c>
       <c r="Q20" t="n">
-        <v>44.08095911548051</v>
+        <v>44.08095911548046</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>9.840117892023688</v>
+        <v>24.56469752276487</v>
       </c>
       <c r="K21" t="n">
-        <v>169.8848222039719</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>290.4557512564141</v>
+        <v>290.455751256414</v>
       </c>
       <c r="M21" t="n">
-        <v>380.1629841868581</v>
+        <v>380.162984186858</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>155.1602425732304</v>
       </c>
       <c r="O21" t="n">
-        <v>315.0078456968196</v>
+        <v>315.0078456968195</v>
       </c>
       <c r="P21" t="n">
-        <v>235.6467519181817</v>
+        <v>235.6467519181816</v>
       </c>
       <c r="Q21" t="n">
         <v>104.293543019957</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>3.825386928390646</v>
+        <v>3.825386928390621</v>
       </c>
       <c r="L22" t="n">
-        <v>60.98248591347647</v>
+        <v>60.98248591347643</v>
       </c>
       <c r="M22" t="n">
-        <v>74.79154475213308</v>
+        <v>74.79154475213303</v>
       </c>
       <c r="N22" t="n">
-        <v>78.50268052247478</v>
+        <v>78.50268052247475</v>
       </c>
       <c r="O22" t="n">
-        <v>56.33185521227477</v>
+        <v>56.33185521227475</v>
       </c>
       <c r="P22" t="n">
-        <v>24.44336888514815</v>
+        <v>24.44336888514812</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>30.54832647285087</v>
+        <v>30.5483264728511</v>
       </c>
       <c r="K23" t="n">
         <v>167.7484712811166</v>
@@ -36364,19 +36364,19 @@
         <v>260.9114862438005</v>
       </c>
       <c r="M23" t="n">
-        <v>307.0885890640879</v>
+        <v>307.0885890640878</v>
       </c>
       <c r="N23" t="n">
-        <v>297.2778079855591</v>
+        <v>297.277807985559</v>
       </c>
       <c r="O23" t="n">
-        <v>235.0669256577808</v>
+        <v>235.0669256577807</v>
       </c>
       <c r="P23" t="n">
         <v>162.5692503535496</v>
       </c>
       <c r="Q23" t="n">
-        <v>44.0809591154805</v>
+        <v>44.08095911548046</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>24.56469752276488</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>169.8848222039719</v>
       </c>
       <c r="L24" t="n">
-        <v>290.4557512564141</v>
+        <v>290.455751256414</v>
       </c>
       <c r="M24" t="n">
-        <v>380.1629841868581</v>
+        <v>365.4384045561165</v>
       </c>
       <c r="N24" t="n">
-        <v>380.1629841868581</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>315.0078456968196</v>
+        <v>315.0078456968195</v>
       </c>
       <c r="P24" t="n">
-        <v>139.5022508472762</v>
+        <v>235.6467519181816</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>104.293543019957</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>3.825386928390639</v>
+        <v>3.825386928390621</v>
       </c>
       <c r="L25" t="n">
-        <v>60.98248591347646</v>
+        <v>60.98248591347643</v>
       </c>
       <c r="M25" t="n">
-        <v>74.79154475213306</v>
+        <v>74.79154475213303</v>
       </c>
       <c r="N25" t="n">
-        <v>78.50268052247478</v>
+        <v>78.50268052247475</v>
       </c>
       <c r="O25" t="n">
-        <v>56.33185521227477</v>
+        <v>56.33185521227475</v>
       </c>
       <c r="P25" t="n">
-        <v>24.44336888514814</v>
+        <v>24.44336888514813</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>180.640136591144</v>
       </c>
       <c r="K26" t="n">
-        <v>317.8402813994098</v>
+        <v>317.8402813994097</v>
       </c>
       <c r="L26" t="n">
-        <v>411.0032963620937</v>
+        <v>411.0032963620936</v>
       </c>
       <c r="M26" t="n">
-        <v>457.1803991823811</v>
+        <v>457.1803991823809</v>
       </c>
       <c r="N26" t="n">
-        <v>447.3696181038522</v>
+        <v>447.3696181038521</v>
       </c>
       <c r="O26" t="n">
         <v>385.1587357760739</v>
       </c>
       <c r="P26" t="n">
-        <v>312.6610604718428</v>
+        <v>312.6610604718432</v>
       </c>
       <c r="Q26" t="n">
-        <v>194.1727692337737</v>
+        <v>194.1727692337736</v>
       </c>
       <c r="R26" t="n">
-        <v>31.67577231348594</v>
+        <v>31.67577231348592</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>24.5646975227649</v>
+        <v>24.56469752276488</v>
       </c>
       <c r="K27" t="n">
         <v>169.8848222039719</v>
       </c>
       <c r="L27" t="n">
-        <v>290.4557512564141</v>
+        <v>290.455751256414</v>
       </c>
       <c r="M27" t="n">
         <v>391.4524260866531</v>
@@ -36686,10 +36686,10 @@
         <v>417.6786770904602</v>
       </c>
       <c r="O27" t="n">
-        <v>315.0078456968196</v>
+        <v>315.0078456968195</v>
       </c>
       <c r="P27" t="n">
-        <v>235.6467519181817</v>
+        <v>235.6467519181816</v>
       </c>
       <c r="Q27" t="n">
         <v>104.293543019957</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>72.61211920913094</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>22.31383485744915</v>
+        <v>3.825386928390621</v>
       </c>
       <c r="L28" t="n">
-        <v>60.98248591347646</v>
+        <v>152.083053051666</v>
       </c>
       <c r="M28" t="n">
-        <v>224.8833548704262</v>
+        <v>74.79154475213303</v>
       </c>
       <c r="N28" t="n">
-        <v>228.5944906407679</v>
+        <v>78.50268052247475</v>
       </c>
       <c r="O28" t="n">
-        <v>56.33185521227477</v>
+        <v>206.4236653305679</v>
       </c>
       <c r="P28" t="n">
-        <v>24.44336888514814</v>
+        <v>174.5351790034413</v>
       </c>
       <c r="Q28" t="n">
         <v>82.73727298597382</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>180.640136591144</v>
+        <v>180.6401365911439</v>
       </c>
       <c r="K29" t="n">
         <v>317.8402813994097</v>
@@ -36838,13 +36838,13 @@
         <v>411.0032963620936</v>
       </c>
       <c r="M29" t="n">
-        <v>457.1803991823811</v>
+        <v>457.1803991823809</v>
       </c>
       <c r="N29" t="n">
         <v>447.3696181038521</v>
       </c>
       <c r="O29" t="n">
-        <v>385.1587357760739</v>
+        <v>385.1587357760737</v>
       </c>
       <c r="P29" t="n">
         <v>312.6610604718427</v>
@@ -36853,7 +36853,7 @@
         <v>194.1727692337736</v>
       </c>
       <c r="R29" t="n">
-        <v>31.67577231348588</v>
+        <v>31.67577231348587</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>24.5646975227649</v>
+        <v>24.56469752276488</v>
       </c>
       <c r="K30" t="n">
         <v>169.8848222039719</v>
       </c>
       <c r="L30" t="n">
-        <v>290.4557512564141</v>
+        <v>290.455751256414</v>
       </c>
       <c r="M30" t="n">
         <v>391.4524260866531</v>
@@ -36923,10 +36923,10 @@
         <v>417.6786770904602</v>
       </c>
       <c r="O30" t="n">
-        <v>315.0078456968196</v>
+        <v>315.0078456968195</v>
       </c>
       <c r="P30" t="n">
-        <v>235.6467519181817</v>
+        <v>235.6467519181816</v>
       </c>
       <c r="Q30" t="n">
         <v>104.293543019957</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>72.61211920913088</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>153.9171970466837</v>
+        <v>94.92595406658148</v>
       </c>
       <c r="L31" t="n">
-        <v>79.47093384253616</v>
+        <v>60.98248591347643</v>
       </c>
       <c r="M31" t="n">
-        <v>224.8833548704262</v>
+        <v>74.79154475213303</v>
       </c>
       <c r="N31" t="n">
-        <v>78.50268052247478</v>
+        <v>228.5944906407678</v>
       </c>
       <c r="O31" t="n">
-        <v>56.33185521227477</v>
+        <v>206.4236653305678</v>
       </c>
       <c r="P31" t="n">
-        <v>24.44336888514814</v>
+        <v>24.44336888514813</v>
       </c>
       <c r="Q31" t="n">
         <v>82.73727298597376</v>
@@ -37075,7 +37075,7 @@
         <v>411.0032963620936</v>
       </c>
       <c r="M32" t="n">
-        <v>457.1803991823811</v>
+        <v>457.1803991823815</v>
       </c>
       <c r="N32" t="n">
         <v>447.3696181038521</v>
@@ -37087,10 +37087,10 @@
         <v>312.6610604718427</v>
       </c>
       <c r="Q32" t="n">
-        <v>194.1727692337745</v>
+        <v>194.1727692337736</v>
       </c>
       <c r="R32" t="n">
-        <v>31.67577231348588</v>
+        <v>31.67577231348589</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>24.5646975227649</v>
+        <v>24.56469752276488</v>
       </c>
       <c r="K33" t="n">
         <v>169.8848222039719</v>
       </c>
       <c r="L33" t="n">
-        <v>290.4557512564141</v>
+        <v>290.455751256414</v>
       </c>
       <c r="M33" t="n">
         <v>391.4524260866531</v>
@@ -37160,10 +37160,10 @@
         <v>417.6786770904602</v>
       </c>
       <c r="O33" t="n">
-        <v>315.0078456968196</v>
+        <v>315.0078456968195</v>
       </c>
       <c r="P33" t="n">
-        <v>235.6467519181817</v>
+        <v>235.6467519181816</v>
       </c>
       <c r="Q33" t="n">
         <v>104.293543019957</v>
@@ -37227,25 +37227,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>3.825386928390639</v>
+        <v>3.825386928390621</v>
       </c>
       <c r="L34" t="n">
-        <v>152.083053051667</v>
+        <v>211.0742960317696</v>
       </c>
       <c r="M34" t="n">
-        <v>224.8833548704262</v>
+        <v>74.79154475213303</v>
       </c>
       <c r="N34" t="n">
-        <v>228.5944906407679</v>
+        <v>78.50268052247475</v>
       </c>
       <c r="O34" t="n">
-        <v>56.33185521227477</v>
+        <v>206.4236653305679</v>
       </c>
       <c r="P34" t="n">
-        <v>24.44336888514814</v>
+        <v>174.5351790034412</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.73727298597376</v>
+        <v>23.74603000587102</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,10 +37300,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>29.73191770625214</v>
+        <v>29.73191770625213</v>
       </c>
       <c r="J35" t="n">
-        <v>30.54832647285087</v>
+        <v>30.54832647285083</v>
       </c>
       <c r="K35" t="n">
         <v>167.7484712811166</v>
@@ -37312,25 +37312,25 @@
         <v>260.9114862438005</v>
       </c>
       <c r="M35" t="n">
-        <v>307.0885890640879</v>
+        <v>307.0885890640878</v>
       </c>
       <c r="N35" t="n">
         <v>297.277807985559</v>
       </c>
       <c r="O35" t="n">
-        <v>235.0669256577808</v>
+        <v>235.0669256577807</v>
       </c>
       <c r="P35" t="n">
         <v>162.5692503535496</v>
       </c>
       <c r="Q35" t="n">
-        <v>91.33096964911587</v>
+        <v>91.33096964911449</v>
       </c>
       <c r="R35" t="n">
         <v>102.4879289535718</v>
       </c>
       <c r="S35" t="n">
-        <v>23.29395529573874</v>
+        <v>23.29395529573873</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>24.5646975227649</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>169.8848222039719</v>
+        <v>57.81417661489367</v>
       </c>
       <c r="L36" t="n">
-        <v>290.4557512564141</v>
+        <v>290.455751256414</v>
       </c>
       <c r="M36" t="n">
         <v>391.4524260866531</v>
       </c>
       <c r="N36" t="n">
-        <v>176.7497909586616</v>
+        <v>417.6786770904602</v>
       </c>
       <c r="O36" t="n">
-        <v>315.0078456968196</v>
+        <v>315.0078456968195</v>
       </c>
       <c r="P36" t="n">
-        <v>235.6467519181817</v>
+        <v>235.6467519181816</v>
       </c>
       <c r="Q36" t="n">
-        <v>104.293543019957</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,22 +37464,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>3.825386928390639</v>
+        <v>3.825386928390621</v>
       </c>
       <c r="L37" t="n">
-        <v>60.98248591347646</v>
+        <v>60.98248591347643</v>
       </c>
       <c r="M37" t="n">
-        <v>74.79154475213306</v>
+        <v>74.79154475213303</v>
       </c>
       <c r="N37" t="n">
-        <v>78.50268052247478</v>
+        <v>78.50268052247475</v>
       </c>
       <c r="O37" t="n">
-        <v>56.33185521227477</v>
+        <v>56.33185521227475</v>
       </c>
       <c r="P37" t="n">
-        <v>24.44336888514814</v>
+        <v>24.44336888514813</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37537,10 +37537,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>29.73191770625214</v>
+        <v>29.73191770625213</v>
       </c>
       <c r="J38" t="n">
-        <v>30.54832647285087</v>
+        <v>77.79833700648591</v>
       </c>
       <c r="K38" t="n">
         <v>167.7484712811166</v>
@@ -37549,25 +37549,25 @@
         <v>260.9114862438005</v>
       </c>
       <c r="M38" t="n">
-        <v>307.0885890640879</v>
+        <v>307.0885890640878</v>
       </c>
       <c r="N38" t="n">
         <v>297.277807985559</v>
       </c>
       <c r="O38" t="n">
-        <v>282.3169361914143</v>
+        <v>235.0669256577807</v>
       </c>
       <c r="P38" t="n">
         <v>162.5692503535496</v>
       </c>
       <c r="Q38" t="n">
-        <v>44.0809591154805</v>
+        <v>44.08095911548046</v>
       </c>
       <c r="R38" t="n">
         <v>102.4879289535718</v>
       </c>
       <c r="S38" t="n">
-        <v>23.29395529573874</v>
+        <v>23.29395529573873</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>24.56469752276488</v>
       </c>
       <c r="K39" t="n">
-        <v>57.81417661489343</v>
+        <v>169.8848222039719</v>
       </c>
       <c r="L39" t="n">
-        <v>290.4557512564141</v>
+        <v>290.455751256414</v>
       </c>
       <c r="M39" t="n">
         <v>391.4524260866531</v>
@@ -37634,10 +37634,10 @@
         <v>417.6786770904602</v>
       </c>
       <c r="O39" t="n">
-        <v>315.0078456968196</v>
+        <v>315.0078456968195</v>
       </c>
       <c r="P39" t="n">
-        <v>235.6467519181817</v>
+        <v>99.01140880633946</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37701,22 +37701,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>3.825386928390639</v>
+        <v>3.825386928390621</v>
       </c>
       <c r="L40" t="n">
-        <v>60.98248591347646</v>
+        <v>60.98248591347643</v>
       </c>
       <c r="M40" t="n">
-        <v>74.79154475213306</v>
+        <v>74.79154475213303</v>
       </c>
       <c r="N40" t="n">
-        <v>78.50268052247478</v>
+        <v>78.50268052247475</v>
       </c>
       <c r="O40" t="n">
-        <v>56.33185521227477</v>
+        <v>56.33185521227475</v>
       </c>
       <c r="P40" t="n">
-        <v>24.44336888514814</v>
+        <v>24.44336888514813</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37774,10 +37774,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>11.56773299103846</v>
+        <v>11.56773299103851</v>
       </c>
       <c r="J41" t="n">
-        <v>170.4799952407608</v>
+        <v>170.4799952407607</v>
       </c>
       <c r="K41" t="n">
         <v>167.7484712811166</v>
@@ -37786,13 +37786,13 @@
         <v>260.9114862438005</v>
       </c>
       <c r="M41" t="n">
-        <v>307.0885890640879</v>
+        <v>307.0885890640878</v>
       </c>
       <c r="N41" t="n">
         <v>297.277807985559</v>
       </c>
       <c r="O41" t="n">
-        <v>235.0669256577808</v>
+        <v>235.0669256577807</v>
       </c>
       <c r="P41" t="n">
         <v>162.5692503535496</v>
@@ -37801,10 +37801,10 @@
         <v>246.8207411586459</v>
       </c>
       <c r="R41" t="n">
-        <v>84.32374423835816</v>
+        <v>84.3237442383582</v>
       </c>
       <c r="S41" t="n">
-        <v>5.12977058052506</v>
+        <v>5.129770580525108</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>24.5646975227652</v>
+        <v>24.56469752276488</v>
       </c>
       <c r="K42" t="n">
         <v>169.8848222039719</v>
       </c>
       <c r="L42" t="n">
-        <v>290.4557512564141</v>
+        <v>290.455751256414</v>
       </c>
       <c r="M42" t="n">
         <v>391.4524260866531</v>
@@ -37871,10 +37871,10 @@
         <v>417.6786770904602</v>
       </c>
       <c r="O42" t="n">
-        <v>315.0078456968196</v>
+        <v>315.0078456968195</v>
       </c>
       <c r="P42" t="n">
-        <v>235.6467519181817</v>
+        <v>235.6467519181816</v>
       </c>
       <c r="Q42" t="n">
         <v>104.293543019957</v>
@@ -37911,13 +37911,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4.328002932826148</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>4.328002932825783</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -37938,22 +37938,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>3.825386928390639</v>
+        <v>3.825386928390621</v>
       </c>
       <c r="L43" t="n">
-        <v>60.98248591347646</v>
+        <v>60.98248591347643</v>
       </c>
       <c r="M43" t="n">
-        <v>74.79154475213306</v>
+        <v>74.79154475213303</v>
       </c>
       <c r="N43" t="n">
-        <v>78.50268052247478</v>
+        <v>78.50268052247475</v>
       </c>
       <c r="O43" t="n">
-        <v>56.33185521227477</v>
+        <v>56.33185521227475</v>
       </c>
       <c r="P43" t="n">
-        <v>24.44336888514814</v>
+        <v>24.44336888514813</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38011,37 +38011,37 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>11.56773299103846</v>
+        <v>11.56773299103845</v>
       </c>
       <c r="J44" t="n">
-        <v>30.54832647285087</v>
+        <v>233.2881085160162</v>
       </c>
       <c r="K44" t="n">
-        <v>370.488253324282</v>
+        <v>167.7484712811166</v>
       </c>
       <c r="L44" t="n">
         <v>260.9114862438005</v>
       </c>
       <c r="M44" t="n">
-        <v>307.0885890640879</v>
+        <v>307.0885890640878</v>
       </c>
       <c r="N44" t="n">
         <v>297.277807985559</v>
       </c>
       <c r="O44" t="n">
-        <v>235.0669256577808</v>
+        <v>235.0669256577807</v>
       </c>
       <c r="P44" t="n">
         <v>162.5692503535496</v>
       </c>
       <c r="Q44" t="n">
-        <v>184.0126278833903</v>
+        <v>184.0126278833905</v>
       </c>
       <c r="R44" t="n">
-        <v>84.32374423835816</v>
+        <v>84.32374423835815</v>
       </c>
       <c r="S44" t="n">
-        <v>5.12977058052506</v>
+        <v>5.129770580525051</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>24.5646975227649</v>
+        <v>24.56469752276488</v>
       </c>
       <c r="K45" t="n">
         <v>169.8848222039719</v>
       </c>
       <c r="L45" t="n">
-        <v>290.4557512564141</v>
+        <v>290.455751256414</v>
       </c>
       <c r="M45" t="n">
         <v>391.4524260866531</v>
@@ -38108,13 +38108,13 @@
         <v>417.6786770904602</v>
       </c>
       <c r="O45" t="n">
-        <v>315.0078456968196</v>
+        <v>315.0078456968195</v>
       </c>
       <c r="P45" t="n">
-        <v>235.6467519181817</v>
+        <v>235.6467519181816</v>
       </c>
       <c r="Q45" t="n">
-        <v>104.293543019957</v>
+        <v>104.2935430199573</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38148,7 +38148,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>4.328002932826242</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -38175,28 +38175,28 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>3.825386928390639</v>
+        <v>3.825386928390621</v>
       </c>
       <c r="L46" t="n">
-        <v>60.98248591347646</v>
+        <v>60.98248591347643</v>
       </c>
       <c r="M46" t="n">
-        <v>74.79154475213306</v>
+        <v>74.79154475213303</v>
       </c>
       <c r="N46" t="n">
-        <v>78.50268052247478</v>
+        <v>78.50268052247475</v>
       </c>
       <c r="O46" t="n">
-        <v>56.33185521227477</v>
+        <v>56.33185521227475</v>
       </c>
       <c r="P46" t="n">
-        <v>24.44336888514814</v>
+        <v>24.44336888514813</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.328002932826141</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
